--- a/rp/Excel/ActionProp_动作道具.xlsx
+++ b/rp/Excel/ActionProp_动作道具.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -56,13 +56,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,21 +71,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,12 +116,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,45 +442,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="23" min="23" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="24" min="24" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="25" min="25" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="26" min="26" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="28" min="28" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="30" min="30" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="31" min="31" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="32" min="32" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="33" min="33" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="34" min="34" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="35" min="35" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="36" min="36" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="37" min="37" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="38" min="38" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="39" min="39" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="40" min="40" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="41" min="41" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="42" min="42" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="43" min="43" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="44" min="44" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="45" min="45" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="46" min="46" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="22" min="22" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="23" min="23" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="24" min="24" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="25" min="25" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="26" min="26" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="27" min="27" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="28" min="28" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="29" min="29" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="30" min="30" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="31" min="31" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="32" min="32" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="33" min="33" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="34" min="34" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="35" min="35" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="36" min="36" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="37" min="37" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="38" min="38" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="39" min="39" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="40" min="40" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="41" min="41" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="42" min="42" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="43" min="43" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="44" min="44" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="45" min="45" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="true" ht="21" r="1">
       <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
@@ -645,7 +627,7 @@
       </c>
       <c r="AT1" s="1"/>
     </row>
-    <row r="2">
+    <row customHeight="true" ht="21" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -742,10 +724,10 @@
       <c r="AF2" s="1" t="str">
         <v>VehiclesChildParameter</v>
       </c>
-      <c r="AG2" s="4" t="str">
+      <c r="AG2" s="1" t="str">
         <v>VehiclesChildMoveId</v>
       </c>
-      <c r="AH2" s="4" t="str">
+      <c r="AH2" s="1" t="str">
         <v>VehiclesChildIdleId</v>
       </c>
       <c r="AI2" s="1" t="str">
@@ -783,7 +765,7 @@
       </c>
       <c r="AT2" s="1"/>
     </row>
-    <row r="3">
+    <row customHeight="true" ht="21" r="3">
       <c r="A3" s="1" t="str">
         <v>唯一ID</v>
       </c>
@@ -851,7 +833,7 @@
       <c r="Z3" s="1" t="str">
         <v>延迟特效</v>
       </c>
-      <c r="AA3" s="4" t="str">
+      <c r="AA3" s="1" t="str">
         <v>延迟特效偏移参数</v>
       </c>
       <c r="AB3" s="1" t="str">
@@ -886,10 +868,10 @@
       <c r="AR3" s="1" t="str">
         <v>1:变大小</v>
       </c>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-    </row>
-    <row customHeight="true" ht="33" r="4">
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+    </row>
+    <row customHeight="true" ht="36" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -934,14 +916,16 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-    </row>
-    <row r="5">
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="5">
       <c r="A5" s="1">
         <v>10006</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="str">
+        <v>电吉他</v>
+      </c>
       <c r="C5" s="1">
         <v>10106</v>
       </c>
@@ -998,10 +982,10 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-    </row>
-    <row r="6">
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="6">
       <c r="A6" s="1">
         <v>10106</v>
       </c>
@@ -1072,10 +1056,10 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-    </row>
-    <row r="7">
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="7">
       <c r="A7" s="1">
         <v>10093</v>
       </c>
@@ -1136,10 +1120,10 @@
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-    </row>
-    <row r="8">
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="8">
       <c r="A8" s="1">
         <v>10193</v>
       </c>
@@ -1210,10 +1194,10 @@
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-    </row>
-    <row r="9">
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="9">
       <c r="A9" s="1">
         <v>10094</v>
       </c>
@@ -1274,10 +1258,10 @@
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-    </row>
-    <row r="10">
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="10">
       <c r="A10" s="1">
         <v>10194</v>
       </c>
@@ -1348,10 +1332,10 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-    </row>
-    <row r="11">
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="11">
       <c r="A11" s="1">
         <v>10095</v>
       </c>
@@ -1421,7 +1405,7 @@
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
     </row>
-    <row r="12">
+    <row customHeight="true" ht="21" r="12">
       <c r="A12" s="1">
         <v>10195</v>
       </c>
@@ -1495,7 +1479,7 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
     </row>
-    <row r="13">
+    <row customHeight="true" ht="21" r="13">
       <c r="A13" s="1">
         <v>10320</v>
       </c>
@@ -1567,7 +1551,7 @@
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
     </row>
-    <row r="14">
+    <row customHeight="true" ht="21" r="14">
       <c r="A14" s="1">
         <v>10420</v>
       </c>
@@ -1641,7 +1625,7 @@
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
     </row>
-    <row r="15">
+    <row customHeight="true" ht="21" r="15">
       <c r="A15" s="1">
         <v>10340</v>
       </c>
@@ -1711,7 +1695,7 @@
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
     </row>
-    <row r="16">
+    <row customHeight="true" ht="21" r="16">
       <c r="A16" s="1">
         <v>10440</v>
       </c>
@@ -1785,7 +1769,7 @@
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
     </row>
-    <row r="17">
+    <row customHeight="true" ht="21" r="17">
       <c r="A17" s="1">
         <v>10338</v>
       </c>
@@ -1851,7 +1835,7 @@
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
     </row>
-    <row r="18">
+    <row customHeight="true" ht="21" r="18">
       <c r="A18" s="1">
         <v>10438</v>
       </c>
@@ -1919,7 +1903,7 @@
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
     </row>
-    <row r="19">
+    <row customHeight="true" ht="21" r="19">
       <c r="A19" s="1">
         <v>10339</v>
       </c>
@@ -1985,7 +1969,7 @@
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
     </row>
-    <row r="20">
+    <row customHeight="true" ht="21" r="20">
       <c r="A20" s="1">
         <v>10439</v>
       </c>
@@ -2053,7 +2037,7 @@
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
     </row>
-    <row r="21">
+    <row customHeight="true" ht="21" r="21">
       <c r="A21" s="1">
         <v>10341</v>
       </c>
@@ -2123,7 +2107,7 @@
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
     </row>
-    <row r="22">
+    <row customHeight="true" ht="21" r="22">
       <c r="A22" s="1">
         <v>10441</v>
       </c>
@@ -2187,7 +2171,7 @@
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
     </row>
-    <row r="23">
+    <row customHeight="true" ht="21" r="23">
       <c r="A23" s="1">
         <v>10329</v>
       </c>
@@ -2257,7 +2241,7 @@
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
     </row>
-    <row r="24">
+    <row customHeight="true" ht="21" r="24">
       <c r="A24" s="1">
         <v>10429</v>
       </c>
@@ -2321,7 +2305,7 @@
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
     </row>
-    <row r="25">
+    <row customHeight="true" ht="21" r="25">
       <c r="A25" s="1">
         <v>10330</v>
       </c>
@@ -2393,7 +2377,7 @@
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
     </row>
-    <row r="26">
+    <row customHeight="true" ht="21" r="26">
       <c r="A26" s="1">
         <v>10430</v>
       </c>
@@ -2459,7 +2443,7 @@
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
     </row>
-    <row r="27">
+    <row customHeight="true" ht="21" r="27">
       <c r="A27" s="1">
         <v>10331</v>
       </c>
@@ -2531,7 +2515,7 @@
       <c r="AS27" s="1"/>
       <c r="AT27" s="1"/>
     </row>
-    <row r="28">
+    <row customHeight="true" ht="21" r="28">
       <c r="A28" s="1">
         <v>10431</v>
       </c>
@@ -2597,7 +2581,7 @@
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
     </row>
-    <row r="29">
+    <row customHeight="true" ht="21" r="29">
       <c r="A29" s="1">
         <v>10332</v>
       </c>
@@ -2669,7 +2653,7 @@
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
     </row>
-    <row r="30">
+    <row customHeight="true" ht="21" r="30">
       <c r="A30" s="1">
         <v>10432</v>
       </c>
@@ -2735,7 +2719,7 @@
       <c r="AS30" s="1"/>
       <c r="AT30" s="1"/>
     </row>
-    <row r="31">
+    <row customHeight="true" ht="21" r="31">
       <c r="A31" s="1">
         <v>10333</v>
       </c>
@@ -2807,7 +2791,7 @@
       <c r="AS31" s="1"/>
       <c r="AT31" s="1"/>
     </row>
-    <row r="32">
+    <row customHeight="true" ht="21" r="32">
       <c r="A32" s="1">
         <v>10433</v>
       </c>
@@ -2873,7 +2857,7 @@
       <c r="AS32" s="1"/>
       <c r="AT32" s="1"/>
     </row>
-    <row r="33">
+    <row customHeight="true" ht="21" r="33">
       <c r="A33" s="1">
         <v>10334</v>
       </c>
@@ -2945,7 +2929,7 @@
       <c r="AS33" s="1"/>
       <c r="AT33" s="1"/>
     </row>
-    <row r="34">
+    <row customHeight="true" ht="21" r="34">
       <c r="A34" s="1">
         <v>10434</v>
       </c>
@@ -3011,7 +2995,7 @@
       <c r="AS34" s="1"/>
       <c r="AT34" s="1"/>
     </row>
-    <row r="35">
+    <row customHeight="true" ht="21" r="35">
       <c r="A35" s="1">
         <v>10335</v>
       </c>
@@ -3083,7 +3067,7 @@
       <c r="AS35" s="1"/>
       <c r="AT35" s="1"/>
     </row>
-    <row r="36">
+    <row customHeight="true" ht="21" r="36">
       <c r="A36" s="1">
         <v>10435</v>
       </c>
@@ -3149,7 +3133,7 @@
       <c r="AS36" s="1"/>
       <c r="AT36" s="1"/>
     </row>
-    <row r="37">
+    <row customHeight="true" ht="21" r="37">
       <c r="A37" s="1">
         <v>10336</v>
       </c>
@@ -3221,7 +3205,7 @@
       <c r="AS37" s="1"/>
       <c r="AT37" s="1"/>
     </row>
-    <row r="38">
+    <row customHeight="true" ht="21" r="38">
       <c r="A38" s="1">
         <v>10436</v>
       </c>
@@ -3287,7 +3271,7 @@
       <c r="AS38" s="1"/>
       <c r="AT38" s="1"/>
     </row>
-    <row r="39">
+    <row customHeight="true" ht="21" r="39">
       <c r="A39" s="1">
         <v>10337</v>
       </c>
@@ -3359,7 +3343,7 @@
       <c r="AS39" s="1"/>
       <c r="AT39" s="1"/>
     </row>
-    <row r="40">
+    <row customHeight="true" ht="21" r="40">
       <c r="A40" s="1">
         <v>10437</v>
       </c>
@@ -3425,7 +3409,7 @@
       <c r="AS40" s="1"/>
       <c r="AT40" s="1"/>
     </row>
-    <row r="41">
+    <row customHeight="true" ht="21" r="41">
       <c r="A41" s="1">
         <v>10342</v>
       </c>
@@ -3495,7 +3479,7 @@
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
     </row>
-    <row r="42">
+    <row customHeight="true" ht="21" r="42">
       <c r="A42" s="1">
         <v>10442</v>
       </c>
@@ -3559,7 +3543,7 @@
       <c r="AS42" s="1"/>
       <c r="AT42" s="1"/>
     </row>
-    <row r="43">
+    <row customHeight="true" ht="21" r="43">
       <c r="A43" s="1">
         <v>10343</v>
       </c>
@@ -3623,7 +3607,7 @@
       <c r="AS43" s="1"/>
       <c r="AT43" s="1"/>
     </row>
-    <row r="44">
+    <row customHeight="true" ht="21" r="44">
       <c r="A44" s="1">
         <v>10443</v>
       </c>
@@ -3687,7 +3671,7 @@
       <c r="AS44" s="1"/>
       <c r="AT44" s="1"/>
     </row>
-    <row r="45">
+    <row customHeight="true" ht="21" r="45">
       <c r="A45" s="1">
         <v>10344</v>
       </c>
@@ -3751,7 +3735,7 @@
       <c r="AS45" s="1"/>
       <c r="AT45" s="1"/>
     </row>
-    <row r="46">
+    <row customHeight="true" ht="21" r="46">
       <c r="A46" s="1">
         <v>10444</v>
       </c>
@@ -3815,7 +3799,7 @@
       <c r="AS46" s="1"/>
       <c r="AT46" s="1"/>
     </row>
-    <row r="47">
+    <row customHeight="true" ht="21" r="47">
       <c r="A47" s="1">
         <v>10345</v>
       </c>
@@ -3887,7 +3871,7 @@
       <c r="AS47" s="1"/>
       <c r="AT47" s="1"/>
     </row>
-    <row r="48">
+    <row customHeight="true" ht="21" r="48">
       <c r="A48" s="1">
         <v>10445</v>
       </c>
@@ -3953,7 +3937,7 @@
       <c r="AS48" s="1"/>
       <c r="AT48" s="1"/>
     </row>
-    <row r="49">
+    <row customHeight="true" ht="21" r="49">
       <c r="A49" s="1">
         <v>10346</v>
       </c>
@@ -4025,7 +4009,7 @@
       <c r="AS49" s="1"/>
       <c r="AT49" s="1"/>
     </row>
-    <row r="50">
+    <row customHeight="true" ht="21" r="50">
       <c r="A50" s="1">
         <v>10446</v>
       </c>
@@ -4091,7 +4075,7 @@
       <c r="AS50" s="1"/>
       <c r="AT50" s="1"/>
     </row>
-    <row r="51">
+    <row customHeight="true" ht="21" r="51">
       <c r="A51" s="1">
         <v>10347</v>
       </c>
@@ -4163,7 +4147,7 @@
       <c r="AS51" s="1"/>
       <c r="AT51" s="1"/>
     </row>
-    <row r="52">
+    <row customHeight="true" ht="21" r="52">
       <c r="A52" s="1">
         <v>10447</v>
       </c>
@@ -4229,7 +4213,7 @@
       <c r="AS52" s="1"/>
       <c r="AT52" s="1"/>
     </row>
-    <row r="53">
+    <row customHeight="true" ht="21" r="53">
       <c r="A53" s="1">
         <v>10348</v>
       </c>
@@ -4301,7 +4285,7 @@
       <c r="AS53" s="1"/>
       <c r="AT53" s="1"/>
     </row>
-    <row r="54">
+    <row customHeight="true" ht="21" r="54">
       <c r="A54" s="1">
         <v>10448</v>
       </c>
@@ -4367,7 +4351,7 @@
       <c r="AS54" s="1"/>
       <c r="AT54" s="1"/>
     </row>
-    <row r="55">
+    <row customHeight="true" ht="21" r="55">
       <c r="A55" s="1">
         <v>10349</v>
       </c>
@@ -4437,7 +4421,7 @@
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
     </row>
-    <row r="56">
+    <row customHeight="true" ht="21" r="56">
       <c r="A56" s="1">
         <v>10449</v>
       </c>
@@ -4501,7 +4485,7 @@
       <c r="AS56" s="1"/>
       <c r="AT56" s="1"/>
     </row>
-    <row r="57">
+    <row customHeight="true" ht="21" r="57">
       <c r="A57" s="1">
         <v>10312</v>
       </c>
@@ -4577,7 +4561,7 @@
       <c r="AS57" s="1"/>
       <c r="AT57" s="1"/>
     </row>
-    <row r="58">
+    <row customHeight="true" ht="21" r="58">
       <c r="A58" s="1">
         <v>10412</v>
       </c>
@@ -4648,12 +4632,12 @@
       <c r="AR58" s="1">
         <v>1</v>
       </c>
-      <c r="AS58" s="5">
+      <c r="AS58" s="2">
         <v>0.4</v>
       </c>
       <c r="AT58" s="1"/>
     </row>
-    <row r="59">
+    <row customHeight="true" ht="21" r="59">
       <c r="A59" s="1">
         <v>10313</v>
       </c>
@@ -4726,10 +4710,10 @@
       <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1"/>
-      <c r="AS59" s="5"/>
+      <c r="AS59" s="2"/>
       <c r="AT59" s="1"/>
     </row>
-    <row r="60">
+    <row customHeight="true" ht="21" r="60">
       <c r="A60" s="1">
         <v>10413</v>
       </c>
@@ -4800,12 +4784,12 @@
       <c r="AR60" s="1">
         <v>1</v>
       </c>
-      <c r="AS60" s="5">
+      <c r="AS60" s="2">
         <v>3</v>
       </c>
       <c r="AT60" s="1"/>
     </row>
-    <row r="61">
+    <row customHeight="true" ht="21" r="61">
       <c r="A61" s="1">
         <v>10314</v>
       </c>
@@ -4878,10 +4862,10 @@
       <c r="AP61" s="1"/>
       <c r="AQ61" s="1"/>
       <c r="AR61" s="1"/>
-      <c r="AS61" s="5"/>
+      <c r="AS61" s="2"/>
       <c r="AT61" s="1"/>
     </row>
-    <row r="62">
+    <row customHeight="true" ht="21" r="62">
       <c r="A62" s="1">
         <v>10414</v>
       </c>
@@ -4952,12 +4936,12 @@
       <c r="AR62" s="1">
         <v>1</v>
       </c>
-      <c r="AS62" s="5">
+      <c r="AS62" s="2">
         <v>0.2</v>
       </c>
       <c r="AT62" s="1"/>
     </row>
-    <row r="63">
+    <row customHeight="true" ht="21" r="63">
       <c r="A63" s="1">
         <v>10315</v>
       </c>
@@ -5033,7 +5017,7 @@
       <c r="AS63" s="1"/>
       <c r="AT63" s="1"/>
     </row>
-    <row r="64">
+    <row customHeight="true" ht="21" r="64">
       <c r="A64" s="1">
         <v>10415</v>
       </c>
@@ -5103,7 +5087,7 @@
       <c r="AS64" s="1"/>
       <c r="AT64" s="1"/>
     </row>
-    <row r="65">
+    <row customHeight="true" ht="21" r="65">
       <c r="A65" s="1">
         <v>10316</v>
       </c>
@@ -5175,7 +5159,7 @@
       <c r="AS65" s="1"/>
       <c r="AT65" s="1"/>
     </row>
-    <row r="66">
+    <row customHeight="true" ht="21" r="66">
       <c r="A66" s="1">
         <v>10416</v>
       </c>
@@ -5245,7 +5229,7 @@
       <c r="AS66" s="1"/>
       <c r="AT66" s="1"/>
     </row>
-    <row r="67">
+    <row customHeight="true" ht="21" r="67">
       <c r="A67" s="1">
         <v>10317</v>
       </c>
@@ -5315,7 +5299,7 @@
       <c r="AS67" s="1"/>
       <c r="AT67" s="1"/>
     </row>
-    <row r="68">
+    <row customHeight="true" ht="21" r="68">
       <c r="A68" s="1">
         <v>10417</v>
       </c>
@@ -5379,7 +5363,7 @@
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
     </row>
-    <row r="69">
+    <row customHeight="true" ht="21" r="69">
       <c r="A69" s="1">
         <v>10318</v>
       </c>
@@ -5449,7 +5433,7 @@
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
     </row>
-    <row r="70">
+    <row customHeight="true" ht="21" r="70">
       <c r="A70" s="1">
         <v>10418</v>
       </c>
@@ -5507,7 +5491,7 @@
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71">
+    <row customHeight="true" ht="21" r="71">
       <c r="A71" s="1">
         <v>10319</v>
       </c>
@@ -5577,7 +5561,7 @@
       <c r="AS71" s="1"/>
       <c r="AT71" s="1"/>
     </row>
-    <row r="72">
+    <row customHeight="true" ht="21" r="72">
       <c r="A72" s="1">
         <v>10419</v>
       </c>
@@ -5641,7 +5625,7 @@
       <c r="AS72" s="1"/>
       <c r="AT72" s="1"/>
     </row>
-    <row r="73">
+    <row customHeight="true" ht="21" r="73">
       <c r="A73" s="1">
         <v>10321</v>
       </c>
@@ -5705,7 +5689,7 @@
       <c r="AS73" s="1"/>
       <c r="AT73" s="1"/>
     </row>
-    <row r="74">
+    <row customHeight="true" ht="21" r="74">
       <c r="A74" s="1">
         <v>10421</v>
       </c>
@@ -5769,7 +5753,7 @@
       <c r="AS74" s="1"/>
       <c r="AT74" s="1"/>
     </row>
-    <row r="75">
+    <row customHeight="true" ht="21" r="75">
       <c r="A75" s="1">
         <v>10322</v>
       </c>
@@ -5833,7 +5817,7 @@
       <c r="AS75" s="1"/>
       <c r="AT75" s="1"/>
     </row>
-    <row r="76">
+    <row customHeight="true" ht="21" r="76">
       <c r="A76" s="1">
         <v>10422</v>
       </c>
@@ -5897,7 +5881,7 @@
       <c r="AS76" s="1"/>
       <c r="AT76" s="1"/>
     </row>
-    <row r="77">
+    <row customHeight="true" ht="21" r="77">
       <c r="A77" s="1">
         <v>10323</v>
       </c>
@@ -5961,7 +5945,7 @@
       <c r="AS77" s="1"/>
       <c r="AT77" s="1"/>
     </row>
-    <row r="78">
+    <row customHeight="true" ht="21" r="78">
       <c r="A78" s="1">
         <v>10423</v>
       </c>
@@ -6025,7 +6009,7 @@
       <c r="AS78" s="1"/>
       <c r="AT78" s="1"/>
     </row>
-    <row r="79">
+    <row customHeight="true" ht="21" r="79">
       <c r="A79" s="1">
         <v>10324</v>
       </c>
@@ -6095,7 +6079,7 @@
       <c r="AS79" s="1"/>
       <c r="AT79" s="1"/>
     </row>
-    <row r="80">
+    <row customHeight="true" ht="21" r="80">
       <c r="A80" s="1">
         <v>10424</v>
       </c>
@@ -6159,7 +6143,7 @@
       <c r="AS80" s="1"/>
       <c r="AT80" s="1"/>
     </row>
-    <row r="81">
+    <row customHeight="true" ht="21" r="81">
       <c r="A81" s="1">
         <v>10325</v>
       </c>
@@ -6229,7 +6213,7 @@
       <c r="AS81" s="1"/>
       <c r="AT81" s="1"/>
     </row>
-    <row r="82">
+    <row customHeight="true" ht="21" r="82">
       <c r="A82" s="1">
         <v>10425</v>
       </c>
@@ -6293,7 +6277,7 @@
       <c r="AS82" s="1"/>
       <c r="AT82" s="1"/>
     </row>
-    <row r="83">
+    <row customHeight="true" ht="21" r="83">
       <c r="A83" s="1">
         <v>10326</v>
       </c>
@@ -6363,7 +6347,7 @@
       <c r="AS83" s="1"/>
       <c r="AT83" s="1"/>
     </row>
-    <row r="84">
+    <row customHeight="true" ht="21" r="84">
       <c r="A84" s="1">
         <v>10426</v>
       </c>
@@ -6427,7 +6411,7 @@
       <c r="AS84" s="1"/>
       <c r="AT84" s="1"/>
     </row>
-    <row r="85">
+    <row customHeight="true" ht="21" r="85">
       <c r="A85" s="1">
         <v>10306</v>
       </c>
@@ -6497,7 +6481,7 @@
       <c r="AS85" s="1"/>
       <c r="AT85" s="1"/>
     </row>
-    <row r="86">
+    <row customHeight="true" ht="21" r="86">
       <c r="A86" s="1">
         <v>10406</v>
       </c>
@@ -6561,7 +6545,7 @@
       <c r="AS86" s="1"/>
       <c r="AT86" s="1"/>
     </row>
-    <row r="87">
+    <row customHeight="true" ht="21" r="87">
       <c r="A87" s="1">
         <v>10092</v>
       </c>
@@ -6625,7 +6609,7 @@
       <c r="AS87" s="1"/>
       <c r="AT87" s="1"/>
     </row>
-    <row r="88">
+    <row customHeight="true" ht="21" r="88">
       <c r="A88" s="1">
         <v>10192</v>
       </c>
@@ -6689,7 +6673,7 @@
       <c r="AS88" s="1"/>
       <c r="AT88" s="1"/>
     </row>
-    <row r="89">
+    <row customHeight="true" ht="21" r="89">
       <c r="A89" s="1">
         <v>10074</v>
       </c>
@@ -6765,7 +6749,7 @@
       <c r="AS89" s="1"/>
       <c r="AT89" s="1"/>
     </row>
-    <row r="90">
+    <row customHeight="true" ht="21" r="90">
       <c r="A90" s="1">
         <v>10174</v>
       </c>
@@ -6841,7 +6825,7 @@
       </c>
       <c r="AT90" s="1"/>
     </row>
-    <row r="91">
+    <row customHeight="true" ht="21" r="91">
       <c r="A91" s="1">
         <v>10051</v>
       </c>
@@ -6911,7 +6895,7 @@
       <c r="AS91" s="1"/>
       <c r="AT91" s="1"/>
     </row>
-    <row r="92">
+    <row customHeight="true" ht="21" r="92">
       <c r="A92" s="1">
         <v>10151</v>
       </c>
@@ -6981,7 +6965,7 @@
       <c r="AS92" s="1"/>
       <c r="AT92" s="1"/>
     </row>
-    <row r="93">
+    <row customHeight="true" ht="21" r="93">
       <c r="A93" s="1">
         <v>10052</v>
       </c>
@@ -7051,7 +7035,7 @@
       <c r="AS93" s="1"/>
       <c r="AT93" s="1"/>
     </row>
-    <row r="94">
+    <row customHeight="true" ht="21" r="94">
       <c r="A94" s="1">
         <v>10152</v>
       </c>
@@ -7125,7 +7109,7 @@
       <c r="AS94" s="1"/>
       <c r="AT94" s="1"/>
     </row>
-    <row r="95">
+    <row customHeight="true" ht="21" r="95">
       <c r="A95" s="1">
         <v>10047</v>
       </c>
@@ -7189,7 +7173,7 @@
       <c r="AS95" s="1"/>
       <c r="AT95" s="1"/>
     </row>
-    <row r="96">
+    <row customHeight="true" ht="21" r="96">
       <c r="A96" s="1">
         <v>10147</v>
       </c>
@@ -7257,7 +7241,7 @@
       <c r="AS96" s="1"/>
       <c r="AT96" s="1"/>
     </row>
-    <row r="97">
+    <row customHeight="true" ht="21" r="97">
       <c r="A97" s="1">
         <v>10005</v>
       </c>
@@ -7321,7 +7305,7 @@
       <c r="AS97" s="1"/>
       <c r="AT97" s="1"/>
     </row>
-    <row r="98">
+    <row customHeight="true" ht="21" r="98">
       <c r="A98" s="1">
         <v>10105</v>
       </c>
@@ -7387,7 +7371,7 @@
       <c r="AS98" s="1"/>
       <c r="AT98" s="1"/>
     </row>
-    <row r="99">
+    <row customHeight="true" ht="21" r="99">
       <c r="A99" s="1">
         <v>10007</v>
       </c>
@@ -7457,7 +7441,7 @@
       <c r="AS99" s="1"/>
       <c r="AT99" s="1"/>
     </row>
-    <row r="100">
+    <row customHeight="true" ht="21" r="100">
       <c r="A100" s="1">
         <v>10107</v>
       </c>
@@ -7531,7 +7515,7 @@
       <c r="AS100" s="1"/>
       <c r="AT100" s="1"/>
     </row>
-    <row r="101">
+    <row customHeight="true" ht="21" r="101">
       <c r="A101" s="1">
         <v>10008</v>
       </c>
@@ -7601,7 +7585,7 @@
       <c r="AS101" s="1"/>
       <c r="AT101" s="1"/>
     </row>
-    <row r="102">
+    <row customHeight="true" ht="21" r="102">
       <c r="A102" s="1">
         <v>10108</v>
       </c>
@@ -7675,7 +7659,7 @@
       <c r="AS102" s="1"/>
       <c r="AT102" s="1"/>
     </row>
-    <row r="103">
+    <row customHeight="true" ht="21" r="103">
       <c r="A103" s="1">
         <v>10009</v>
       </c>
@@ -7745,7 +7729,7 @@
       <c r="AS103" s="1"/>
       <c r="AT103" s="1"/>
     </row>
-    <row r="104">
+    <row customHeight="true" ht="21" r="104">
       <c r="A104" s="1">
         <v>10109</v>
       </c>
@@ -7819,7 +7803,7 @@
       <c r="AS104" s="1"/>
       <c r="AT104" s="1"/>
     </row>
-    <row r="105">
+    <row customHeight="true" ht="21" r="105">
       <c r="A105" s="1">
         <v>10012</v>
       </c>
@@ -7889,7 +7873,7 @@
       <c r="AS105" s="1"/>
       <c r="AT105" s="1"/>
     </row>
-    <row r="106">
+    <row customHeight="true" ht="21" r="106">
       <c r="A106" s="1">
         <v>10112</v>
       </c>
@@ -7959,7 +7943,7 @@
       <c r="AS106" s="1"/>
       <c r="AT106" s="1"/>
     </row>
-    <row r="107">
+    <row customHeight="true" ht="21" r="107">
       <c r="A107" s="1">
         <v>10001</v>
       </c>
@@ -8029,7 +8013,7 @@
       <c r="AS107" s="1"/>
       <c r="AT107" s="1"/>
     </row>
-    <row r="108">
+    <row customHeight="true" ht="21" r="108">
       <c r="A108" s="1">
         <v>10101</v>
       </c>
@@ -8097,7 +8081,7 @@
       <c r="AS108" s="1"/>
       <c r="AT108" s="1"/>
     </row>
-    <row r="109">
+    <row customHeight="true" ht="21" r="109">
       <c r="A109" s="1">
         <v>10002</v>
       </c>
@@ -8167,7 +8151,7 @@
       <c r="AS109" s="1"/>
       <c r="AT109" s="1"/>
     </row>
-    <row r="110">
+    <row customHeight="true" ht="21" r="110">
       <c r="A110" s="1">
         <v>10102</v>
       </c>
@@ -8235,7 +8219,7 @@
       <c r="AS110" s="1"/>
       <c r="AT110" s="1"/>
     </row>
-    <row r="111">
+    <row customHeight="true" ht="21" r="111">
       <c r="A111" s="1">
         <v>10003</v>
       </c>
@@ -8303,7 +8287,7 @@
       <c r="AS111" s="1"/>
       <c r="AT111" s="1"/>
     </row>
-    <row r="112">
+    <row customHeight="true" ht="21" r="112">
       <c r="A112" s="1">
         <v>10103</v>
       </c>
@@ -8367,7 +8351,7 @@
       <c r="AS112" s="1"/>
       <c r="AT112" s="1"/>
     </row>
-    <row r="113">
+    <row customHeight="true" ht="21" r="113">
       <c r="A113" s="1">
         <v>10004</v>
       </c>
@@ -8431,7 +8415,7 @@
       <c r="AS113" s="1"/>
       <c r="AT113" s="1"/>
     </row>
-    <row r="114">
+    <row customHeight="true" ht="21" r="114">
       <c r="A114" s="1">
         <v>10104</v>
       </c>
@@ -8499,7 +8483,7 @@
       <c r="AS114" s="1"/>
       <c r="AT114" s="1"/>
     </row>
-    <row r="115">
+    <row customHeight="true" ht="21" r="115">
       <c r="A115" s="1">
         <v>10011</v>
       </c>
@@ -8569,7 +8553,7 @@
       <c r="AS115" s="1"/>
       <c r="AT115" s="1"/>
     </row>
-    <row r="116">
+    <row customHeight="true" ht="21" r="116">
       <c r="A116" s="1">
         <v>10111</v>
       </c>
@@ -8637,7 +8621,7 @@
       <c r="AS116" s="1"/>
       <c r="AT116" s="1"/>
     </row>
-    <row r="117">
+    <row customHeight="true" ht="21" r="117">
       <c r="A117" s="1">
         <v>10014</v>
       </c>
@@ -8701,7 +8685,7 @@
       <c r="AS117" s="1"/>
       <c r="AT117" s="1"/>
     </row>
-    <row r="118">
+    <row customHeight="true" ht="21" r="118">
       <c r="A118" s="1">
         <v>10114</v>
       </c>
@@ -8765,7 +8749,7 @@
       <c r="AS118" s="1"/>
       <c r="AT118" s="1"/>
     </row>
-    <row r="119">
+    <row customHeight="true" ht="21" r="119">
       <c r="A119" s="1">
         <v>10016</v>
       </c>
@@ -8829,7 +8813,7 @@
       <c r="AS119" s="1"/>
       <c r="AT119" s="1"/>
     </row>
-    <row r="120">
+    <row customHeight="true" ht="21" r="120">
       <c r="A120" s="1">
         <v>10116</v>
       </c>
@@ -8893,7 +8877,7 @@
       <c r="AS120" s="1"/>
       <c r="AT120" s="1"/>
     </row>
-    <row r="121">
+    <row customHeight="true" ht="21" r="121">
       <c r="A121" s="1">
         <v>10017</v>
       </c>
@@ -8963,7 +8947,7 @@
       <c r="AS121" s="1"/>
       <c r="AT121" s="1"/>
     </row>
-    <row r="122">
+    <row customHeight="true" ht="21" r="122">
       <c r="A122" s="1">
         <v>10117</v>
       </c>
@@ -9027,7 +9011,7 @@
       <c r="AS122" s="1"/>
       <c r="AT122" s="1"/>
     </row>
-    <row r="123">
+    <row customHeight="true" ht="21" r="123">
       <c r="A123" s="1">
         <v>10019</v>
       </c>
@@ -9097,7 +9081,7 @@
       <c r="AS123" s="1"/>
       <c r="AT123" s="1"/>
     </row>
-    <row r="124">
+    <row customHeight="true" ht="21" r="124">
       <c r="A124" s="1">
         <v>10119</v>
       </c>
@@ -9161,7 +9145,7 @@
       <c r="AS124" s="1"/>
       <c r="AT124" s="1"/>
     </row>
-    <row r="125">
+    <row customHeight="true" ht="21" r="125">
       <c r="A125" s="1">
         <v>10020</v>
       </c>
@@ -9231,7 +9215,7 @@
       <c r="AS125" s="1"/>
       <c r="AT125" s="1"/>
     </row>
-    <row r="126">
+    <row customHeight="true" ht="21" r="126">
       <c r="A126" s="1">
         <v>10120</v>
       </c>
@@ -9295,7 +9279,7 @@
       <c r="AS126" s="1"/>
       <c r="AT126" s="1"/>
     </row>
-    <row r="127">
+    <row customHeight="true" ht="21" r="127">
       <c r="A127" s="1">
         <v>10021</v>
       </c>
@@ -9365,7 +9349,7 @@
       <c r="AS127" s="1"/>
       <c r="AT127" s="1"/>
     </row>
-    <row r="128">
+    <row customHeight="true" ht="21" r="128">
       <c r="A128" s="1">
         <v>10121</v>
       </c>
@@ -9429,7 +9413,7 @@
       <c r="AS128" s="1"/>
       <c r="AT128" s="1"/>
     </row>
-    <row r="129">
+    <row customHeight="true" ht="21" r="129">
       <c r="A129" s="1">
         <v>10046</v>
       </c>
@@ -9499,7 +9483,7 @@
       <c r="AS129" s="1"/>
       <c r="AT129" s="1"/>
     </row>
-    <row r="130">
+    <row customHeight="true" ht="21" r="130">
       <c r="A130" s="1">
         <v>10146</v>
       </c>
@@ -9563,7 +9547,7 @@
       <c r="AS130" s="1"/>
       <c r="AT130" s="1"/>
     </row>
-    <row r="131">
+    <row customHeight="true" ht="21" r="131">
       <c r="A131" s="1">
         <v>10048</v>
       </c>
@@ -9633,7 +9617,7 @@
       <c r="AS131" s="1"/>
       <c r="AT131" s="1"/>
     </row>
-    <row r="132">
+    <row customHeight="true" ht="21" r="132">
       <c r="A132" s="1">
         <v>10148</v>
       </c>
@@ -9697,7 +9681,7 @@
       <c r="AS132" s="1"/>
       <c r="AT132" s="1"/>
     </row>
-    <row r="133">
+    <row customHeight="true" ht="21" r="133">
       <c r="A133" s="1">
         <v>10049</v>
       </c>
@@ -9767,7 +9751,7 @@
       <c r="AS133" s="1"/>
       <c r="AT133" s="1"/>
     </row>
-    <row r="134">
+    <row customHeight="true" ht="21" r="134">
       <c r="A134" s="1">
         <v>10149</v>
       </c>
@@ -9831,7 +9815,7 @@
       <c r="AS134" s="1"/>
       <c r="AT134" s="1"/>
     </row>
-    <row r="135">
+    <row customHeight="true" ht="21" r="135">
       <c r="A135" s="1">
         <v>10064</v>
       </c>
@@ -9897,7 +9881,7 @@
       <c r="AS135" s="1"/>
       <c r="AT135" s="1"/>
     </row>
-    <row r="136">
+    <row customHeight="true" ht="21" r="136">
       <c r="A136" s="1">
         <v>10164</v>
       </c>
@@ -9961,7 +9945,7 @@
       <c r="AS136" s="1"/>
       <c r="AT136" s="1"/>
     </row>
-    <row r="137">
+    <row customHeight="true" ht="21" r="137">
       <c r="A137" s="1">
         <v>10065</v>
       </c>
@@ -10031,7 +10015,7 @@
       <c r="AS137" s="1"/>
       <c r="AT137" s="1"/>
     </row>
-    <row r="138">
+    <row customHeight="true" ht="21" r="138">
       <c r="A138" s="1">
         <v>10165</v>
       </c>
@@ -10095,7 +10079,7 @@
       <c r="AS138" s="1"/>
       <c r="AT138" s="1"/>
     </row>
-    <row r="139">
+    <row customHeight="true" ht="21" r="139">
       <c r="A139" s="1">
         <v>10066</v>
       </c>
@@ -10165,7 +10149,7 @@
       <c r="AS139" s="1"/>
       <c r="AT139" s="1"/>
     </row>
-    <row r="140">
+    <row customHeight="true" ht="21" r="140">
       <c r="A140" s="1">
         <v>10166</v>
       </c>
@@ -10229,7 +10213,7 @@
       <c r="AS140" s="1"/>
       <c r="AT140" s="1"/>
     </row>
-    <row r="141">
+    <row customHeight="true" ht="21" r="141">
       <c r="A141" s="1">
         <v>10067</v>
       </c>
@@ -10299,7 +10283,7 @@
       <c r="AS141" s="1"/>
       <c r="AT141" s="1"/>
     </row>
-    <row r="142">
+    <row customHeight="true" ht="21" r="142">
       <c r="A142" s="1">
         <v>10167</v>
       </c>
@@ -10363,7 +10347,7 @@
       <c r="AS142" s="1"/>
       <c r="AT142" s="1"/>
     </row>
-    <row r="143">
+    <row customHeight="true" ht="21" r="143">
       <c r="A143" s="1">
         <v>10069</v>
       </c>
@@ -10433,7 +10417,7 @@
       <c r="AS143" s="1"/>
       <c r="AT143" s="1"/>
     </row>
-    <row r="144">
+    <row customHeight="true" ht="21" r="144">
       <c r="A144" s="1">
         <v>10169</v>
       </c>
@@ -10497,7 +10481,7 @@
       <c r="AS144" s="1"/>
       <c r="AT144" s="1"/>
     </row>
-    <row r="145">
+    <row customHeight="true" ht="21" r="145">
       <c r="A145" s="1">
         <v>10070</v>
       </c>
@@ -10567,7 +10551,7 @@
       <c r="AS145" s="1"/>
       <c r="AT145" s="1"/>
     </row>
-    <row r="146">
+    <row customHeight="true" ht="21" r="146">
       <c r="A146" s="1">
         <v>10170</v>
       </c>
@@ -10631,7 +10615,7 @@
       <c r="AS146" s="1"/>
       <c r="AT146" s="1"/>
     </row>
-    <row r="147">
+    <row customHeight="true" ht="21" r="147">
       <c r="A147" s="1">
         <v>10071</v>
       </c>
@@ -10701,7 +10685,7 @@
       <c r="AS147" s="1"/>
       <c r="AT147" s="1"/>
     </row>
-    <row r="148">
+    <row customHeight="true" ht="21" r="148">
       <c r="A148" s="1">
         <v>10171</v>
       </c>
@@ -10765,7 +10749,7 @@
       <c r="AS148" s="1"/>
       <c r="AT148" s="1"/>
     </row>
-    <row r="149">
+    <row customHeight="true" ht="21" r="149">
       <c r="A149" s="1">
         <v>10073</v>
       </c>
@@ -10829,7 +10813,7 @@
       <c r="AS149" s="1"/>
       <c r="AT149" s="1"/>
     </row>
-    <row r="150">
+    <row customHeight="true" ht="21" r="150">
       <c r="A150" s="1">
         <v>10173</v>
       </c>
@@ -10893,7 +10877,7 @@
       <c r="AS150" s="1"/>
       <c r="AT150" s="1"/>
     </row>
-    <row r="151">
+    <row customHeight="true" ht="21" r="151">
       <c r="A151" s="1">
         <v>10075</v>
       </c>
@@ -10963,7 +10947,7 @@
       <c r="AS151" s="1"/>
       <c r="AT151" s="1"/>
     </row>
-    <row r="152">
+    <row customHeight="true" ht="21" r="152">
       <c r="A152" s="1">
         <v>10175</v>
       </c>
@@ -11027,7 +11011,7 @@
       <c r="AS152" s="1"/>
       <c r="AT152" s="1"/>
     </row>
-    <row r="153">
+    <row customHeight="true" ht="21" r="153">
       <c r="A153" s="1">
         <v>10076</v>
       </c>
@@ -11097,7 +11081,7 @@
       <c r="AS153" s="1"/>
       <c r="AT153" s="1"/>
     </row>
-    <row r="154">
+    <row customHeight="true" ht="21" r="154">
       <c r="A154" s="1">
         <v>10176</v>
       </c>
@@ -11161,7 +11145,7 @@
       <c r="AS154" s="1"/>
       <c r="AT154" s="1"/>
     </row>
-    <row r="155">
+    <row customHeight="true" ht="21" r="155">
       <c r="A155" s="1">
         <v>10077</v>
       </c>
@@ -11231,7 +11215,7 @@
       <c r="AS155" s="1"/>
       <c r="AT155" s="1"/>
     </row>
-    <row r="156">
+    <row customHeight="true" ht="21" r="156">
       <c r="A156" s="1">
         <v>10177</v>
       </c>
@@ -11295,7 +11279,7 @@
       <c r="AS156" s="1"/>
       <c r="AT156" s="1"/>
     </row>
-    <row r="157">
+    <row customHeight="true" ht="21" r="157">
       <c r="A157" s="1">
         <v>10078</v>
       </c>
@@ -11365,7 +11349,7 @@
       <c r="AS157" s="1"/>
       <c r="AT157" s="1"/>
     </row>
-    <row r="158">
+    <row customHeight="true" ht="21" r="158">
       <c r="A158" s="1">
         <v>10178</v>
       </c>
@@ -11429,7 +11413,7 @@
       <c r="AS158" s="1"/>
       <c r="AT158" s="1"/>
     </row>
-    <row r="159">
+    <row customHeight="true" ht="21" r="159">
       <c r="A159" s="1">
         <v>10079</v>
       </c>
@@ -11499,7 +11483,7 @@
       <c r="AS159" s="1"/>
       <c r="AT159" s="1"/>
     </row>
-    <row r="160">
+    <row customHeight="true" ht="21" r="160">
       <c r="A160" s="1">
         <v>10179</v>
       </c>
@@ -11563,7 +11547,7 @@
       <c r="AS160" s="1"/>
       <c r="AT160" s="1"/>
     </row>
-    <row r="161">
+    <row customHeight="true" ht="21" r="161">
       <c r="A161" s="1">
         <v>10080</v>
       </c>
@@ -11633,7 +11617,7 @@
       <c r="AS161" s="1"/>
       <c r="AT161" s="1"/>
     </row>
-    <row r="162">
+    <row customHeight="true" ht="21" r="162">
       <c r="A162" s="1">
         <v>10180</v>
       </c>
@@ -11697,7 +11681,7 @@
       <c r="AS162" s="1"/>
       <c r="AT162" s="1"/>
     </row>
-    <row r="163">
+    <row customHeight="true" ht="21" r="163">
       <c r="A163" s="1">
         <v>10081</v>
       </c>
@@ -11767,7 +11751,7 @@
       <c r="AS163" s="1"/>
       <c r="AT163" s="1"/>
     </row>
-    <row r="164">
+    <row customHeight="true" ht="21" r="164">
       <c r="A164" s="1">
         <v>10181</v>
       </c>
@@ -11831,7 +11815,7 @@
       <c r="AS164" s="1"/>
       <c r="AT164" s="1"/>
     </row>
-    <row r="165">
+    <row customHeight="true" ht="21" r="165">
       <c r="A165" s="1">
         <v>10082</v>
       </c>
@@ -11901,7 +11885,7 @@
       <c r="AS165" s="1"/>
       <c r="AT165" s="1"/>
     </row>
-    <row r="166">
+    <row customHeight="true" ht="21" r="166">
       <c r="A166" s="1">
         <v>10182</v>
       </c>
@@ -11965,7 +11949,7 @@
       <c r="AS166" s="1"/>
       <c r="AT166" s="1"/>
     </row>
-    <row r="167">
+    <row customHeight="true" ht="21" r="167">
       <c r="A167" s="1">
         <v>10083</v>
       </c>
@@ -12035,7 +12019,7 @@
       <c r="AS167" s="1"/>
       <c r="AT167" s="1"/>
     </row>
-    <row r="168">
+    <row customHeight="true" ht="21" r="168">
       <c r="A168" s="1">
         <v>10183</v>
       </c>
@@ -12099,7 +12083,7 @@
       <c r="AS168" s="1"/>
       <c r="AT168" s="1"/>
     </row>
-    <row r="169">
+    <row customHeight="true" ht="21" r="169">
       <c r="A169" s="1">
         <v>10084</v>
       </c>
@@ -12169,7 +12153,7 @@
       <c r="AS169" s="1"/>
       <c r="AT169" s="1"/>
     </row>
-    <row r="170">
+    <row customHeight="true" ht="21" r="170">
       <c r="A170" s="1">
         <v>10184</v>
       </c>
@@ -12233,7 +12217,7 @@
       <c r="AS170" s="1"/>
       <c r="AT170" s="1"/>
     </row>
-    <row r="171">
+    <row customHeight="true" ht="21" r="171">
       <c r="A171" s="1">
         <v>10085</v>
       </c>
@@ -12303,7 +12287,7 @@
       <c r="AS171" s="1"/>
       <c r="AT171" s="1"/>
     </row>
-    <row r="172">
+    <row customHeight="true" ht="21" r="172">
       <c r="A172" s="1">
         <v>10185</v>
       </c>
@@ -12367,7 +12351,7 @@
       <c r="AS172" s="1"/>
       <c r="AT172" s="1"/>
     </row>
-    <row r="173">
+    <row customHeight="true" ht="21" r="173">
       <c r="A173" s="1">
         <v>10086</v>
       </c>
@@ -12437,7 +12421,7 @@
       <c r="AS173" s="1"/>
       <c r="AT173" s="1"/>
     </row>
-    <row r="174">
+    <row customHeight="true" ht="21" r="174">
       <c r="A174" s="1">
         <v>10186</v>
       </c>
@@ -12501,7 +12485,7 @@
       <c r="AS174" s="1"/>
       <c r="AT174" s="1"/>
     </row>
-    <row r="175">
+    <row customHeight="true" ht="21" r="175">
       <c r="A175" s="1">
         <v>10087</v>
       </c>
@@ -12571,7 +12555,7 @@
       <c r="AS175" s="1"/>
       <c r="AT175" s="1"/>
     </row>
-    <row r="176">
+    <row customHeight="true" ht="21" r="176">
       <c r="A176" s="1">
         <v>10187</v>
       </c>
@@ -12635,7 +12619,7 @@
       <c r="AS176" s="1"/>
       <c r="AT176" s="1"/>
     </row>
-    <row r="177">
+    <row customHeight="true" ht="21" r="177">
       <c r="A177" s="1">
         <v>10088</v>
       </c>
@@ -12705,7 +12689,7 @@
       <c r="AS177" s="1"/>
       <c r="AT177" s="1"/>
     </row>
-    <row r="178">
+    <row customHeight="true" ht="21" r="178">
       <c r="A178" s="1">
         <v>10188</v>
       </c>
@@ -12769,7 +12753,7 @@
       <c r="AS178" s="1"/>
       <c r="AT178" s="1"/>
     </row>
-    <row r="179">
+    <row customHeight="true" ht="21" r="179">
       <c r="A179" s="1">
         <v>10089</v>
       </c>
@@ -12833,7 +12817,7 @@
       <c r="AS179" s="1"/>
       <c r="AT179" s="1"/>
     </row>
-    <row r="180">
+    <row customHeight="true" ht="21" r="180">
       <c r="A180" s="1">
         <v>10189</v>
       </c>
@@ -12897,7 +12881,7 @@
       <c r="AS180" s="1"/>
       <c r="AT180" s="1"/>
     </row>
-    <row r="181">
+    <row customHeight="true" ht="21" r="181">
       <c r="A181" s="1">
         <v>10090</v>
       </c>
@@ -12967,7 +12951,7 @@
       <c r="AS181" s="1"/>
       <c r="AT181" s="1"/>
     </row>
-    <row r="182">
+    <row customHeight="true" ht="21" r="182">
       <c r="A182" s="1">
         <v>10190</v>
       </c>
@@ -13031,7 +13015,7 @@
       <c r="AS182" s="1"/>
       <c r="AT182" s="1"/>
     </row>
-    <row r="183">
+    <row customHeight="true" ht="21" r="183">
       <c r="A183" s="1">
         <v>10091</v>
       </c>
@@ -13095,7 +13079,7 @@
       <c r="AS183" s="1"/>
       <c r="AT183" s="1"/>
     </row>
-    <row r="184">
+    <row customHeight="true" ht="21" r="184">
       <c r="A184" s="1">
         <v>10191</v>
       </c>
@@ -13159,7 +13143,7 @@
       <c r="AS184" s="1"/>
       <c r="AT184" s="1"/>
     </row>
-    <row r="185">
+    <row customHeight="true" ht="21" r="185">
       <c r="A185" s="1">
         <v>10097</v>
       </c>
@@ -13233,7 +13217,7 @@
       <c r="AS185" s="1"/>
       <c r="AT185" s="1"/>
     </row>
-    <row r="186">
+    <row customHeight="true" ht="21" r="186">
       <c r="A186" s="1">
         <v>10197</v>
       </c>
@@ -13295,7 +13279,7 @@
       <c r="AS186" s="1"/>
       <c r="AT186" s="1"/>
     </row>
-    <row r="187">
+    <row customHeight="true" ht="21" r="187">
       <c r="A187" s="1">
         <v>10098</v>
       </c>
@@ -13365,7 +13349,7 @@
       <c r="AS187" s="1"/>
       <c r="AT187" s="1"/>
     </row>
-    <row r="188">
+    <row customHeight="true" ht="21" r="188">
       <c r="A188" s="1">
         <v>10198</v>
       </c>
@@ -13429,7 +13413,7 @@
       <c r="AS188" s="1"/>
       <c r="AT188" s="1"/>
     </row>
-    <row r="189">
+    <row customHeight="true" ht="21" r="189">
       <c r="A189" s="1">
         <v>10099</v>
       </c>
@@ -13499,7 +13483,7 @@
       <c r="AS189" s="1"/>
       <c r="AT189" s="1"/>
     </row>
-    <row r="190">
+    <row customHeight="true" ht="21" r="190">
       <c r="A190" s="1">
         <v>10199</v>
       </c>
@@ -13563,7 +13547,7 @@
       <c r="AS190" s="1"/>
       <c r="AT190" s="1"/>
     </row>
-    <row r="191">
+    <row customHeight="true" ht="21" r="191">
       <c r="A191" s="1">
         <v>10300</v>
       </c>
@@ -13633,7 +13617,7 @@
       <c r="AS191" s="1"/>
       <c r="AT191" s="1"/>
     </row>
-    <row r="192">
+    <row customHeight="true" ht="21" r="192">
       <c r="A192" s="1">
         <v>10400</v>
       </c>
@@ -13697,7 +13681,7 @@
       <c r="AS192" s="1"/>
       <c r="AT192" s="1"/>
     </row>
-    <row r="193">
+    <row customHeight="true" ht="21" r="193">
       <c r="A193" s="1">
         <v>10301</v>
       </c>
@@ -13767,7 +13751,7 @@
       <c r="AS193" s="1"/>
       <c r="AT193" s="1"/>
     </row>
-    <row r="194">
+    <row customHeight="true" ht="21" r="194">
       <c r="A194" s="1">
         <v>10401</v>
       </c>
@@ -13831,7 +13815,7 @@
       <c r="AS194" s="1"/>
       <c r="AT194" s="1"/>
     </row>
-    <row r="195">
+    <row customHeight="true" ht="21" r="195">
       <c r="A195" s="1">
         <v>10302</v>
       </c>
@@ -13901,7 +13885,7 @@
       <c r="AS195" s="1"/>
       <c r="AT195" s="1"/>
     </row>
-    <row r="196">
+    <row customHeight="true" ht="21" r="196">
       <c r="A196" s="1">
         <v>10402</v>
       </c>
@@ -13965,7 +13949,7 @@
       <c r="AS196" s="1"/>
       <c r="AT196" s="1"/>
     </row>
-    <row r="197">
+    <row customHeight="true" ht="21" r="197">
       <c r="A197" s="1">
         <v>10303</v>
       </c>
@@ -14035,7 +14019,7 @@
       <c r="AS197" s="1"/>
       <c r="AT197" s="1"/>
     </row>
-    <row r="198">
+    <row customHeight="true" ht="21" r="198">
       <c r="A198" s="1">
         <v>10403</v>
       </c>
@@ -14099,7 +14083,7 @@
       <c r="AS198" s="1"/>
       <c r="AT198" s="1"/>
     </row>
-    <row r="199">
+    <row customHeight="true" ht="21" r="199">
       <c r="A199" s="1">
         <v>10304</v>
       </c>
@@ -14169,7 +14153,7 @@
       <c r="AS199" s="1"/>
       <c r="AT199" s="1"/>
     </row>
-    <row r="200">
+    <row customHeight="true" ht="21" r="200">
       <c r="A200" s="1">
         <v>10404</v>
       </c>
@@ -14233,7 +14217,7 @@
       <c r="AS200" s="1"/>
       <c r="AT200" s="1"/>
     </row>
-    <row r="201">
+    <row customHeight="true" ht="21" r="201">
       <c r="A201" s="1">
         <v>10305</v>
       </c>
@@ -14303,7 +14287,7 @@
       <c r="AS201" s="1"/>
       <c r="AT201" s="1"/>
     </row>
-    <row r="202">
+    <row customHeight="true" ht="21" r="202">
       <c r="A202" s="1">
         <v>10405</v>
       </c>
@@ -14373,7 +14357,7 @@
       <c r="AS202" s="1"/>
       <c r="AT202" s="1"/>
     </row>
-    <row r="203">
+    <row customHeight="true" ht="21" r="203">
       <c r="A203" s="1">
         <v>10307</v>
       </c>
@@ -14443,7 +14427,7 @@
       <c r="AS203" s="1"/>
       <c r="AT203" s="1"/>
     </row>
-    <row r="204">
+    <row customHeight="true" ht="21" r="204">
       <c r="A204" s="1">
         <v>10407</v>
       </c>
@@ -14513,7 +14497,7 @@
       <c r="AS204" s="1"/>
       <c r="AT204" s="1"/>
     </row>
-    <row r="205">
+    <row customHeight="true" ht="21" r="205">
       <c r="A205" s="1">
         <v>10308</v>
       </c>
@@ -14583,7 +14567,7 @@
       <c r="AS205" s="1"/>
       <c r="AT205" s="1"/>
     </row>
-    <row r="206">
+    <row customHeight="true" ht="21" r="206">
       <c r="A206" s="1">
         <v>10408</v>
       </c>
@@ -14653,7 +14637,7 @@
       <c r="AS206" s="1"/>
       <c r="AT206" s="1"/>
     </row>
-    <row r="207">
+    <row customHeight="true" ht="21" r="207">
       <c r="A207" s="1">
         <v>10309</v>
       </c>
@@ -14723,7 +14707,7 @@
       <c r="AS207" s="1"/>
       <c r="AT207" s="1"/>
     </row>
-    <row r="208">
+    <row customHeight="true" ht="21" r="208">
       <c r="A208" s="1">
         <v>10409</v>
       </c>
@@ -14793,7 +14777,7 @@
       <c r="AS208" s="1"/>
       <c r="AT208" s="1"/>
     </row>
-    <row r="209">
+    <row customHeight="true" ht="21" r="209">
       <c r="A209" s="1">
         <v>10310</v>
       </c>
@@ -14863,7 +14847,7 @@
       <c r="AS209" s="1"/>
       <c r="AT209" s="1"/>
     </row>
-    <row r="210">
+    <row customHeight="true" ht="21" r="210">
       <c r="A210" s="1">
         <v>10410</v>
       </c>
@@ -14921,7 +14905,7 @@
       <c r="AS210" s="1"/>
       <c r="AT210" s="1"/>
     </row>
-    <row r="211">
+    <row customHeight="true" ht="21" r="211">
       <c r="A211" s="1">
         <v>10311</v>
       </c>
@@ -14991,7 +14975,7 @@
       <c r="AS211" s="1"/>
       <c r="AT211" s="1"/>
     </row>
-    <row r="212">
+    <row customHeight="true" ht="21" r="212">
       <c r="A212" s="1">
         <v>10411</v>
       </c>
@@ -15049,7 +15033,7 @@
       <c r="AS212" s="1"/>
       <c r="AT212" s="1"/>
     </row>
-    <row r="213">
+    <row customHeight="true" ht="21" r="213">
       <c r="A213" s="1">
         <v>10327</v>
       </c>
@@ -15119,7 +15103,7 @@
       <c r="AS213" s="1"/>
       <c r="AT213" s="1"/>
     </row>
-    <row r="214">
+    <row customHeight="true" ht="21" r="214">
       <c r="A214" s="1">
         <v>10427</v>
       </c>
@@ -15183,7 +15167,7 @@
       <c r="AS214" s="1"/>
       <c r="AT214" s="1"/>
     </row>
-    <row r="215">
+    <row customHeight="true" ht="21" r="215">
       <c r="A215" s="1">
         <v>10328</v>
       </c>
@@ -15253,7 +15237,7 @@
       <c r="AS215" s="1"/>
       <c r="AT215" s="1"/>
     </row>
-    <row r="216">
+    <row customHeight="true" ht="21" r="216">
       <c r="A216" s="1">
         <v>10428</v>
       </c>
@@ -15317,7 +15301,7 @@
       <c r="AS216" s="1"/>
       <c r="AT216" s="1"/>
     </row>
-    <row r="217">
+    <row customHeight="true" ht="21" r="217">
       <c r="A217" s="1">
         <v>10022</v>
       </c>
@@ -15385,7 +15369,7 @@
       <c r="AS217" s="1"/>
       <c r="AT217" s="1"/>
     </row>
-    <row r="218">
+    <row customHeight="true" ht="21" r="218">
       <c r="A218" s="1">
         <v>10122</v>
       </c>
@@ -15449,7 +15433,7 @@
       <c r="AS218" s="1"/>
       <c r="AT218" s="1"/>
     </row>
-    <row r="219">
+    <row customHeight="true" ht="21" r="219">
       <c r="A219" s="1">
         <v>10023</v>
       </c>
@@ -15517,7 +15501,7 @@
       <c r="AS219" s="1"/>
       <c r="AT219" s="1"/>
     </row>
-    <row r="220">
+    <row customHeight="true" ht="21" r="220">
       <c r="A220" s="1">
         <v>10123</v>
       </c>
@@ -15581,7 +15565,7 @@
       <c r="AS220" s="1"/>
       <c r="AT220" s="1"/>
     </row>
-    <row r="221">
+    <row customHeight="true" ht="21" r="221">
       <c r="A221" s="1">
         <v>10024</v>
       </c>
@@ -15649,7 +15633,7 @@
       <c r="AS221" s="1"/>
       <c r="AT221" s="1"/>
     </row>
-    <row r="222">
+    <row customHeight="true" ht="21" r="222">
       <c r="A222" s="1">
         <v>10124</v>
       </c>
@@ -15713,7 +15697,7 @@
       <c r="AS222" s="1"/>
       <c r="AT222" s="1"/>
     </row>
-    <row r="223">
+    <row customHeight="true" ht="21" r="223">
       <c r="A223" s="1">
         <v>10025</v>
       </c>
@@ -15781,7 +15765,7 @@
       <c r="AS223" s="1"/>
       <c r="AT223" s="1"/>
     </row>
-    <row r="224">
+    <row customHeight="true" ht="21" r="224">
       <c r="A224" s="1">
         <v>10125</v>
       </c>
@@ -15845,7 +15829,7 @@
       <c r="AS224" s="1"/>
       <c r="AT224" s="1"/>
     </row>
-    <row r="225">
+    <row customHeight="true" ht="21" r="225">
       <c r="A225" s="1">
         <v>10027</v>
       </c>
@@ -15913,7 +15897,7 @@
       <c r="AS225" s="1"/>
       <c r="AT225" s="1"/>
     </row>
-    <row r="226">
+    <row customHeight="true" ht="21" r="226">
       <c r="A226" s="1">
         <v>10127</v>
       </c>
@@ -15977,7 +15961,7 @@
       <c r="AS226" s="1"/>
       <c r="AT226" s="1"/>
     </row>
-    <row r="227">
+    <row customHeight="true" ht="21" r="227">
       <c r="A227" s="1">
         <v>10028</v>
       </c>
@@ -16045,7 +16029,7 @@
       <c r="AS227" s="1"/>
       <c r="AT227" s="1"/>
     </row>
-    <row r="228">
+    <row customHeight="true" ht="21" r="228">
       <c r="A228" s="1">
         <v>10128</v>
       </c>
@@ -16109,7 +16093,7 @@
       <c r="AS228" s="1"/>
       <c r="AT228" s="1"/>
     </row>
-    <row r="229">
+    <row customHeight="true" ht="21" r="229">
       <c r="A229" s="1">
         <v>10029</v>
       </c>
@@ -16177,7 +16161,7 @@
       <c r="AS229" s="1"/>
       <c r="AT229" s="1"/>
     </row>
-    <row r="230">
+    <row customHeight="true" ht="21" r="230">
       <c r="A230" s="1">
         <v>10129</v>
       </c>
@@ -16241,7 +16225,7 @@
       <c r="AS230" s="1"/>
       <c r="AT230" s="1"/>
     </row>
-    <row r="231">
+    <row customHeight="true" ht="21" r="231">
       <c r="A231" s="1">
         <v>10031</v>
       </c>
@@ -16309,7 +16293,7 @@
       <c r="AS231" s="1"/>
       <c r="AT231" s="1"/>
     </row>
-    <row r="232">
+    <row customHeight="true" ht="21" r="232">
       <c r="A232" s="1">
         <v>10131</v>
       </c>
@@ -16373,7 +16357,7 @@
       <c r="AS232" s="1"/>
       <c r="AT232" s="1"/>
     </row>
-    <row r="233">
+    <row customHeight="true" ht="21" r="233">
       <c r="A233" s="1">
         <v>10033</v>
       </c>
@@ -16441,7 +16425,7 @@
       <c r="AS233" s="1"/>
       <c r="AT233" s="1"/>
     </row>
-    <row r="234">
+    <row customHeight="true" ht="21" r="234">
       <c r="A234" s="1">
         <v>10133</v>
       </c>
@@ -16505,7 +16489,7 @@
       <c r="AS234" s="1"/>
       <c r="AT234" s="1"/>
     </row>
-    <row r="235">
+    <row customHeight="true" ht="21" r="235">
       <c r="A235" s="1">
         <v>10034</v>
       </c>
@@ -16573,7 +16557,7 @@
       <c r="AS235" s="1"/>
       <c r="AT235" s="1"/>
     </row>
-    <row r="236">
+    <row customHeight="true" ht="21" r="236">
       <c r="A236" s="1">
         <v>10134</v>
       </c>
@@ -16637,7 +16621,7 @@
       <c r="AS236" s="1"/>
       <c r="AT236" s="1"/>
     </row>
-    <row r="237">
+    <row customHeight="true" ht="21" r="237">
       <c r="A237" s="1">
         <v>10038</v>
       </c>
@@ -16705,7 +16689,7 @@
       <c r="AS237" s="1"/>
       <c r="AT237" s="1"/>
     </row>
-    <row r="238">
+    <row customHeight="true" ht="21" r="238">
       <c r="A238" s="1">
         <v>10138</v>
       </c>
@@ -16769,7 +16753,7 @@
       <c r="AS238" s="1"/>
       <c r="AT238" s="1"/>
     </row>
-    <row r="239">
+    <row customHeight="true" ht="21" r="239">
       <c r="A239" s="1">
         <v>10041</v>
       </c>
@@ -16837,7 +16821,7 @@
       <c r="AS239" s="1"/>
       <c r="AT239" s="1"/>
     </row>
-    <row r="240">
+    <row customHeight="true" ht="21" r="240">
       <c r="A240" s="1">
         <v>10141</v>
       </c>
@@ -16901,7 +16885,7 @@
       <c r="AS240" s="1"/>
       <c r="AT240" s="1"/>
     </row>
-    <row r="241">
+    <row customHeight="true" ht="21" r="241">
       <c r="A241" s="1">
         <v>10043</v>
       </c>
@@ -16969,7 +16953,7 @@
       <c r="AS241" s="1"/>
       <c r="AT241" s="1"/>
     </row>
-    <row r="242">
+    <row customHeight="true" ht="21" r="242">
       <c r="A242" s="1">
         <v>10143</v>
       </c>
@@ -17033,7 +17017,7 @@
       <c r="AS242" s="1"/>
       <c r="AT242" s="1"/>
     </row>
-    <row r="243">
+    <row customHeight="true" ht="21" r="243">
       <c r="A243" s="1">
         <v>10054</v>
       </c>
@@ -17101,7 +17085,7 @@
       <c r="AS243" s="1"/>
       <c r="AT243" s="1"/>
     </row>
-    <row r="244">
+    <row customHeight="true" ht="21" r="244">
       <c r="A244" s="1">
         <v>10154</v>
       </c>
@@ -17165,7 +17149,7 @@
       <c r="AS244" s="1"/>
       <c r="AT244" s="1"/>
     </row>
-    <row r="245">
+    <row customHeight="true" ht="21" r="245">
       <c r="A245" s="1">
         <v>10057</v>
       </c>
@@ -17233,7 +17217,7 @@
       <c r="AS245" s="1"/>
       <c r="AT245" s="1"/>
     </row>
-    <row r="246">
+    <row customHeight="true" ht="21" r="246">
       <c r="A246" s="1">
         <v>10157</v>
       </c>
@@ -17297,7 +17281,7 @@
       <c r="AS246" s="1"/>
       <c r="AT246" s="1"/>
     </row>
-    <row r="247">
+    <row customHeight="true" ht="21" r="247">
       <c r="A247" s="1">
         <v>10059</v>
       </c>
@@ -17365,7 +17349,7 @@
       <c r="AS247" s="1"/>
       <c r="AT247" s="1"/>
     </row>
-    <row r="248">
+    <row customHeight="true" ht="21" r="248">
       <c r="A248" s="1">
         <v>10159</v>
       </c>
@@ -17429,7 +17413,7 @@
       <c r="AS248" s="1"/>
       <c r="AT248" s="1"/>
     </row>
-    <row r="249">
+    <row customHeight="true" ht="21" r="249">
       <c r="A249" s="1">
         <v>10062</v>
       </c>
@@ -17497,7 +17481,7 @@
       <c r="AS249" s="1"/>
       <c r="AT249" s="1"/>
     </row>
-    <row r="250">
+    <row customHeight="true" ht="21" r="250">
       <c r="A250" s="1">
         <v>10162</v>
       </c>
@@ -17561,7 +17545,7 @@
       <c r="AS250" s="1"/>
       <c r="AT250" s="1"/>
     </row>
-    <row r="251">
+    <row customHeight="true" ht="21" r="251">
       <c r="A251" s="1">
         <v>10063</v>
       </c>
@@ -17629,7 +17613,7 @@
       <c r="AS251" s="1"/>
       <c r="AT251" s="1"/>
     </row>
-    <row r="252">
+    <row customHeight="true" ht="21" r="252">
       <c r="A252" s="1">
         <v>10163</v>
       </c>
@@ -17693,7 +17677,7 @@
       <c r="AS252" s="1"/>
       <c r="AT252" s="1"/>
     </row>
-    <row r="253">
+    <row customHeight="true" ht="21" r="253">
       <c r="A253" s="1">
         <v>20001</v>
       </c>
@@ -17759,7 +17743,7 @@
       <c r="AS253" s="1"/>
       <c r="AT253" s="1"/>
     </row>
-    <row r="254">
+    <row customHeight="true" ht="21" r="254">
       <c r="A254" s="1">
         <v>20002</v>
       </c>
@@ -17819,7 +17803,7 @@
       <c r="AS254" s="1"/>
       <c r="AT254" s="1"/>
     </row>
-    <row r="255">
+    <row customHeight="true" ht="21" r="255">
       <c r="A255" s="1">
         <v>20003</v>
       </c>
@@ -17885,7 +17869,7 @@
       <c r="AS255" s="1"/>
       <c r="AT255" s="1"/>
     </row>
-    <row r="256">
+    <row customHeight="true" ht="21" r="256">
       <c r="A256" s="1">
         <v>20004</v>
       </c>
@@ -17945,7 +17929,7 @@
       <c r="AS256" s="1"/>
       <c r="AT256" s="1"/>
     </row>
-    <row r="257">
+    <row customHeight="true" ht="21" r="257">
       <c r="A257" s="1">
         <v>20005</v>
       </c>
@@ -18011,7 +17995,7 @@
       <c r="AS257" s="1"/>
       <c r="AT257" s="1"/>
     </row>
-    <row r="258">
+    <row customHeight="true" ht="21" r="258">
       <c r="A258" s="1">
         <v>20006</v>
       </c>
@@ -18071,7 +18055,7 @@
       <c r="AS258" s="1"/>
       <c r="AT258" s="1"/>
     </row>
-    <row r="259">
+    <row customHeight="true" ht="21" r="259">
       <c r="A259" s="1">
         <v>20007</v>
       </c>
@@ -18137,7 +18121,7 @@
       <c r="AS259" s="1"/>
       <c r="AT259" s="1"/>
     </row>
-    <row r="260">
+    <row customHeight="true" ht="21" r="260">
       <c r="A260" s="1">
         <v>20008</v>
       </c>
@@ -18197,7 +18181,7 @@
       <c r="AS260" s="1"/>
       <c r="AT260" s="1"/>
     </row>
-    <row r="261">
+    <row customHeight="true" ht="21" r="261">
       <c r="A261" s="1">
         <v>20009</v>
       </c>
@@ -18263,7 +18247,7 @@
       <c r="AS261" s="1"/>
       <c r="AT261" s="1"/>
     </row>
-    <row r="262">
+    <row customHeight="true" ht="21" r="262">
       <c r="A262" s="1">
         <v>20010</v>
       </c>
@@ -18323,7 +18307,7 @@
       <c r="AS262" s="1"/>
       <c r="AT262" s="1"/>
     </row>
-    <row r="263">
+    <row customHeight="true" ht="21" r="263">
       <c r="A263" s="1">
         <v>20011</v>
       </c>
@@ -18389,7 +18373,7 @@
       <c r="AS263" s="1"/>
       <c r="AT263" s="1"/>
     </row>
-    <row r="264">
+    <row customHeight="true" ht="21" r="264">
       <c r="A264" s="1">
         <v>20012</v>
       </c>
@@ -18449,7 +18433,7 @@
       <c r="AS264" s="1"/>
       <c r="AT264" s="1"/>
     </row>
-    <row r="265">
+    <row customHeight="true" ht="21" r="265">
       <c r="A265" s="1">
         <v>20013</v>
       </c>
@@ -18515,7 +18499,7 @@
       <c r="AS265" s="1"/>
       <c r="AT265" s="1"/>
     </row>
-    <row r="266">
+    <row customHeight="true" ht="21" r="266">
       <c r="A266" s="1">
         <v>20014</v>
       </c>
@@ -18575,7 +18559,7 @@
       <c r="AS266" s="1"/>
       <c r="AT266" s="1"/>
     </row>
-    <row r="267">
+    <row customHeight="true" ht="21" r="267">
       <c r="A267" s="1">
         <v>20015</v>
       </c>
@@ -18641,7 +18625,7 @@
       <c r="AS267" s="1"/>
       <c r="AT267" s="1"/>
     </row>
-    <row r="268">
+    <row customHeight="true" ht="21" r="268">
       <c r="A268" s="1">
         <v>20016</v>
       </c>
@@ -18701,7 +18685,7 @@
       <c r="AS268" s="1"/>
       <c r="AT268" s="1"/>
     </row>
-    <row r="269">
+    <row customHeight="true" ht="21" r="269">
       <c r="A269" s="1">
         <v>20017</v>
       </c>
@@ -18767,7 +18751,7 @@
       <c r="AS269" s="1"/>
       <c r="AT269" s="1"/>
     </row>
-    <row r="270">
+    <row customHeight="true" ht="21" r="270">
       <c r="A270" s="1">
         <v>20018</v>
       </c>
@@ -18827,7 +18811,7 @@
       <c r="AS270" s="1"/>
       <c r="AT270" s="1"/>
     </row>
-    <row r="271">
+    <row customHeight="true" ht="21" r="271">
       <c r="A271" s="1">
         <v>20019</v>
       </c>
@@ -18893,7 +18877,7 @@
       <c r="AS271" s="1"/>
       <c r="AT271" s="1"/>
     </row>
-    <row r="272">
+    <row customHeight="true" ht="21" r="272">
       <c r="A272" s="1">
         <v>20020</v>
       </c>
@@ -18953,7 +18937,7 @@
       <c r="AS272" s="1"/>
       <c r="AT272" s="1"/>
     </row>
-    <row r="273">
+    <row customHeight="true" ht="21" r="273">
       <c r="A273" s="1">
         <v>20021</v>
       </c>
@@ -19019,7 +19003,7 @@
       <c r="AS273" s="1"/>
       <c r="AT273" s="1"/>
     </row>
-    <row r="274">
+    <row customHeight="true" ht="21" r="274">
       <c r="A274" s="1">
         <v>20022</v>
       </c>
@@ -19079,7 +19063,7 @@
       <c r="AS274" s="1"/>
       <c r="AT274" s="1"/>
     </row>
-    <row r="275">
+    <row customHeight="true" ht="21" r="275">
       <c r="A275" s="1">
         <v>20023</v>
       </c>
@@ -19145,7 +19129,7 @@
       <c r="AS275" s="1"/>
       <c r="AT275" s="1"/>
     </row>
-    <row r="276">
+    <row customHeight="true" ht="21" r="276">
       <c r="A276" s="1">
         <v>20024</v>
       </c>
@@ -19205,7 +19189,7 @@
       <c r="AS276" s="1"/>
       <c r="AT276" s="1"/>
     </row>
-    <row r="277">
+    <row customHeight="true" ht="21" r="277">
       <c r="A277" s="1">
         <v>20025</v>
       </c>
@@ -19271,7 +19255,7 @@
       <c r="AS277" s="1"/>
       <c r="AT277" s="1"/>
     </row>
-    <row r="278">
+    <row customHeight="true" ht="21" r="278">
       <c r="A278" s="1">
         <v>20026</v>
       </c>
@@ -19331,7 +19315,7 @@
       <c r="AS278" s="1"/>
       <c r="AT278" s="1"/>
     </row>
-    <row r="279">
+    <row customHeight="true" ht="21" r="279">
       <c r="A279" s="1">
         <v>20027</v>
       </c>
@@ -19397,7 +19381,7 @@
       <c r="AS279" s="1"/>
       <c r="AT279" s="1"/>
     </row>
-    <row r="280">
+    <row customHeight="true" ht="21" r="280">
       <c r="A280" s="1">
         <v>20028</v>
       </c>
@@ -19457,7 +19441,7 @@
       <c r="AS280" s="1"/>
       <c r="AT280" s="1"/>
     </row>
-    <row r="281">
+    <row customHeight="true" ht="21" r="281">
       <c r="A281" s="1">
         <v>20029</v>
       </c>
@@ -19523,7 +19507,7 @@
       <c r="AS281" s="1"/>
       <c r="AT281" s="1"/>
     </row>
-    <row r="282">
+    <row customHeight="true" ht="21" r="282">
       <c r="A282" s="1">
         <v>20030</v>
       </c>
@@ -19583,7 +19567,7 @@
       <c r="AS282" s="1"/>
       <c r="AT282" s="1"/>
     </row>
-    <row r="283">
+    <row customHeight="true" ht="21" r="283">
       <c r="A283" s="1">
         <v>20031</v>
       </c>
@@ -19649,7 +19633,7 @@
       <c r="AS283" s="1"/>
       <c r="AT283" s="1"/>
     </row>
-    <row r="284">
+    <row customHeight="true" ht="21" r="284">
       <c r="A284" s="1">
         <v>20032</v>
       </c>
@@ -19709,7 +19693,7 @@
       <c r="AS284" s="1"/>
       <c r="AT284" s="1"/>
     </row>
-    <row r="285">
+    <row customHeight="true" ht="21" r="285">
       <c r="A285" s="1">
         <v>20033</v>
       </c>
@@ -19775,7 +19759,7 @@
       <c r="AS285" s="1"/>
       <c r="AT285" s="1"/>
     </row>
-    <row r="286">
+    <row customHeight="true" ht="21" r="286">
       <c r="A286" s="1">
         <v>20034</v>
       </c>
@@ -19835,7 +19819,7 @@
       <c r="AS286" s="1"/>
       <c r="AT286" s="1"/>
     </row>
-    <row r="287">
+    <row customHeight="true" ht="21" r="287">
       <c r="A287" s="1">
         <v>20035</v>
       </c>
@@ -19901,7 +19885,7 @@
       <c r="AS287" s="1"/>
       <c r="AT287" s="1"/>
     </row>
-    <row r="288">
+    <row customHeight="true" ht="21" r="288">
       <c r="A288" s="1">
         <v>20036</v>
       </c>
@@ -19961,7 +19945,7 @@
       <c r="AS288" s="1"/>
       <c r="AT288" s="1"/>
     </row>
-    <row r="289">
+    <row customHeight="true" ht="21" r="289">
       <c r="A289" s="1">
         <v>20037</v>
       </c>
@@ -20027,7 +20011,7 @@
       <c r="AS289" s="1"/>
       <c r="AT289" s="1"/>
     </row>
-    <row r="290">
+    <row customHeight="true" ht="21" r="290">
       <c r="A290" s="1">
         <v>20038</v>
       </c>
@@ -20087,7 +20071,7 @@
       <c r="AS290" s="1"/>
       <c r="AT290" s="1"/>
     </row>
-    <row r="291">
+    <row customHeight="true" ht="21" r="291">
       <c r="A291" s="1">
         <v>20039</v>
       </c>
@@ -20153,7 +20137,7 @@
       <c r="AS291" s="1"/>
       <c r="AT291" s="1"/>
     </row>
-    <row r="292">
+    <row customHeight="true" ht="21" r="292">
       <c r="A292" s="1">
         <v>20040</v>
       </c>
@@ -20213,7 +20197,7 @@
       <c r="AS292" s="1"/>
       <c r="AT292" s="1"/>
     </row>
-    <row r="293">
+    <row customHeight="true" ht="21" r="293">
       <c r="A293" s="1">
         <v>20041</v>
       </c>
@@ -20279,7 +20263,7 @@
       <c r="AS293" s="1"/>
       <c r="AT293" s="1"/>
     </row>
-    <row r="294">
+    <row customHeight="true" ht="21" r="294">
       <c r="A294" s="1">
         <v>20042</v>
       </c>
@@ -20339,7 +20323,7 @@
       <c r="AS294" s="1"/>
       <c r="AT294" s="1"/>
     </row>
-    <row r="295">
+    <row customHeight="true" ht="21" r="295">
       <c r="A295" s="1">
         <v>20043</v>
       </c>
@@ -20405,7 +20389,7 @@
       <c r="AS295" s="1"/>
       <c r="AT295" s="1"/>
     </row>
-    <row r="296">
+    <row customHeight="true" ht="21" r="296">
       <c r="A296" s="1">
         <v>20044</v>
       </c>
@@ -20465,7 +20449,7 @@
       <c r="AS296" s="1"/>
       <c r="AT296" s="1"/>
     </row>
-    <row r="297">
+    <row customHeight="true" ht="21" r="297">
       <c r="A297" s="1">
         <v>20045</v>
       </c>
@@ -20531,7 +20515,7 @@
       <c r="AS297" s="1"/>
       <c r="AT297" s="1"/>
     </row>
-    <row r="298">
+    <row customHeight="true" ht="21" r="298">
       <c r="A298" s="1">
         <v>20046</v>
       </c>
@@ -20591,7 +20575,7 @@
       <c r="AS298" s="1"/>
       <c r="AT298" s="1"/>
     </row>
-    <row r="299">
+    <row customHeight="true" ht="21" r="299">
       <c r="A299" s="1">
         <v>20047</v>
       </c>
@@ -20657,7 +20641,7 @@
       <c r="AS299" s="1"/>
       <c r="AT299" s="1"/>
     </row>
-    <row r="300">
+    <row customHeight="true" ht="21" r="300">
       <c r="A300" s="1">
         <v>20048</v>
       </c>
@@ -20717,7 +20701,7 @@
       <c r="AS300" s="1"/>
       <c r="AT300" s="1"/>
     </row>
-    <row r="301">
+    <row customHeight="true" ht="21" r="301">
       <c r="A301" s="1">
         <v>20049</v>
       </c>
@@ -20783,7 +20767,7 @@
       <c r="AS301" s="1"/>
       <c r="AT301" s="1"/>
     </row>
-    <row r="302">
+    <row customHeight="true" ht="21" r="302">
       <c r="A302" s="1">
         <v>20050</v>
       </c>
@@ -20843,7 +20827,7 @@
       <c r="AS302" s="1"/>
       <c r="AT302" s="1"/>
     </row>
-    <row r="303">
+    <row customHeight="true" ht="21" r="303">
       <c r="A303" s="1">
         <v>20051</v>
       </c>
@@ -20909,7 +20893,7 @@
       <c r="AS303" s="1"/>
       <c r="AT303" s="1"/>
     </row>
-    <row r="304">
+    <row customHeight="true" ht="21" r="304">
       <c r="A304" s="1">
         <v>20052</v>
       </c>
@@ -20969,7 +20953,7 @@
       <c r="AS304" s="1"/>
       <c r="AT304" s="1"/>
     </row>
-    <row r="305">
+    <row customHeight="true" ht="21" r="305">
       <c r="A305" s="1">
         <v>20053</v>
       </c>
@@ -21035,7 +21019,7 @@
       <c r="AS305" s="1"/>
       <c r="AT305" s="1"/>
     </row>
-    <row r="306">
+    <row customHeight="true" ht="21" r="306">
       <c r="A306" s="1">
         <v>20054</v>
       </c>
@@ -21095,7 +21079,7 @@
       <c r="AS306" s="1"/>
       <c r="AT306" s="1"/>
     </row>
-    <row r="307">
+    <row customHeight="true" ht="21" r="307">
       <c r="A307" s="1">
         <v>20055</v>
       </c>
@@ -21161,7 +21145,7 @@
       <c r="AS307" s="1"/>
       <c r="AT307" s="1"/>
     </row>
-    <row r="308">
+    <row customHeight="true" ht="21" r="308">
       <c r="A308" s="1">
         <v>20056</v>
       </c>
@@ -21221,7 +21205,7 @@
       <c r="AS308" s="1"/>
       <c r="AT308" s="1"/>
     </row>
-    <row r="309">
+    <row customHeight="true" ht="21" r="309">
       <c r="A309" s="1">
         <v>20057</v>
       </c>
@@ -21287,7 +21271,7 @@
       <c r="AS309" s="1"/>
       <c r="AT309" s="1"/>
     </row>
-    <row r="310">
+    <row customHeight="true" ht="21" r="310">
       <c r="A310" s="1">
         <v>20058</v>
       </c>
@@ -21347,7 +21331,7 @@
       <c r="AS310" s="1"/>
       <c r="AT310" s="1"/>
     </row>
-    <row r="311">
+    <row customHeight="true" ht="21" r="311">
       <c r="A311" s="1">
         <v>20059</v>
       </c>
@@ -21413,7 +21397,7 @@
       <c r="AS311" s="1"/>
       <c r="AT311" s="1"/>
     </row>
-    <row r="312">
+    <row customHeight="true" ht="21" r="312">
       <c r="A312" s="1">
         <v>20060</v>
       </c>
@@ -21473,7 +21457,7 @@
       <c r="AS312" s="1"/>
       <c r="AT312" s="1"/>
     </row>
-    <row r="313">
+    <row customHeight="true" ht="21" r="313">
       <c r="A313" s="1">
         <v>20061</v>
       </c>
@@ -21539,7 +21523,7 @@
       <c r="AS313" s="1"/>
       <c r="AT313" s="1"/>
     </row>
-    <row r="314">
+    <row customHeight="true" ht="21" r="314">
       <c r="A314" s="1">
         <v>20062</v>
       </c>
@@ -21599,7 +21583,7 @@
       <c r="AS314" s="1"/>
       <c r="AT314" s="1"/>
     </row>
-    <row r="315">
+    <row customHeight="true" ht="21" r="315">
       <c r="A315" s="1">
         <v>30001</v>
       </c>
@@ -21663,7 +21647,7 @@
       <c r="AS315" s="1"/>
       <c r="AT315" s="1"/>
     </row>
-    <row r="316">
+    <row customHeight="true" ht="21" r="316">
       <c r="A316" s="1">
         <v>30002</v>
       </c>
@@ -21739,7 +21723,7 @@
       <c r="AS316" s="1"/>
       <c r="AT316" s="1"/>
     </row>
-    <row r="317">
+    <row customHeight="true" ht="21" r="317">
       <c r="A317" s="1">
         <v>30003</v>
       </c>
@@ -21754,7 +21738,7 @@
       <c r="F317" s="1">
         <v>122174</v>
       </c>
-      <c r="G317" s="4">
+      <c r="G317" s="1">
         <v>15</v>
       </c>
       <c r="H317" s="2" t="str">
@@ -21809,7 +21793,7 @@
       <c r="AS317" s="1"/>
       <c r="AT317" s="1"/>
     </row>
-    <row r="318">
+    <row customHeight="true" ht="21" r="318">
       <c r="A318" s="1">
         <v>30004</v>
       </c>
@@ -21820,7 +21804,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
-      <c r="G318" s="4">
+      <c r="G318" s="1">
         <v>15</v>
       </c>
       <c r="H318" s="2" t="str">
@@ -21889,7 +21873,7 @@
       <c r="AS318" s="1"/>
       <c r="AT318" s="1"/>
     </row>
-    <row r="319">
+    <row customHeight="true" ht="21" r="319">
       <c r="A319" s="1">
         <v>30005</v>
       </c>
@@ -21923,7 +21907,7 @@
       <c r="S319" s="1">
         <v>103437</v>
       </c>
-      <c r="T319" s="4">
+      <c r="T319" s="1">
         <v>4374</v>
       </c>
       <c r="U319" s="1"/>
@@ -21953,7 +21937,7 @@
       <c r="AS319" s="1"/>
       <c r="AT319" s="1"/>
     </row>
-    <row r="320">
+    <row customHeight="true" ht="21" r="320">
       <c r="A320" s="1">
         <v>30006</v>
       </c>
@@ -21987,7 +21971,7 @@
       <c r="S320" s="1">
         <v>103437</v>
       </c>
-      <c r="T320" s="4"/>
+      <c r="T320" s="1"/>
       <c r="U320" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -22029,7 +22013,7 @@
       <c r="AS320" s="1"/>
       <c r="AT320" s="1"/>
     </row>
-    <row r="321">
+    <row customHeight="true" ht="21" r="321">
       <c r="A321" s="1">
         <v>30007</v>
       </c>
@@ -22044,7 +22028,7 @@
       <c r="F321" s="1">
         <v>171837</v>
       </c>
-      <c r="G321" s="4">
+      <c r="G321" s="1">
         <v>15</v>
       </c>
       <c r="H321" s="3" t="str">
@@ -22063,7 +22047,7 @@
       <c r="S321" s="1">
         <v>103437</v>
       </c>
-      <c r="T321" s="4">
+      <c r="T321" s="1">
         <v>4375</v>
       </c>
       <c r="U321" s="1"/>
@@ -22093,7 +22077,7 @@
       <c r="AS321" s="1"/>
       <c r="AT321" s="1"/>
     </row>
-    <row r="322">
+    <row customHeight="true" ht="21" r="322">
       <c r="A322" s="1">
         <v>30008</v>
       </c>
@@ -22127,7 +22111,7 @@
       <c r="S322" s="1">
         <v>103437</v>
       </c>
-      <c r="T322" s="4"/>
+      <c r="T322" s="1"/>
       <c r="U322" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -22169,7 +22153,7 @@
       <c r="AS322" s="1"/>
       <c r="AT322" s="1"/>
     </row>
-    <row r="323">
+    <row customHeight="true" ht="21" r="323">
       <c r="A323" s="1">
         <v>30009</v>
       </c>
@@ -22203,7 +22187,7 @@
       <c r="S323" s="1">
         <v>103437</v>
       </c>
-      <c r="T323" s="4">
+      <c r="T323" s="1">
         <v>4376</v>
       </c>
       <c r="U323" s="1"/>
@@ -22233,7 +22217,7 @@
       <c r="AS323" s="1"/>
       <c r="AT323" s="1"/>
     </row>
-    <row r="324">
+    <row customHeight="true" ht="21" r="324">
       <c r="A324" s="1">
         <v>30010</v>
       </c>
@@ -22244,7 +22228,7 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
-      <c r="G324" s="4">
+      <c r="G324" s="1">
         <v>15</v>
       </c>
       <c r="H324" s="3" t="str">
@@ -22267,7 +22251,7 @@
       <c r="S324" s="1">
         <v>103437</v>
       </c>
-      <c r="T324" s="4"/>
+      <c r="T324" s="1"/>
       <c r="U324" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -22309,7 +22293,7 @@
       <c r="AS324" s="1"/>
       <c r="AT324" s="1"/>
     </row>
-    <row r="325">
+    <row customHeight="true" ht="21" r="325">
       <c r="A325" s="1">
         <v>30011</v>
       </c>
@@ -22343,7 +22327,7 @@
       <c r="S325" s="1">
         <v>103437</v>
       </c>
-      <c r="T325" s="4">
+      <c r="T325" s="1">
         <v>4377</v>
       </c>
       <c r="U325" s="1"/>
@@ -22373,7 +22357,7 @@
       <c r="AS325" s="1"/>
       <c r="AT325" s="1"/>
     </row>
-    <row r="326">
+    <row customHeight="true" ht="21" r="326">
       <c r="A326" s="1">
         <v>30012</v>
       </c>
@@ -22407,7 +22391,7 @@
       <c r="S326" s="1">
         <v>103437</v>
       </c>
-      <c r="T326" s="4"/>
+      <c r="T326" s="1"/>
       <c r="U326" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -22449,7 +22433,7 @@
       <c r="AS326" s="1"/>
       <c r="AT326" s="1"/>
     </row>
-    <row r="327">
+    <row customHeight="true" ht="21" r="327">
       <c r="A327" s="1">
         <v>30013</v>
       </c>
@@ -22464,7 +22448,7 @@
       <c r="F327" s="1">
         <v>171837</v>
       </c>
-      <c r="G327" s="4">
+      <c r="G327" s="1">
         <v>15</v>
       </c>
       <c r="H327" s="3" t="str">
@@ -22483,7 +22467,7 @@
       <c r="S327" s="1">
         <v>103437</v>
       </c>
-      <c r="T327" s="4">
+      <c r="T327" s="1">
         <v>32679</v>
       </c>
       <c r="U327" s="1"/>
@@ -22513,7 +22497,7 @@
       <c r="AS327" s="1"/>
       <c r="AT327" s="1"/>
     </row>
-    <row r="328">
+    <row customHeight="true" ht="21" r="328">
       <c r="A328" s="1">
         <v>30014</v>
       </c>
@@ -22547,7 +22531,7 @@
       <c r="S328" s="1">
         <v>103437</v>
       </c>
-      <c r="T328" s="4"/>
+      <c r="T328" s="1"/>
       <c r="U328" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -22589,7 +22573,7 @@
       <c r="AS328" s="1"/>
       <c r="AT328" s="1"/>
     </row>
-    <row r="329">
+    <row customHeight="true" ht="21" r="329">
       <c r="A329" s="1">
         <v>30015</v>
       </c>
@@ -22623,7 +22607,7 @@
       <c r="S329" s="1">
         <v>103437</v>
       </c>
-      <c r="T329" s="4">
+      <c r="T329" s="1">
         <v>81684</v>
       </c>
       <c r="U329" s="1"/>
@@ -22653,7 +22637,7 @@
       <c r="AS329" s="1"/>
       <c r="AT329" s="1"/>
     </row>
-    <row r="330">
+    <row customHeight="true" ht="21" r="330">
       <c r="A330" s="1">
         <v>30016</v>
       </c>
@@ -22664,7 +22648,7 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
-      <c r="G330" s="4">
+      <c r="G330" s="1">
         <v>15</v>
       </c>
       <c r="H330" s="3" t="str">
@@ -22687,7 +22671,7 @@
       <c r="S330" s="1">
         <v>103437</v>
       </c>
-      <c r="T330" s="4"/>
+      <c r="T330" s="1"/>
       <c r="U330" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -22729,7 +22713,7 @@
       <c r="AS330" s="1"/>
       <c r="AT330" s="1"/>
     </row>
-    <row r="331">
+    <row customHeight="true" ht="21" r="331">
       <c r="A331" s="1">
         <v>30017</v>
       </c>
@@ -22763,7 +22747,7 @@
       <c r="S331" s="1">
         <v>103437</v>
       </c>
-      <c r="T331" s="4">
+      <c r="T331" s="1">
         <v>81685</v>
       </c>
       <c r="U331" s="1"/>
@@ -22793,7 +22777,7 @@
       <c r="AS331" s="1"/>
       <c r="AT331" s="1"/>
     </row>
-    <row r="332">
+    <row customHeight="true" ht="21" r="332">
       <c r="A332" s="1">
         <v>30018</v>
       </c>
@@ -22827,7 +22811,7 @@
       <c r="S332" s="1">
         <v>103437</v>
       </c>
-      <c r="T332" s="4"/>
+      <c r="T332" s="1"/>
       <c r="U332" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -22869,7 +22853,7 @@
       <c r="AS332" s="1"/>
       <c r="AT332" s="1"/>
     </row>
-    <row r="333">
+    <row customHeight="true" ht="21" r="333">
       <c r="A333" s="1">
         <v>30019</v>
       </c>
@@ -22884,7 +22868,7 @@
       <c r="F333" s="1">
         <v>171837</v>
       </c>
-      <c r="G333" s="4">
+      <c r="G333" s="1">
         <v>15</v>
       </c>
       <c r="H333" s="3" t="str">
@@ -22903,7 +22887,7 @@
       <c r="S333" s="1">
         <v>103437</v>
       </c>
-      <c r="T333" s="4">
+      <c r="T333" s="1">
         <v>88812</v>
       </c>
       <c r="U333" s="1"/>
@@ -22933,7 +22917,7 @@
       <c r="AS333" s="1"/>
       <c r="AT333" s="1"/>
     </row>
-    <row r="334">
+    <row customHeight="true" ht="21" r="334">
       <c r="A334" s="1">
         <v>30020</v>
       </c>
@@ -22967,7 +22951,7 @@
       <c r="S334" s="1">
         <v>103437</v>
       </c>
-      <c r="T334" s="4"/>
+      <c r="T334" s="1"/>
       <c r="U334" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -23009,7 +22993,7 @@
       <c r="AS334" s="1"/>
       <c r="AT334" s="1"/>
     </row>
-    <row r="335">
+    <row customHeight="true" ht="21" r="335">
       <c r="A335" s="1">
         <v>30021</v>
       </c>
@@ -23024,7 +23008,7 @@
       <c r="F335" s="1">
         <v>171837</v>
       </c>
-      <c r="G335" s="4">
+      <c r="G335" s="1">
         <v>15</v>
       </c>
       <c r="H335" s="3" t="str">
@@ -23043,7 +23027,7 @@
       <c r="S335" s="1">
         <v>103437</v>
       </c>
-      <c r="T335" s="4">
+      <c r="T335" s="1">
         <v>88816</v>
       </c>
       <c r="U335" s="1"/>
@@ -23073,7 +23057,7 @@
       <c r="AS335" s="1"/>
       <c r="AT335" s="1"/>
     </row>
-    <row r="336">
+    <row customHeight="true" ht="21" r="336">
       <c r="A336" s="1">
         <v>30022</v>
       </c>
@@ -23107,7 +23091,7 @@
       <c r="S336" s="1">
         <v>103437</v>
       </c>
-      <c r="T336" s="4"/>
+      <c r="T336" s="1"/>
       <c r="U336" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -23149,7 +23133,7 @@
       <c r="AS336" s="1"/>
       <c r="AT336" s="1"/>
     </row>
-    <row r="337">
+    <row customHeight="true" ht="21" r="337">
       <c r="A337" s="1">
         <v>30023</v>
       </c>
@@ -23183,7 +23167,7 @@
       <c r="S337" s="1">
         <v>103437</v>
       </c>
-      <c r="T337" s="4">
+      <c r="T337" s="1">
         <v>88821</v>
       </c>
       <c r="U337" s="1"/>
@@ -23213,7 +23197,7 @@
       <c r="AS337" s="1"/>
       <c r="AT337" s="1"/>
     </row>
-    <row r="338">
+    <row customHeight="true" ht="21" r="338">
       <c r="A338" s="1">
         <v>30024</v>
       </c>
@@ -23224,7 +23208,7 @@
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
-      <c r="G338" s="4">
+      <c r="G338" s="1">
         <v>15</v>
       </c>
       <c r="H338" s="3" t="str">
@@ -23247,7 +23231,7 @@
       <c r="S338" s="1">
         <v>103437</v>
       </c>
-      <c r="T338" s="4"/>
+      <c r="T338" s="1"/>
       <c r="U338" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -23289,7 +23273,7 @@
       <c r="AS338" s="1"/>
       <c r="AT338" s="1"/>
     </row>
-    <row r="339">
+    <row customHeight="true" ht="21" r="339">
       <c r="A339" s="1">
         <v>30025</v>
       </c>
@@ -23323,7 +23307,7 @@
       <c r="S339" s="1">
         <v>103437</v>
       </c>
-      <c r="T339" s="4">
+      <c r="T339" s="1">
         <v>88828</v>
       </c>
       <c r="U339" s="1"/>
@@ -23353,7 +23337,7 @@
       <c r="AS339" s="1"/>
       <c r="AT339" s="1"/>
     </row>
-    <row r="340">
+    <row customHeight="true" ht="21" r="340">
       <c r="A340" s="1">
         <v>30026</v>
       </c>
@@ -23387,7 +23371,7 @@
       <c r="S340" s="1">
         <v>103437</v>
       </c>
-      <c r="T340" s="4"/>
+      <c r="T340" s="1"/>
       <c r="U340" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -23429,7 +23413,7 @@
       <c r="AS340" s="1"/>
       <c r="AT340" s="1"/>
     </row>
-    <row r="341">
+    <row customHeight="true" ht="21" r="341">
       <c r="A341" s="1">
         <v>30027</v>
       </c>
@@ -23444,7 +23428,7 @@
       <c r="F341" s="1">
         <v>171837</v>
       </c>
-      <c r="G341" s="4">
+      <c r="G341" s="1">
         <v>15</v>
       </c>
       <c r="H341" s="3" t="str">
@@ -23463,7 +23447,7 @@
       <c r="S341" s="1">
         <v>103437</v>
       </c>
-      <c r="T341" s="4">
+      <c r="T341" s="1">
         <v>88832</v>
       </c>
       <c r="U341" s="1"/>
@@ -23493,7 +23477,7 @@
       <c r="AS341" s="1"/>
       <c r="AT341" s="1"/>
     </row>
-    <row r="342">
+    <row customHeight="true" ht="21" r="342">
       <c r="A342" s="1">
         <v>30028</v>
       </c>
@@ -23527,7 +23511,7 @@
       <c r="S342" s="1">
         <v>103437</v>
       </c>
-      <c r="T342" s="4"/>
+      <c r="T342" s="1"/>
       <c r="U342" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -23569,7 +23553,7 @@
       <c r="AS342" s="1"/>
       <c r="AT342" s="1"/>
     </row>
-    <row r="343">
+    <row customHeight="true" ht="21" r="343">
       <c r="A343" s="1">
         <v>30029</v>
       </c>
@@ -23603,7 +23587,7 @@
       <c r="S343" s="1">
         <v>103437</v>
       </c>
-      <c r="T343" s="4">
+      <c r="T343" s="1">
         <v>88835</v>
       </c>
       <c r="U343" s="1"/>
@@ -23633,7 +23617,7 @@
       <c r="AS343" s="1"/>
       <c r="AT343" s="1"/>
     </row>
-    <row r="344">
+    <row customHeight="true" ht="21" r="344">
       <c r="A344" s="1">
         <v>30030</v>
       </c>
@@ -23644,7 +23628,7 @@
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
-      <c r="G344" s="4">
+      <c r="G344" s="1">
         <v>15</v>
       </c>
       <c r="H344" s="3" t="str">
@@ -23667,7 +23651,7 @@
       <c r="S344" s="1">
         <v>103437</v>
       </c>
-      <c r="T344" s="4"/>
+      <c r="T344" s="1"/>
       <c r="U344" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -23709,7 +23693,7 @@
       <c r="AS344" s="1"/>
       <c r="AT344" s="1"/>
     </row>
-    <row r="345">
+    <row customHeight="true" ht="21" r="345">
       <c r="A345" s="1">
         <v>30031</v>
       </c>
@@ -23743,7 +23727,7 @@
       <c r="S345" s="1">
         <v>103437</v>
       </c>
-      <c r="T345" s="4">
+      <c r="T345" s="1">
         <v>125365</v>
       </c>
       <c r="U345" s="1"/>
@@ -23773,7 +23757,7 @@
       <c r="AS345" s="1"/>
       <c r="AT345" s="1"/>
     </row>
-    <row r="346">
+    <row customHeight="true" ht="21" r="346">
       <c r="A346" s="1">
         <v>30032</v>
       </c>
@@ -23807,7 +23791,7 @@
       <c r="S346" s="1">
         <v>103437</v>
       </c>
-      <c r="T346" s="4"/>
+      <c r="T346" s="1"/>
       <c r="U346" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -23849,7 +23833,7 @@
       <c r="AS346" s="1"/>
       <c r="AT346" s="1"/>
     </row>
-    <row r="347">
+    <row customHeight="true" ht="21" r="347">
       <c r="A347" s="1">
         <v>30033</v>
       </c>
@@ -23864,7 +23848,7 @@
       <c r="F347" s="1">
         <v>171837</v>
       </c>
-      <c r="G347" s="4">
+      <c r="G347" s="1">
         <v>15</v>
       </c>
       <c r="H347" s="3" t="str">
@@ -23883,7 +23867,7 @@
       <c r="S347" s="1">
         <v>103437</v>
       </c>
-      <c r="T347" s="4">
+      <c r="T347" s="1">
         <v>125373</v>
       </c>
       <c r="U347" s="1"/>
@@ -23913,7 +23897,7 @@
       <c r="AS347" s="1"/>
       <c r="AT347" s="1"/>
     </row>
-    <row r="348">
+    <row customHeight="true" ht="21" r="348">
       <c r="A348" s="1">
         <v>30034</v>
       </c>
@@ -23947,7 +23931,7 @@
       <c r="S348" s="1">
         <v>103437</v>
       </c>
-      <c r="T348" s="4"/>
+      <c r="T348" s="1"/>
       <c r="U348" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -23989,7 +23973,7 @@
       <c r="AS348" s="1"/>
       <c r="AT348" s="1"/>
     </row>
-    <row r="349">
+    <row customHeight="true" ht="21" r="349">
       <c r="A349" s="1">
         <v>30035</v>
       </c>
@@ -24004,7 +23988,7 @@
       <c r="F349" s="1">
         <v>171837</v>
       </c>
-      <c r="G349" s="4">
+      <c r="G349" s="1">
         <v>15</v>
       </c>
       <c r="H349" s="3" t="str">
@@ -24023,7 +24007,7 @@
       <c r="S349" s="1">
         <v>103437</v>
       </c>
-      <c r="T349" s="4">
+      <c r="T349" s="1">
         <v>141911</v>
       </c>
       <c r="U349" s="1"/>
@@ -24053,7 +24037,7 @@
       <c r="AS349" s="1"/>
       <c r="AT349" s="1"/>
     </row>
-    <row r="350">
+    <row customHeight="true" ht="21" r="350">
       <c r="A350" s="1">
         <v>30036</v>
       </c>
@@ -24087,7 +24071,7 @@
       <c r="S350" s="1">
         <v>103437</v>
       </c>
-      <c r="T350" s="4"/>
+      <c r="T350" s="1"/>
       <c r="U350" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -24129,7 +24113,7 @@
       <c r="AS350" s="1"/>
       <c r="AT350" s="1"/>
     </row>
-    <row r="351">
+    <row customHeight="true" ht="21" r="351">
       <c r="A351" s="1">
         <v>30037</v>
       </c>
@@ -24163,7 +24147,7 @@
       <c r="S351" s="1">
         <v>103437</v>
       </c>
-      <c r="T351" s="4">
+      <c r="T351" s="1">
         <v>141912</v>
       </c>
       <c r="U351" s="1"/>
@@ -24193,7 +24177,7 @@
       <c r="AS351" s="1"/>
       <c r="AT351" s="1"/>
     </row>
-    <row r="352">
+    <row customHeight="true" ht="21" r="352">
       <c r="A352" s="1">
         <v>30038</v>
       </c>
@@ -24204,7 +24188,7 @@
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
-      <c r="G352" s="4">
+      <c r="G352" s="1">
         <v>15</v>
       </c>
       <c r="H352" s="3" t="str">
@@ -24227,7 +24211,7 @@
       <c r="S352" s="1">
         <v>103437</v>
       </c>
-      <c r="T352" s="4"/>
+      <c r="T352" s="1"/>
       <c r="U352" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -24269,7 +24253,7 @@
       <c r="AS352" s="1"/>
       <c r="AT352" s="1"/>
     </row>
-    <row r="353">
+    <row customHeight="true" ht="21" r="353">
       <c r="A353" s="1">
         <v>30039</v>
       </c>
@@ -24303,7 +24287,7 @@
       <c r="S353" s="1">
         <v>103437</v>
       </c>
-      <c r="T353" s="4">
+      <c r="T353" s="1">
         <v>141915</v>
       </c>
       <c r="U353" s="1"/>
@@ -24333,7 +24317,7 @@
       <c r="AS353" s="1"/>
       <c r="AT353" s="1"/>
     </row>
-    <row r="354">
+    <row customHeight="true" ht="21" r="354">
       <c r="A354" s="1">
         <v>30040</v>
       </c>
@@ -24367,7 +24351,7 @@
       <c r="S354" s="1">
         <v>103437</v>
       </c>
-      <c r="T354" s="4"/>
+      <c r="T354" s="1"/>
       <c r="U354" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -24409,7 +24393,7 @@
       <c r="AS354" s="1"/>
       <c r="AT354" s="1"/>
     </row>
-    <row r="355">
+    <row customHeight="true" ht="21" r="355">
       <c r="A355" s="1">
         <v>30041</v>
       </c>
@@ -24424,7 +24408,7 @@
       <c r="F355" s="1">
         <v>171837</v>
       </c>
-      <c r="G355" s="4">
+      <c r="G355" s="1">
         <v>15</v>
       </c>
       <c r="H355" s="3" t="str">
@@ -24443,7 +24427,7 @@
       <c r="S355" s="1">
         <v>103437</v>
       </c>
-      <c r="T355" s="4">
+      <c r="T355" s="1">
         <v>141916</v>
       </c>
       <c r="U355" s="1"/>
@@ -24473,7 +24457,7 @@
       <c r="AS355" s="1"/>
       <c r="AT355" s="1"/>
     </row>
-    <row r="356">
+    <row customHeight="true" ht="21" r="356">
       <c r="A356" s="1">
         <v>30042</v>
       </c>
@@ -24507,7 +24491,7 @@
       <c r="S356" s="1">
         <v>103437</v>
       </c>
-      <c r="T356" s="4"/>
+      <c r="T356" s="1"/>
       <c r="U356" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -24549,7 +24533,7 @@
       <c r="AS356" s="1"/>
       <c r="AT356" s="1"/>
     </row>
-    <row r="357">
+    <row customHeight="true" ht="21" r="357">
       <c r="A357" s="1">
         <v>30043</v>
       </c>
@@ -24583,7 +24567,7 @@
       <c r="S357" s="1">
         <v>103437</v>
       </c>
-      <c r="T357" s="4">
+      <c r="T357" s="1">
         <v>174253</v>
       </c>
       <c r="U357" s="1"/>
@@ -24613,7 +24597,7 @@
       <c r="AS357" s="1"/>
       <c r="AT357" s="1"/>
     </row>
-    <row r="358">
+    <row customHeight="true" ht="21" r="358">
       <c r="A358" s="1">
         <v>30044</v>
       </c>
@@ -24624,7 +24608,7 @@
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="3"/>
-      <c r="G358" s="4">
+      <c r="G358" s="1">
         <v>15</v>
       </c>
       <c r="H358" s="3" t="str">
@@ -24647,7 +24631,7 @@
       <c r="S358" s="1">
         <v>103437</v>
       </c>
-      <c r="T358" s="4"/>
+      <c r="T358" s="1"/>
       <c r="U358" s="1" t="str">
         <v>2|3|1</v>
       </c>
@@ -24689,7 +24673,7 @@
       <c r="AS358" s="1"/>
       <c r="AT358" s="1"/>
     </row>
-    <row r="359">
+    <row customHeight="true" ht="21" r="359">
       <c r="A359" s="1">
         <v>30045</v>
       </c>
@@ -24723,7 +24707,7 @@
       <c r="S359" s="1">
         <v>103437</v>
       </c>
-      <c r="T359" s="4">
+      <c r="T359" s="1">
         <v>78884</v>
       </c>
       <c r="U359" s="1"/>
@@ -24753,7 +24737,7 @@
       <c r="AS359" s="1"/>
       <c r="AT359" s="1"/>
     </row>
-    <row r="360">
+    <row customHeight="true" ht="21" r="360">
       <c r="A360" s="1">
         <v>30046</v>
       </c>
@@ -24787,7 +24771,7 @@
       <c r="S360" s="1">
         <v>103437</v>
       </c>
-      <c r="T360" s="4"/>
+      <c r="T360" s="1"/>
       <c r="U360" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -24829,7 +24813,7 @@
       <c r="AS360" s="1"/>
       <c r="AT360" s="1"/>
     </row>
-    <row r="361">
+    <row customHeight="true" ht="21" r="361">
       <c r="A361" s="1">
         <v>30047</v>
       </c>
@@ -24844,7 +24828,7 @@
       <c r="F361" s="3">
         <v>96556</v>
       </c>
-      <c r="G361" s="4">
+      <c r="G361" s="1">
         <v>15</v>
       </c>
       <c r="H361" s="3" t="str">
@@ -24863,7 +24847,7 @@
       <c r="S361" s="1">
         <v>103437</v>
       </c>
-      <c r="T361" s="4">
+      <c r="T361" s="1">
         <v>78885</v>
       </c>
       <c r="U361" s="1"/>
@@ -24893,7 +24877,7 @@
       <c r="AS361" s="1"/>
       <c r="AT361" s="1"/>
     </row>
-    <row r="362">
+    <row customHeight="true" ht="21" r="362">
       <c r="A362" s="1">
         <v>30048</v>
       </c>
@@ -24927,7 +24911,7 @@
       <c r="S362" s="1">
         <v>103437</v>
       </c>
-      <c r="T362" s="4"/>
+      <c r="T362" s="1"/>
       <c r="U362" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -24969,7 +24953,7 @@
       <c r="AS362" s="1"/>
       <c r="AT362" s="1"/>
     </row>
-    <row r="363">
+    <row customHeight="true" ht="21" r="363">
       <c r="A363" s="1">
         <v>30049</v>
       </c>
@@ -24984,7 +24968,7 @@
       <c r="F363" s="3">
         <v>96556</v>
       </c>
-      <c r="G363" s="4">
+      <c r="G363" s="1">
         <v>15</v>
       </c>
       <c r="H363" s="3" t="str">
@@ -25003,7 +24987,7 @@
       <c r="S363" s="1">
         <v>103437</v>
       </c>
-      <c r="T363" s="4">
+      <c r="T363" s="1">
         <v>78886</v>
       </c>
       <c r="U363" s="1"/>
@@ -25033,7 +25017,7 @@
       <c r="AS363" s="1"/>
       <c r="AT363" s="1"/>
     </row>
-    <row r="364">
+    <row customHeight="true" ht="21" r="364">
       <c r="A364" s="1">
         <v>30050</v>
       </c>
@@ -25067,7 +25051,7 @@
       <c r="S364" s="1">
         <v>103437</v>
       </c>
-      <c r="T364" s="4"/>
+      <c r="T364" s="1"/>
       <c r="U364" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -25109,7 +25093,7 @@
       <c r="AS364" s="1"/>
       <c r="AT364" s="1"/>
     </row>
-    <row r="365">
+    <row customHeight="true" ht="21" r="365">
       <c r="A365" s="1">
         <v>30051</v>
       </c>
@@ -25143,7 +25127,7 @@
       <c r="S365" s="1">
         <v>103437</v>
       </c>
-      <c r="T365" s="4">
+      <c r="T365" s="1">
         <v>78887</v>
       </c>
       <c r="U365" s="1"/>
@@ -25173,7 +25157,7 @@
       <c r="AS365" s="1"/>
       <c r="AT365" s="1"/>
     </row>
-    <row r="366">
+    <row customHeight="true" ht="21" r="366">
       <c r="A366" s="1">
         <v>30052</v>
       </c>
@@ -25184,7 +25168,7 @@
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="3"/>
-      <c r="G366" s="4">
+      <c r="G366" s="1">
         <v>15</v>
       </c>
       <c r="H366" s="3" t="str">
@@ -25207,7 +25191,7 @@
       <c r="S366" s="1">
         <v>103437</v>
       </c>
-      <c r="T366" s="4"/>
+      <c r="T366" s="1"/>
       <c r="U366" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -25249,7 +25233,7 @@
       <c r="AS366" s="1"/>
       <c r="AT366" s="1"/>
     </row>
-    <row r="367">
+    <row customHeight="true" ht="21" r="367">
       <c r="A367" s="1">
         <v>30053</v>
       </c>
@@ -25283,7 +25267,7 @@
       <c r="S367" s="1">
         <v>103437</v>
       </c>
-      <c r="T367" s="4">
+      <c r="T367" s="1">
         <v>146328</v>
       </c>
       <c r="U367" s="1"/>
@@ -25313,7 +25297,7 @@
       <c r="AS367" s="1"/>
       <c r="AT367" s="1"/>
     </row>
-    <row r="368">
+    <row customHeight="true" ht="21" r="368">
       <c r="A368" s="1">
         <v>30054</v>
       </c>
@@ -25347,7 +25331,7 @@
       <c r="S368" s="1">
         <v>103437</v>
       </c>
-      <c r="T368" s="4"/>
+      <c r="T368" s="1"/>
       <c r="U368" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -25389,7 +25373,7 @@
       <c r="AS368" s="1"/>
       <c r="AT368" s="1"/>
     </row>
-    <row r="369">
+    <row customHeight="true" ht="21" r="369">
       <c r="A369" s="1">
         <v>30055</v>
       </c>
@@ -25404,7 +25388,7 @@
       <c r="F369" s="3">
         <v>96556</v>
       </c>
-      <c r="G369" s="4">
+      <c r="G369" s="1">
         <v>15</v>
       </c>
       <c r="H369" s="3" t="str">
@@ -25423,7 +25407,7 @@
       <c r="S369" s="1">
         <v>103437</v>
       </c>
-      <c r="T369" s="4">
+      <c r="T369" s="1">
         <v>146329</v>
       </c>
       <c r="U369" s="1"/>
@@ -25453,7 +25437,7 @@
       <c r="AS369" s="1"/>
       <c r="AT369" s="1"/>
     </row>
-    <row r="370">
+    <row customHeight="true" ht="21" r="370">
       <c r="A370" s="1">
         <v>30056</v>
       </c>
@@ -25487,7 +25471,7 @@
       <c r="S370" s="1">
         <v>103437</v>
       </c>
-      <c r="T370" s="4"/>
+      <c r="T370" s="1"/>
       <c r="U370" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -25529,7 +25513,7 @@
       <c r="AS370" s="1"/>
       <c r="AT370" s="1"/>
     </row>
-    <row r="371">
+    <row customHeight="true" ht="21" r="371">
       <c r="A371" s="1">
         <v>30057</v>
       </c>
@@ -25563,7 +25547,7 @@
       <c r="S371" s="1">
         <v>103437</v>
       </c>
-      <c r="T371" s="4">
+      <c r="T371" s="1">
         <v>146753</v>
       </c>
       <c r="U371" s="1"/>
@@ -25593,7 +25577,7 @@
       <c r="AS371" s="1"/>
       <c r="AT371" s="1"/>
     </row>
-    <row r="372">
+    <row customHeight="true" ht="21" r="372">
       <c r="A372" s="1">
         <v>30058</v>
       </c>
@@ -25604,7 +25588,7 @@
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="3"/>
-      <c r="G372" s="4">
+      <c r="G372" s="1">
         <v>15</v>
       </c>
       <c r="H372" s="3" t="str">
@@ -25627,7 +25611,7 @@
       <c r="S372" s="1">
         <v>103437</v>
       </c>
-      <c r="T372" s="4"/>
+      <c r="T372" s="1"/>
       <c r="U372" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -25669,7 +25653,7 @@
       <c r="AS372" s="1"/>
       <c r="AT372" s="1"/>
     </row>
-    <row r="373">
+    <row customHeight="true" ht="21" r="373">
       <c r="A373" s="1">
         <v>30059</v>
       </c>
@@ -25703,7 +25687,7 @@
       <c r="S373" s="1">
         <v>103437</v>
       </c>
-      <c r="T373" s="4">
+      <c r="T373" s="1">
         <v>146754</v>
       </c>
       <c r="U373" s="1"/>
@@ -25733,7 +25717,7 @@
       <c r="AS373" s="1"/>
       <c r="AT373" s="1"/>
     </row>
-    <row r="374">
+    <row customHeight="true" ht="21" r="374">
       <c r="A374" s="1">
         <v>30060</v>
       </c>
@@ -25767,7 +25751,7 @@
       <c r="S374" s="1">
         <v>103437</v>
       </c>
-      <c r="T374" s="4"/>
+      <c r="T374" s="1"/>
       <c r="U374" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -25809,7 +25793,7 @@
       <c r="AS374" s="1"/>
       <c r="AT374" s="1"/>
     </row>
-    <row r="375">
+    <row customHeight="true" ht="21" r="375">
       <c r="A375" s="1">
         <v>30061</v>
       </c>
@@ -25824,7 +25808,7 @@
       <c r="F375" s="3">
         <v>96556</v>
       </c>
-      <c r="G375" s="4">
+      <c r="G375" s="1">
         <v>15</v>
       </c>
       <c r="H375" s="3" t="str">
@@ -25843,7 +25827,7 @@
       <c r="S375" s="1">
         <v>103437</v>
       </c>
-      <c r="T375" s="4">
+      <c r="T375" s="1">
         <v>146781</v>
       </c>
       <c r="U375" s="1"/>
@@ -25873,7 +25857,7 @@
       <c r="AS375" s="1"/>
       <c r="AT375" s="1"/>
     </row>
-    <row r="376">
+    <row customHeight="true" ht="21" r="376">
       <c r="A376" s="1">
         <v>30062</v>
       </c>
@@ -25907,7 +25891,7 @@
       <c r="S376" s="1">
         <v>103437</v>
       </c>
-      <c r="T376" s="4"/>
+      <c r="T376" s="1"/>
       <c r="U376" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -25949,7 +25933,7 @@
       <c r="AS376" s="1"/>
       <c r="AT376" s="1"/>
     </row>
-    <row r="377">
+    <row customHeight="true" ht="21" r="377">
       <c r="A377" s="1">
         <v>30063</v>
       </c>
@@ -25964,7 +25948,7 @@
       <c r="F377" s="3">
         <v>96556</v>
       </c>
-      <c r="G377" s="4">
+      <c r="G377" s="1">
         <v>15</v>
       </c>
       <c r="H377" s="3" t="str">
@@ -25983,7 +25967,7 @@
       <c r="S377" s="1">
         <v>103437</v>
       </c>
-      <c r="T377" s="4">
+      <c r="T377" s="1">
         <v>146782</v>
       </c>
       <c r="U377" s="1"/>
@@ -26013,7 +25997,7 @@
       <c r="AS377" s="1"/>
       <c r="AT377" s="1"/>
     </row>
-    <row r="378">
+    <row customHeight="true" ht="21" r="378">
       <c r="A378" s="1">
         <v>30064</v>
       </c>
@@ -26047,7 +26031,7 @@
       <c r="S378" s="1">
         <v>103437</v>
       </c>
-      <c r="T378" s="4"/>
+      <c r="T378" s="1"/>
       <c r="U378" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -26089,7 +26073,7 @@
       <c r="AS378" s="1"/>
       <c r="AT378" s="1"/>
     </row>
-    <row r="379">
+    <row customHeight="true" ht="21" r="379">
       <c r="A379" s="1">
         <v>30065</v>
       </c>
@@ -26123,7 +26107,7 @@
       <c r="S379" s="1">
         <v>103437</v>
       </c>
-      <c r="T379" s="4">
+      <c r="T379" s="1">
         <v>173515</v>
       </c>
       <c r="U379" s="1"/>
@@ -26153,7 +26137,7 @@
       <c r="AS379" s="1"/>
       <c r="AT379" s="1"/>
     </row>
-    <row r="380">
+    <row customHeight="true" ht="21" r="380">
       <c r="A380" s="1">
         <v>30066</v>
       </c>
@@ -26164,7 +26148,7 @@
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="3"/>
-      <c r="G380" s="4">
+      <c r="G380" s="1">
         <v>15</v>
       </c>
       <c r="H380" s="3" t="str">
@@ -26187,7 +26171,7 @@
       <c r="S380" s="1">
         <v>103437</v>
       </c>
-      <c r="T380" s="4"/>
+      <c r="T380" s="1"/>
       <c r="U380" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -26229,7 +26213,7 @@
       <c r="AS380" s="1"/>
       <c r="AT380" s="1"/>
     </row>
-    <row r="381">
+    <row customHeight="true" ht="21" r="381">
       <c r="A381" s="1">
         <v>30067</v>
       </c>
@@ -26263,7 +26247,7 @@
       <c r="S381" s="1">
         <v>103437</v>
       </c>
-      <c r="T381" s="4">
+      <c r="T381" s="1">
         <v>173518</v>
       </c>
       <c r="U381" s="1"/>
@@ -26293,7 +26277,7 @@
       <c r="AS381" s="1"/>
       <c r="AT381" s="1"/>
     </row>
-    <row r="382">
+    <row customHeight="true" ht="21" r="382">
       <c r="A382" s="1">
         <v>30068</v>
       </c>
@@ -26327,7 +26311,7 @@
       <c r="S382" s="1">
         <v>103437</v>
       </c>
-      <c r="T382" s="4"/>
+      <c r="T382" s="1"/>
       <c r="U382" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -26369,7 +26353,7 @@
       <c r="AS382" s="1"/>
       <c r="AT382" s="1"/>
     </row>
-    <row r="383">
+    <row customHeight="true" ht="21" r="383">
       <c r="A383" s="1">
         <v>30069</v>
       </c>
@@ -26384,7 +26368,7 @@
       <c r="F383" s="3">
         <v>96556</v>
       </c>
-      <c r="G383" s="4">
+      <c r="G383" s="1">
         <v>15</v>
       </c>
       <c r="H383" s="3" t="str">
@@ -26403,7 +26387,7 @@
       <c r="S383" s="1">
         <v>103437</v>
       </c>
-      <c r="T383" s="4">
+      <c r="T383" s="1">
         <v>174247</v>
       </c>
       <c r="U383" s="1"/>
@@ -26433,7 +26417,7 @@
       <c r="AS383" s="1"/>
       <c r="AT383" s="1"/>
     </row>
-    <row r="384">
+    <row customHeight="true" ht="21" r="384">
       <c r="A384" s="1">
         <v>30070</v>
       </c>
@@ -26467,7 +26451,7 @@
       <c r="S384" s="1">
         <v>103437</v>
       </c>
-      <c r="T384" s="4"/>
+      <c r="T384" s="1"/>
       <c r="U384" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -26509,7 +26493,7 @@
       <c r="AS384" s="1"/>
       <c r="AT384" s="1"/>
     </row>
-    <row r="385">
+    <row customHeight="true" ht="21" r="385">
       <c r="A385" s="1">
         <v>30071</v>
       </c>
@@ -26543,7 +26527,7 @@
       <c r="S385" s="1">
         <v>103437</v>
       </c>
-      <c r="T385" s="4">
+      <c r="T385" s="1">
         <v>174249</v>
       </c>
       <c r="U385" s="1"/>
@@ -26573,7 +26557,7 @@
       <c r="AS385" s="1"/>
       <c r="AT385" s="1"/>
     </row>
-    <row r="386">
+    <row customHeight="true" ht="21" r="386">
       <c r="A386" s="1">
         <v>30072</v>
       </c>
@@ -26584,7 +26568,7 @@
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="3"/>
-      <c r="G386" s="4">
+      <c r="G386" s="1">
         <v>15</v>
       </c>
       <c r="H386" s="3" t="str">
@@ -26607,7 +26591,7 @@
       <c r="S386" s="1">
         <v>103437</v>
       </c>
-      <c r="T386" s="4"/>
+      <c r="T386" s="1"/>
       <c r="U386" s="1" t="str">
         <v>2|5|1</v>
       </c>
@@ -26649,7 +26633,7 @@
       <c r="AS386" s="1"/>
       <c r="AT386" s="1"/>
     </row>
-    <row r="387">
+    <row customHeight="true" ht="21" r="387">
       <c r="A387" s="1">
         <v>30073</v>
       </c>
@@ -26683,7 +26667,7 @@
       <c r="S387" s="1">
         <v>103437</v>
       </c>
-      <c r="T387" s="4">
+      <c r="T387" s="1">
         <v>174251</v>
       </c>
       <c r="U387" s="1"/>
@@ -26713,7 +26697,7 @@
       <c r="AS387" s="1"/>
       <c r="AT387" s="1"/>
     </row>
-    <row r="388">
+    <row customHeight="true" ht="21" r="388">
       <c r="A388" s="1">
         <v>30074</v>
       </c>
@@ -26789,7 +26773,7 @@
       <c r="AS388" s="1"/>
       <c r="AT388" s="1"/>
     </row>
-    <row r="389">
+    <row customHeight="true" ht="21" r="389">
       <c r="A389" s="1">
         <v>60001</v>
       </c>
@@ -26861,7 +26845,7 @@
       <c r="AS389" s="1"/>
       <c r="AT389" s="1"/>
     </row>
-    <row r="390">
+    <row customHeight="true" ht="21" r="390">
       <c r="A390" s="1">
         <v>60002</v>
       </c>
@@ -26933,7 +26917,7 @@
       <c r="AS390" s="1"/>
       <c r="AT390" s="1"/>
     </row>
-    <row r="391">
+    <row customHeight="true" ht="21" r="391">
       <c r="A391" s="1">
         <v>60003</v>
       </c>
@@ -27005,7 +26989,7 @@
       <c r="AS391" s="1"/>
       <c r="AT391" s="1"/>
     </row>
-    <row customHeight="true" ht="19" r="392">
+    <row customHeight="true" ht="21" r="392">
       <c r="A392" s="1">
         <v>60004</v>
       </c>
@@ -27013,49 +26997,49 @@
         <v>冲浪板</v>
       </c>
       <c r="C392" s="3"/>
-      <c r="D392" s="4">
+      <c r="D392" s="1">
         <v>6</v>
       </c>
-      <c r="E392" s="4"/>
+      <c r="E392" s="1"/>
       <c r="F392" s="3" t="str">
         <v>CA4C723A47326DBDD6C15E81BF263948</v>
       </c>
-      <c r="G392" s="4">
+      <c r="G392" s="1">
         <v>23</v>
       </c>
-      <c r="H392" s="4" t="str">
+      <c r="H392" s="1" t="str">
         <v>0|0|0|0|0|90|1|1|1</v>
       </c>
-      <c r="I392" s="4"/>
-      <c r="J392" s="4"/>
-      <c r="K392" s="4"/>
-      <c r="L392" s="4"/>
-      <c r="M392" s="4"/>
-      <c r="N392" s="4"/>
-      <c r="O392" s="4"/>
-      <c r="P392" s="4"/>
-      <c r="Q392" s="4"/>
-      <c r="R392" s="4"/>
+      <c r="I392" s="1"/>
+      <c r="J392" s="1"/>
+      <c r="K392" s="1"/>
+      <c r="L392" s="1"/>
+      <c r="M392" s="1"/>
+      <c r="N392" s="1"/>
+      <c r="O392" s="1"/>
+      <c r="P392" s="1"/>
+      <c r="Q392" s="1"/>
+      <c r="R392" s="1"/>
       <c r="S392" s="3">
         <v>120767</v>
       </c>
       <c r="T392" s="3">
         <v>112946</v>
       </c>
-      <c r="U392" s="4"/>
-      <c r="V392" s="4"/>
-      <c r="W392" s="4"/>
-      <c r="X392" s="4"/>
-      <c r="Y392" s="4"/>
-      <c r="Z392" s="4"/>
-      <c r="AA392" s="4"/>
-      <c r="AB392" s="4"/>
-      <c r="AC392" s="4"/>
+      <c r="U392" s="1"/>
+      <c r="V392" s="1"/>
+      <c r="W392" s="1"/>
+      <c r="X392" s="1"/>
+      <c r="Y392" s="1"/>
+      <c r="Z392" s="1"/>
+      <c r="AA392" s="1"/>
+      <c r="AB392" s="1"/>
+      <c r="AC392" s="1"/>
       <c r="AD392" s="3"/>
-      <c r="AE392" s="4"/>
-      <c r="AF392" s="4"/>
-      <c r="AG392" s="4"/>
-      <c r="AH392" s="4"/>
+      <c r="AE392" s="1"/>
+      <c r="AF392" s="1"/>
+      <c r="AG392" s="1"/>
+      <c r="AH392" s="1"/>
       <c r="AI392" s="3">
         <v>151060</v>
       </c>
@@ -27068,16 +27052,16 @@
       <c r="AL392" s="3">
         <v>3</v>
       </c>
-      <c r="AM392" s="4"/>
-      <c r="AN392" s="4"/>
-      <c r="AO392" s="4"/>
-      <c r="AP392" s="4"/>
-      <c r="AQ392" s="4"/>
-      <c r="AR392" s="4"/>
-      <c r="AS392" s="4"/>
-      <c r="AT392" s="4"/>
-    </row>
-    <row customHeight="true" ht="19" r="393">
+      <c r="AM392" s="1"/>
+      <c r="AN392" s="1"/>
+      <c r="AO392" s="1"/>
+      <c r="AP392" s="1"/>
+      <c r="AQ392" s="1"/>
+      <c r="AR392" s="1"/>
+      <c r="AS392" s="1"/>
+      <c r="AT392" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="393">
       <c r="A393" s="1">
         <v>60005</v>
       </c>
@@ -27085,49 +27069,49 @@
         <v>冲浪板_1</v>
       </c>
       <c r="C393" s="3"/>
-      <c r="D393" s="4">
+      <c r="D393" s="1">
         <v>6</v>
       </c>
-      <c r="E393" s="4"/>
+      <c r="E393" s="1"/>
       <c r="F393" s="3" t="str">
         <v>44C88B394905C23FAEB144A09D1C288F</v>
       </c>
-      <c r="G393" s="4">
+      <c r="G393" s="1">
         <v>23</v>
       </c>
-      <c r="H393" s="4" t="str">
+      <c r="H393" s="1" t="str">
         <v>0|0|0|0|0|90|1|1|1</v>
       </c>
-      <c r="I393" s="4"/>
-      <c r="J393" s="4"/>
-      <c r="K393" s="4"/>
-      <c r="L393" s="4"/>
-      <c r="M393" s="4"/>
-      <c r="N393" s="4"/>
-      <c r="O393" s="4"/>
-      <c r="P393" s="4"/>
-      <c r="Q393" s="4"/>
-      <c r="R393" s="4"/>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+      <c r="K393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="M393" s="1"/>
+      <c r="N393" s="1"/>
+      <c r="O393" s="1"/>
+      <c r="P393" s="1"/>
+      <c r="Q393" s="1"/>
+      <c r="R393" s="1"/>
       <c r="S393" s="3">
         <v>120767</v>
       </c>
       <c r="T393" s="3">
         <v>112935</v>
       </c>
-      <c r="U393" s="4"/>
-      <c r="V393" s="4"/>
-      <c r="W393" s="4"/>
-      <c r="X393" s="4"/>
-      <c r="Y393" s="4"/>
-      <c r="Z393" s="4"/>
-      <c r="AA393" s="4"/>
-      <c r="AB393" s="4"/>
-      <c r="AC393" s="4"/>
+      <c r="U393" s="1"/>
+      <c r="V393" s="1"/>
+      <c r="W393" s="1"/>
+      <c r="X393" s="1"/>
+      <c r="Y393" s="1"/>
+      <c r="Z393" s="1"/>
+      <c r="AA393" s="1"/>
+      <c r="AB393" s="1"/>
+      <c r="AC393" s="1"/>
       <c r="AD393" s="3"/>
-      <c r="AE393" s="4"/>
-      <c r="AF393" s="4"/>
-      <c r="AG393" s="4"/>
-      <c r="AH393" s="4"/>
+      <c r="AE393" s="1"/>
+      <c r="AF393" s="1"/>
+      <c r="AG393" s="1"/>
+      <c r="AH393" s="1"/>
       <c r="AI393" s="3">
         <v>151060</v>
       </c>
@@ -27140,16 +27124,16 @@
       <c r="AL393" s="3">
         <v>3</v>
       </c>
-      <c r="AM393" s="4"/>
-      <c r="AN393" s="4"/>
-      <c r="AO393" s="4"/>
-      <c r="AP393" s="4"/>
-      <c r="AQ393" s="4"/>
-      <c r="AR393" s="4"/>
-      <c r="AS393" s="4"/>
-      <c r="AT393" s="4"/>
-    </row>
-    <row r="394">
+      <c r="AM393" s="1"/>
+      <c r="AN393" s="1"/>
+      <c r="AO393" s="1"/>
+      <c r="AP393" s="1"/>
+      <c r="AQ393" s="1"/>
+      <c r="AR393" s="1"/>
+      <c r="AS393" s="1"/>
+      <c r="AT393" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="394">
       <c r="A394" s="1">
         <v>60006</v>
       </c>
@@ -27221,7 +27205,7 @@
       <c r="AS394" s="1"/>
       <c r="AT394" s="1"/>
     </row>
-    <row r="395">
+    <row customHeight="true" ht="21" r="395">
       <c r="A395" s="1">
         <v>60007</v>
       </c>
@@ -27293,7 +27277,7 @@
       <c r="AS395" s="1"/>
       <c r="AT395" s="1"/>
     </row>
-    <row r="396">
+    <row customHeight="true" ht="21" r="396">
       <c r="A396" s="1">
         <v>60008</v>
       </c>
@@ -27373,7 +27357,7 @@
       <c r="AS396" s="1"/>
       <c r="AT396" s="1"/>
     </row>
-    <row r="397">
+    <row customHeight="true" ht="21" r="397">
       <c r="A397" s="1">
         <v>60009</v>
       </c>
@@ -27453,7 +27437,7 @@
       <c r="AS397" s="1"/>
       <c r="AT397" s="1"/>
     </row>
-    <row r="398">
+    <row customHeight="true" ht="21" r="398">
       <c r="A398" s="1">
         <v>60010</v>
       </c>
@@ -27533,7 +27517,7 @@
       <c r="AS398" s="1"/>
       <c r="AT398" s="1"/>
     </row>
-    <row r="399">
+    <row customHeight="true" ht="21" r="399">
       <c r="A399" s="1">
         <v>60011</v>
       </c>
@@ -27613,7 +27597,7 @@
       <c r="AS399" s="1"/>
       <c r="AT399" s="1"/>
     </row>
-    <row r="400">
+    <row customHeight="true" ht="21" r="400">
       <c r="A400" s="1">
         <v>60012</v>
       </c>
@@ -27694,13 +27678,26 @@
       <c r="AT400" s="1"/>
     </row>
     <row r="401">
-      <c r="A401" s="1"/>
-      <c r="B401" s="1"/>
+      <c r="A401" s="1">
+        <v>60013</v>
+      </c>
+      <c r="B401" s="1" t="str">
+        <v>御剑</v>
+      </c>
       <c r="C401" s="1"/>
-      <c r="D401" s="1"/>
+      <c r="D401" s="1">
+        <v>6</v>
+      </c>
       <c r="E401" s="1"/>
-      <c r="F401" s="1"/>
-      <c r="H401" s="2"/>
+      <c r="F401" s="1" t="str">
+        <v>C1CBB0A8489B5CC17AB0A49EBC78D26D</v>
+      </c>
+      <c r="G401" s="1">
+        <v>23</v>
+      </c>
+      <c r="H401" s="1" t="str">
+        <v>-50|0|0|0|0|-90|1|1|1</v>
+      </c>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
@@ -27711,8 +27708,12 @@
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
-      <c r="S401" s="1"/>
-      <c r="T401" s="1"/>
+      <c r="S401" s="1">
+        <v>169463</v>
+      </c>
+      <c r="T401" s="1">
+        <v>300435</v>
+      </c>
       <c r="U401" s="1"/>
       <c r="V401" s="1"/>
       <c r="W401" s="1"/>
@@ -27731,24 +27732,44 @@
       <c r="AJ401" s="1"/>
       <c r="AK401" s="1"/>
       <c r="AL401" s="1"/>
-      <c r="AM401" s="1"/>
-      <c r="AN401" s="1"/>
-      <c r="AO401" s="1"/>
-      <c r="AP401" s="1"/>
+      <c r="AM401" s="1">
+        <v>284751</v>
+      </c>
+      <c r="AN401" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO401" s="1">
+        <v>284751</v>
+      </c>
+      <c r="AP401" s="1">
+        <v>3</v>
+      </c>
       <c r="AQ401" s="1"/>
       <c r="AR401" s="1"/>
       <c r="AS401" s="1"/>
       <c r="AT401" s="1"/>
     </row>
     <row r="402">
-      <c r="A402" s="1"/>
-      <c r="B402" s="1"/>
+      <c r="A402" s="1">
+        <v>60014</v>
+      </c>
+      <c r="B402" s="1" t="str">
+        <v>鱼</v>
+      </c>
       <c r="C402" s="1"/>
-      <c r="D402" s="1"/>
+      <c r="D402" s="1">
+        <v>6</v>
+      </c>
       <c r="E402" s="1"/>
-      <c r="F402" s="1"/>
-      <c r="G402" s="1"/>
-      <c r="H402" s="2"/>
+      <c r="F402" s="1" t="str">
+        <v>B76602D34118414D88C30ABABC20DCE1</v>
+      </c>
+      <c r="G402" s="1">
+        <v>23</v>
+      </c>
+      <c r="H402" s="2" t="str">
+        <v>0|0|0|0|0|180|1|1|1</v>
+      </c>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
@@ -27759,8 +27780,12 @@
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
-      <c r="S402" s="1"/>
-      <c r="T402" s="1"/>
+      <c r="S402" s="1">
+        <v>123030</v>
+      </c>
+      <c r="T402" s="1">
+        <v>23559</v>
+      </c>
       <c r="U402" s="1"/>
       <c r="V402" s="1"/>
       <c r="W402" s="1"/>
@@ -27779,10 +27804,18 @@
       <c r="AJ402" s="1"/>
       <c r="AK402" s="1"/>
       <c r="AL402" s="1"/>
-      <c r="AM402" s="1"/>
-      <c r="AN402" s="1"/>
-      <c r="AO402" s="1"/>
-      <c r="AP402" s="1"/>
+      <c r="AM402" s="3">
+        <v>169639</v>
+      </c>
+      <c r="AN402" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO402" s="3">
+        <v>169639</v>
+      </c>
+      <c r="AP402" s="1">
+        <v>3</v>
+      </c>
       <c r="AQ402" s="1"/>
       <c r="AR402" s="1"/>
       <c r="AS402" s="1"/>
@@ -30430,6 +30463,5 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/rp/Excel/ActionProp_动作道具.xlsx
+++ b/rp/Excel/ActionProp_动作道具.xlsx
@@ -27768,7 +27768,7 @@
         <v>23</v>
       </c>
       <c r="H402" s="2" t="str">
-        <v>0|0|0|0|0|180|1|1|1</v>
+        <v>15|0|50|0|0|180|1|1|1</v>
       </c>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>

--- a/rp/Excel/ActionProp_动作道具.xlsx
+++ b/rp/Excel/ActionProp_动作道具.xlsx
@@ -34,17 +34,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,10 +104,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -625,7 +618,6 @@
       <c r="AS1" s="1" t="str">
         <v>float[]</v>
       </c>
-      <c r="AT1" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="2">
       <c r="A2" s="1" t="str">
@@ -763,7 +755,6 @@
       <c r="AS2" s="1" t="str">
         <v>BuffParams</v>
       </c>
-      <c r="AT2" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="3">
       <c r="A3" s="1" t="str">
@@ -869,7 +860,6 @@
         <v>1:变大小</v>
       </c>
       <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
     </row>
     <row customHeight="true" ht="36" r="4">
       <c r="A4" s="1"/>
@@ -917,7 +907,6 @@
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="5">
       <c r="A5" s="1">
@@ -983,7 +972,6 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="6">
       <c r="A6" s="1">
@@ -1057,13 +1045,14 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="7">
       <c r="A7" s="1">
         <v>10093</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="str">
+        <v>电吉他</v>
+      </c>
       <c r="C7" s="1">
         <v>10193</v>
       </c>
@@ -1121,7 +1110,6 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="8">
       <c r="A8" s="1">
@@ -1195,13 +1183,14 @@
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="9">
       <c r="A9" s="1">
         <v>10094</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="str">
+        <v>吉他</v>
+      </c>
       <c r="C9" s="1">
         <v>10194</v>
       </c>
@@ -1259,7 +1248,6 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="10">
       <c r="A10" s="1">
@@ -1333,13 +1321,14 @@
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="11">
       <c r="A11" s="1">
         <v>10095</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="str">
+        <v>吉他</v>
+      </c>
       <c r="C11" s="1">
         <v>10195</v>
       </c>
@@ -1403,7 +1392,6 @@
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="12">
       <c r="A12" s="1">
@@ -1477,13 +1465,14 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="13">
       <c r="A13" s="1">
         <v>10320</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="str">
+        <v>钢琴</v>
+      </c>
       <c r="C13" s="1">
         <v>10420</v>
       </c>
@@ -1549,7 +1538,6 @@
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="14">
       <c r="A14" s="1">
@@ -1623,13 +1611,14 @@
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="15">
       <c r="A15" s="1">
         <v>10340</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="str">
+        <v>架子鼓</v>
+      </c>
       <c r="C15" s="1">
         <v>10440</v>
       </c>
@@ -1693,7 +1682,6 @@
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="16">
       <c r="A16" s="1">
@@ -1767,13 +1755,14 @@
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="17">
       <c r="A17" s="1">
         <v>10338</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="str">
+        <v>灯球</v>
+      </c>
       <c r="C17" s="1">
         <v>10438</v>
       </c>
@@ -1833,7 +1822,6 @@
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="18">
       <c r="A18" s="1">
@@ -1901,13 +1889,14 @@
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="19">
       <c r="A19" s="1">
         <v>10339</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="str">
+        <v>灯球</v>
+      </c>
       <c r="C19" s="1">
         <v>10439</v>
       </c>
@@ -1967,7 +1956,6 @@
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="20">
       <c r="A20" s="1">
@@ -2035,13 +2023,14 @@
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="21">
       <c r="A21" s="1">
         <v>10341</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="str">
+        <v>沙发</v>
+      </c>
       <c r="C21" s="1">
         <v>10441</v>
       </c>
@@ -2105,7 +2094,6 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="22">
       <c r="A22" s="1">
@@ -2169,13 +2157,14 @@
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="23">
       <c r="A23" s="1">
         <v>10329</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="str">
+        <v>卡通小人</v>
+      </c>
       <c r="C23" s="1">
         <v>10429</v>
       </c>
@@ -2239,7 +2228,6 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="24">
       <c r="A24" s="1">
@@ -2303,13 +2291,14 @@
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="25">
       <c r="A25" s="1">
         <v>10330</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="str">
+        <v>L</v>
+      </c>
       <c r="C25" s="1">
         <v>10430</v>
       </c>
@@ -2375,7 +2364,6 @@
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="26">
       <c r="A26" s="1">
@@ -2441,13 +2429,14 @@
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
-      <c r="AT26" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="27">
       <c r="A27" s="1">
         <v>10331</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="str">
+        <v>O</v>
+      </c>
       <c r="C27" s="1">
         <v>10431</v>
       </c>
@@ -2513,7 +2502,6 @@
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
-      <c r="AT27" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="28">
       <c r="A28" s="1">
@@ -2579,13 +2567,14 @@
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
-      <c r="AT28" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="29">
       <c r="A29" s="1">
         <v>10332</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="str">
+        <v>V</v>
+      </c>
       <c r="C29" s="1">
         <v>10432</v>
       </c>
@@ -2651,7 +2640,6 @@
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
-      <c r="AT29" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="30">
       <c r="A30" s="1">
@@ -2717,13 +2705,14 @@
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
-      <c r="AT30" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="31">
       <c r="A31" s="1">
         <v>10333</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="str">
+        <v>E</v>
+      </c>
       <c r="C31" s="1">
         <v>10433</v>
       </c>
@@ -2789,7 +2778,6 @@
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="32">
       <c r="A32" s="1">
@@ -2855,13 +2843,14 @@
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="33">
       <c r="A33" s="1">
         <v>10334</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="str">
+        <v>F</v>
+      </c>
       <c r="C33" s="1">
         <v>10434</v>
       </c>
@@ -2927,7 +2916,6 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="34">
       <c r="A34" s="1">
@@ -2993,13 +2981,14 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="35">
       <c r="A35" s="1">
         <v>10335</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="str">
+        <v>U</v>
+      </c>
       <c r="C35" s="1">
         <v>10435</v>
       </c>
@@ -3065,7 +3054,6 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="36">
       <c r="A36" s="1">
@@ -3131,13 +3119,14 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="37">
       <c r="A37" s="1">
         <v>10336</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="str">
+        <v>C</v>
+      </c>
       <c r="C37" s="1">
         <v>10436</v>
       </c>
@@ -3203,7 +3192,6 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="38">
       <c r="A38" s="1">
@@ -3269,13 +3257,14 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="39">
       <c r="A39" s="1">
         <v>10337</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="str">
+        <v>K</v>
+      </c>
       <c r="C39" s="1">
         <v>10437</v>
       </c>
@@ -3341,7 +3330,6 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="40">
       <c r="A40" s="1">
@@ -3407,13 +3395,14 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="41">
       <c r="A41" s="1">
         <v>10342</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1" t="str">
+        <v>箱子</v>
+      </c>
       <c r="C41" s="1">
         <v>10442</v>
       </c>
@@ -3477,7 +3466,6 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="42">
       <c r="A42" s="1">
@@ -3541,13 +3529,14 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="43">
       <c r="A43" s="1">
         <v>10343</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="str">
+        <v>红手牌(笑脸)</v>
+      </c>
       <c r="C43" s="1">
         <v>10443</v>
       </c>
@@ -3605,7 +3594,6 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="44">
       <c r="A44" s="1">
@@ -3669,13 +3657,14 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
-      <c r="AT44" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="45">
       <c r="A45" s="1">
         <v>10344</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1" t="str">
+        <v>蓝手牌(委屈脸)</v>
+      </c>
       <c r="C45" s="1">
         <v>10444</v>
       </c>
@@ -3733,7 +3722,6 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
-      <c r="AT45" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="46">
       <c r="A46" s="1">
@@ -3797,13 +3785,14 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
-      <c r="AT46" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="47">
       <c r="A47" s="1">
         <v>10345</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="str">
+        <v>A</v>
+      </c>
       <c r="C47" s="1">
         <v>10445</v>
       </c>
@@ -3869,7 +3858,6 @@
       <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
-      <c r="AT47" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="48">
       <c r="A48" s="1">
@@ -3935,13 +3923,14 @@
       <c r="AQ48" s="1"/>
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
-      <c r="AT48" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="49">
       <c r="A49" s="1">
         <v>10346</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="str">
+        <v>B</v>
+      </c>
       <c r="C49" s="1">
         <v>10446</v>
       </c>
@@ -4007,7 +3996,6 @@
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
-      <c r="AT49" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="50">
       <c r="A50" s="1">
@@ -4073,13 +4061,14 @@
       <c r="AQ50" s="1"/>
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="51">
       <c r="A51" s="1">
         <v>10347</v>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1" t="str">
+        <v>D</v>
+      </c>
       <c r="C51" s="1">
         <v>10447</v>
       </c>
@@ -4145,7 +4134,6 @@
       <c r="AQ51" s="1"/>
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
-      <c r="AT51" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="52">
       <c r="A52" s="1">
@@ -4211,13 +4199,14 @@
       <c r="AQ52" s="1"/>
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
-      <c r="AT52" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="53">
       <c r="A53" s="1">
         <v>10348</v>
       </c>
-      <c r="B53" s="1"/>
+      <c r="B53" s="1" t="str">
+        <v>G</v>
+      </c>
       <c r="C53" s="1">
         <v>10448</v>
       </c>
@@ -4283,7 +4272,6 @@
       <c r="AQ53" s="1"/>
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
-      <c r="AT53" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="54">
       <c r="A54" s="1">
@@ -4349,13 +4337,14 @@
       <c r="AQ54" s="1"/>
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
-      <c r="AT54" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="55">
       <c r="A55" s="1">
         <v>10349</v>
       </c>
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="str">
+        <v>凳子</v>
+      </c>
       <c r="C55" s="1">
         <v>10449</v>
       </c>
@@ -4419,7 +4408,6 @@
       <c r="AQ55" s="1"/>
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
-      <c r="AT55" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="56">
       <c r="A56" s="1">
@@ -4483,13 +4471,14 @@
       <c r="AQ56" s="1"/>
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="57">
       <c r="A57" s="1">
         <v>10312</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="str">
+        <v>蓝色法杖</v>
+      </c>
       <c r="C57" s="1">
         <v>10412</v>
       </c>
@@ -4559,7 +4548,6 @@
       <c r="AQ57" s="1"/>
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
-      <c r="AT57" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="58">
       <c r="A58" s="1">
@@ -4635,13 +4623,14 @@
       <c r="AS58" s="2">
         <v>0.4</v>
       </c>
-      <c r="AT58" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="59">
       <c r="A59" s="1">
         <v>10313</v>
       </c>
-      <c r="B59" s="1"/>
+      <c r="B59" s="1" t="str">
+        <v>红色法杖</v>
+      </c>
       <c r="C59" s="1">
         <v>10413</v>
       </c>
@@ -4711,7 +4700,6 @@
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1"/>
       <c r="AS59" s="2"/>
-      <c r="AT59" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="60">
       <c r="A60" s="1">
@@ -4787,13 +4775,14 @@
       <c r="AS60" s="2">
         <v>3</v>
       </c>
-      <c r="AT60" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="61">
       <c r="A61" s="1">
         <v>10314</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="str">
+        <v>扫帚法杖</v>
+      </c>
       <c r="C61" s="1">
         <v>10414</v>
       </c>
@@ -4863,7 +4852,6 @@
       <c r="AQ61" s="1"/>
       <c r="AR61" s="1"/>
       <c r="AS61" s="2"/>
-      <c r="AT61" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="62">
       <c r="A62" s="1">
@@ -4939,13 +4927,14 @@
       <c r="AS62" s="2">
         <v>0.2</v>
       </c>
-      <c r="AT62" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="63">
       <c r="A63" s="1">
         <v>10315</v>
       </c>
-      <c r="B63" s="1"/>
+      <c r="B63" s="1" t="str">
+        <v>魔法仗</v>
+      </c>
       <c r="C63" s="1">
         <v>10415</v>
       </c>
@@ -5015,7 +5004,6 @@
       <c r="AQ63" s="1"/>
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
-      <c r="AT63" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="64">
       <c r="A64" s="1">
@@ -5085,13 +5073,14 @@
       <c r="AQ64" s="1"/>
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
-      <c r="AT64" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="65">
       <c r="A65" s="1">
         <v>10316</v>
       </c>
-      <c r="B65" s="1"/>
+      <c r="B65" s="1" t="str">
+        <v>地毯</v>
+      </c>
       <c r="C65" s="1">
         <v>10416</v>
       </c>
@@ -5157,7 +5146,6 @@
       <c r="AQ65" s="1"/>
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
-      <c r="AT65" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="66">
       <c r="A66" s="1">
@@ -5227,13 +5215,14 @@
       <c r="AQ66" s="1"/>
       <c r="AR66" s="1"/>
       <c r="AS66" s="1"/>
-      <c r="AT66" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="67">
       <c r="A67" s="1">
         <v>10317</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" s="1" t="str">
+        <v>足球筐</v>
+      </c>
       <c r="C67" s="1">
         <v>10417</v>
       </c>
@@ -5297,7 +5286,6 @@
       <c r="AQ67" s="1"/>
       <c r="AR67" s="1"/>
       <c r="AS67" s="1"/>
-      <c r="AT67" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="68">
       <c r="A68" s="1">
@@ -5361,13 +5349,14 @@
       <c r="AQ68" s="1"/>
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
-      <c r="AT68" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="69">
       <c r="A69" s="1">
         <v>10318</v>
       </c>
-      <c r="B69" s="1"/>
+      <c r="B69" s="1" t="str">
+        <v>纸板箱</v>
+      </c>
       <c r="C69" s="1">
         <v>10418</v>
       </c>
@@ -5431,7 +5420,6 @@
       <c r="AQ69" s="1"/>
       <c r="AR69" s="1"/>
       <c r="AS69" s="1"/>
-      <c r="AT69" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="70">
       <c r="A70" s="1">
@@ -5489,13 +5477,14 @@
       <c r="AQ70" s="1"/>
       <c r="AR70" s="1"/>
       <c r="AS70" s="1"/>
-      <c r="AT70" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="71">
       <c r="A71" s="1">
         <v>10319</v>
       </c>
-      <c r="B71" s="1"/>
+      <c r="B71" s="1" t="str">
+        <v>热狗摊</v>
+      </c>
       <c r="C71" s="1">
         <v>10419</v>
       </c>
@@ -5559,7 +5548,6 @@
       <c r="AQ71" s="1"/>
       <c r="AR71" s="1"/>
       <c r="AS71" s="1"/>
-      <c r="AT71" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="72">
       <c r="A72" s="1">
@@ -5623,13 +5611,14 @@
       <c r="AQ72" s="1"/>
       <c r="AR72" s="1"/>
       <c r="AS72" s="1"/>
-      <c r="AT72" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="73">
       <c r="A73" s="1">
         <v>10321</v>
       </c>
-      <c r="B73" s="1"/>
+      <c r="B73" s="1" t="str">
+        <v>妲己耳朵</v>
+      </c>
       <c r="C73" s="1">
         <v>10421</v>
       </c>
@@ -5687,7 +5676,6 @@
       <c r="AQ73" s="1"/>
       <c r="AR73" s="1"/>
       <c r="AS73" s="1"/>
-      <c r="AT73" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="74">
       <c r="A74" s="1">
@@ -5751,13 +5739,14 @@
       <c r="AQ74" s="1"/>
       <c r="AR74" s="1"/>
       <c r="AS74" s="1"/>
-      <c r="AT74" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="75">
       <c r="A75" s="1">
         <v>10322</v>
       </c>
-      <c r="B75" s="1"/>
+      <c r="B75" s="1" t="str">
+        <v>长耳兔灰耳朵</v>
+      </c>
       <c r="C75" s="1">
         <v>10422</v>
       </c>
@@ -5815,7 +5804,6 @@
       <c r="AQ75" s="1"/>
       <c r="AR75" s="1"/>
       <c r="AS75" s="1"/>
-      <c r="AT75" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="76">
       <c r="A76" s="1">
@@ -5879,13 +5867,14 @@
       <c r="AQ76" s="1"/>
       <c r="AR76" s="1"/>
       <c r="AS76" s="1"/>
-      <c r="AT76" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="77">
       <c r="A77" s="1">
         <v>10323</v>
       </c>
-      <c r="B77" s="1"/>
+      <c r="B77" s="1" t="str">
+        <v>黑狼耳朵</v>
+      </c>
       <c r="C77" s="1">
         <v>10423</v>
       </c>
@@ -5943,7 +5932,6 @@
       <c r="AQ77" s="1"/>
       <c r="AR77" s="1"/>
       <c r="AS77" s="1"/>
-      <c r="AT77" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="78">
       <c r="A78" s="1">
@@ -6007,13 +5995,14 @@
       <c r="AQ78" s="1"/>
       <c r="AR78" s="1"/>
       <c r="AS78" s="1"/>
-      <c r="AT78" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="79">
       <c r="A79" s="1">
         <v>10324</v>
       </c>
-      <c r="B79" s="1"/>
+      <c r="B79" s="1" t="str">
+        <v>气球</v>
+      </c>
       <c r="C79" s="1">
         <v>10424</v>
       </c>
@@ -6077,7 +6066,6 @@
       <c r="AQ79" s="1"/>
       <c r="AR79" s="1"/>
       <c r="AS79" s="1"/>
-      <c r="AT79" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="80">
       <c r="A80" s="1">
@@ -6141,13 +6129,14 @@
       <c r="AQ80" s="1"/>
       <c r="AR80" s="1"/>
       <c r="AS80" s="1"/>
-      <c r="AT80" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="81">
       <c r="A81" s="1">
         <v>10325</v>
       </c>
-      <c r="B81" s="1"/>
+      <c r="B81" s="1" t="str">
+        <v>卡通小人</v>
+      </c>
       <c r="C81" s="1">
         <v>10425</v>
       </c>
@@ -6211,7 +6200,6 @@
       <c r="AQ81" s="1"/>
       <c r="AR81" s="1"/>
       <c r="AS81" s="1"/>
-      <c r="AT81" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="82">
       <c r="A82" s="1">
@@ -6275,13 +6263,14 @@
       <c r="AQ82" s="1"/>
       <c r="AR82" s="1"/>
       <c r="AS82" s="1"/>
-      <c r="AT82" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="83">
       <c r="A83" s="1">
         <v>10326</v>
       </c>
-      <c r="B83" s="1"/>
+      <c r="B83" s="1" t="str">
+        <v>卡通小人</v>
+      </c>
       <c r="C83" s="1">
         <v>10426</v>
       </c>
@@ -6345,7 +6334,6 @@
       <c r="AQ83" s="1"/>
       <c r="AR83" s="1"/>
       <c r="AS83" s="1"/>
-      <c r="AT83" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="84">
       <c r="A84" s="1">
@@ -6409,13 +6397,14 @@
       <c r="AQ84" s="1"/>
       <c r="AR84" s="1"/>
       <c r="AS84" s="1"/>
-      <c r="AT84" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="85">
       <c r="A85" s="1">
         <v>10306</v>
       </c>
-      <c r="B85" s="1"/>
+      <c r="B85" s="1" t="str">
+        <v>凳子</v>
+      </c>
       <c r="C85" s="1">
         <v>10406</v>
       </c>
@@ -6479,7 +6468,6 @@
       <c r="AQ85" s="1"/>
       <c r="AR85" s="1"/>
       <c r="AS85" s="1"/>
-      <c r="AT85" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="86">
       <c r="A86" s="1">
@@ -6543,13 +6531,14 @@
       <c r="AQ86" s="1"/>
       <c r="AR86" s="1"/>
       <c r="AS86" s="1"/>
-      <c r="AT86" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="87">
       <c r="A87" s="1">
         <v>10092</v>
       </c>
-      <c r="B87" s="1"/>
+      <c r="B87" s="1" t="str">
+        <v>女帽子</v>
+      </c>
       <c r="C87" s="1">
         <v>10192</v>
       </c>
@@ -6607,7 +6596,6 @@
       <c r="AQ87" s="1"/>
       <c r="AR87" s="1"/>
       <c r="AS87" s="1"/>
-      <c r="AT87" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="88">
       <c r="A88" s="1">
@@ -6671,13 +6659,14 @@
       <c r="AQ88" s="1"/>
       <c r="AR88" s="1"/>
       <c r="AS88" s="1"/>
-      <c r="AT88" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="89">
       <c r="A89" s="1">
         <v>10074</v>
       </c>
-      <c r="B89" s="1"/>
+      <c r="B89" s="1" t="str">
+        <v>法杖</v>
+      </c>
       <c r="C89" s="1">
         <v>10174</v>
       </c>
@@ -6747,7 +6736,6 @@
       <c r="AQ89" s="1"/>
       <c r="AR89" s="1"/>
       <c r="AS89" s="1"/>
-      <c r="AT89" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="90">
       <c r="A90" s="1">
@@ -6823,13 +6811,14 @@
       <c r="AS90" s="1">
         <v>2</v>
       </c>
-      <c r="AT90" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="91">
       <c r="A91" s="1">
         <v>10051</v>
       </c>
-      <c r="B91" s="1"/>
+      <c r="B91" s="1" t="str">
+        <v>射灯</v>
+      </c>
       <c r="C91" s="1">
         <v>10151</v>
       </c>
@@ -6893,7 +6882,6 @@
       <c r="AQ91" s="1"/>
       <c r="AR91" s="1"/>
       <c r="AS91" s="1"/>
-      <c r="AT91" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="92">
       <c r="A92" s="1">
@@ -6963,13 +6951,14 @@
       <c r="AQ92" s="1"/>
       <c r="AR92" s="1"/>
       <c r="AS92" s="1"/>
-      <c r="AT92" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="93">
       <c r="A93" s="1">
         <v>10052</v>
       </c>
-      <c r="B93" s="1"/>
+      <c r="B93" s="1" t="str">
+        <v>喷火枪</v>
+      </c>
       <c r="C93" s="1">
         <v>10152</v>
       </c>
@@ -7033,7 +7022,6 @@
       <c r="AQ93" s="1"/>
       <c r="AR93" s="1"/>
       <c r="AS93" s="1"/>
-      <c r="AT93" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="94">
       <c r="A94" s="1">
@@ -7107,13 +7095,14 @@
       <c r="AQ94" s="1"/>
       <c r="AR94" s="1"/>
       <c r="AS94" s="1"/>
-      <c r="AT94" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="95">
       <c r="A95" s="1">
         <v>10047</v>
       </c>
-      <c r="B95" s="1"/>
+      <c r="B95" s="1" t="str">
+        <v>尖叫鸡</v>
+      </c>
       <c r="C95" s="1">
         <v>10147</v>
       </c>
@@ -7171,7 +7160,6 @@
       <c r="AQ95" s="1"/>
       <c r="AR95" s="1"/>
       <c r="AS95" s="1"/>
-      <c r="AT95" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="96">
       <c r="A96" s="1">
@@ -7239,13 +7227,14 @@
       <c r="AQ96" s="1"/>
       <c r="AR96" s="1"/>
       <c r="AS96" s="1"/>
-      <c r="AT96" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="97">
       <c r="A97" s="1">
         <v>10005</v>
       </c>
-      <c r="B97" s="1"/>
+      <c r="B97" s="1" t="str">
+        <v>荧光棒</v>
+      </c>
       <c r="C97" s="1">
         <v>10105</v>
       </c>
@@ -7303,7 +7292,6 @@
       <c r="AQ97" s="1"/>
       <c r="AR97" s="1"/>
       <c r="AS97" s="1"/>
-      <c r="AT97" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="98">
       <c r="A98" s="1">
@@ -7369,13 +7357,14 @@
       <c r="AQ98" s="1"/>
       <c r="AR98" s="1"/>
       <c r="AS98" s="1"/>
-      <c r="AT98" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="99">
       <c r="A99" s="1">
         <v>10007</v>
       </c>
-      <c r="B99" s="1"/>
+      <c r="B99" s="1" t="str">
+        <v>左轮手枪</v>
+      </c>
       <c r="C99" s="1">
         <v>10107</v>
       </c>
@@ -7439,7 +7428,6 @@
       <c r="AQ99" s="1"/>
       <c r="AR99" s="1"/>
       <c r="AS99" s="1"/>
-      <c r="AT99" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="100">
       <c r="A100" s="1">
@@ -7513,13 +7501,14 @@
       <c r="AQ100" s="1"/>
       <c r="AR100" s="1"/>
       <c r="AS100" s="1"/>
-      <c r="AT100" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="101">
       <c r="A101" s="1">
         <v>10008</v>
       </c>
-      <c r="B101" s="1"/>
+      <c r="B101" s="1" t="str">
+        <v>散弹枪</v>
+      </c>
       <c r="C101" s="1">
         <v>10108</v>
       </c>
@@ -7583,7 +7572,6 @@
       <c r="AQ101" s="1"/>
       <c r="AR101" s="1"/>
       <c r="AS101" s="1"/>
-      <c r="AT101" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="102">
       <c r="A102" s="1">
@@ -7657,13 +7645,14 @@
       <c r="AQ102" s="1"/>
       <c r="AR102" s="1"/>
       <c r="AS102" s="1"/>
-      <c r="AT102" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="103">
       <c r="A103" s="1">
         <v>10009</v>
       </c>
-      <c r="B103" s="1"/>
+      <c r="B103" s="1" t="str">
+        <v>步枪</v>
+      </c>
       <c r="C103" s="1">
         <v>10109</v>
       </c>
@@ -7727,7 +7716,6 @@
       <c r="AQ103" s="1"/>
       <c r="AR103" s="1"/>
       <c r="AS103" s="1"/>
-      <c r="AT103" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="104">
       <c r="A104" s="1">
@@ -7801,13 +7789,14 @@
       <c r="AQ104" s="1"/>
       <c r="AR104" s="1"/>
       <c r="AS104" s="1"/>
-      <c r="AT104" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="105">
       <c r="A105" s="1">
         <v>10012</v>
       </c>
-      <c r="B105" s="1"/>
+      <c r="B105" s="1" t="str">
+        <v>美元</v>
+      </c>
       <c r="C105" s="1">
         <v>10112</v>
       </c>
@@ -7871,7 +7860,6 @@
       <c r="AQ105" s="1"/>
       <c r="AR105" s="1"/>
       <c r="AS105" s="1"/>
-      <c r="AT105" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="106">
       <c r="A106" s="1">
@@ -7941,13 +7929,14 @@
       <c r="AQ106" s="1"/>
       <c r="AR106" s="1"/>
       <c r="AS106" s="1"/>
-      <c r="AT106" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="107">
       <c r="A107" s="1">
         <v>10001</v>
       </c>
-      <c r="B107" s="1"/>
+      <c r="B107" s="1" t="str">
+        <v>洋娃娃</v>
+      </c>
       <c r="C107" s="1">
         <v>10101</v>
       </c>
@@ -8011,7 +8000,6 @@
       <c r="AQ107" s="1"/>
       <c r="AR107" s="1"/>
       <c r="AS107" s="1"/>
-      <c r="AT107" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="108">
       <c r="A108" s="1">
@@ -8079,13 +8067,14 @@
       <c r="AQ108" s="1"/>
       <c r="AR108" s="1"/>
       <c r="AS108" s="1"/>
-      <c r="AT108" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="109">
       <c r="A109" s="1">
         <v>10002</v>
       </c>
-      <c r="B109" s="1"/>
+      <c r="B109" s="1" t="str">
+        <v>娃娃</v>
+      </c>
       <c r="C109" s="1">
         <v>10102</v>
       </c>
@@ -8149,7 +8138,6 @@
       <c r="AQ109" s="1"/>
       <c r="AR109" s="1"/>
       <c r="AS109" s="1"/>
-      <c r="AT109" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="110">
       <c r="A110" s="1">
@@ -8217,13 +8205,14 @@
       <c r="AQ110" s="1"/>
       <c r="AR110" s="1"/>
       <c r="AS110" s="1"/>
-      <c r="AT110" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="111">
       <c r="A111" s="1">
         <v>10003</v>
       </c>
-      <c r="B111" s="1"/>
+      <c r="B111" s="1" t="str">
+        <v>书本</v>
+      </c>
       <c r="C111" s="1">
         <v>10103</v>
       </c>
@@ -8285,7 +8274,6 @@
       <c r="AQ111" s="1"/>
       <c r="AR111" s="1"/>
       <c r="AS111" s="1"/>
-      <c r="AT111" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="112">
       <c r="A112" s="1">
@@ -8349,13 +8337,14 @@
       <c r="AQ112" s="1"/>
       <c r="AR112" s="1"/>
       <c r="AS112" s="1"/>
-      <c r="AT112" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="113">
       <c r="A113" s="1">
         <v>10004</v>
       </c>
-      <c r="B113" s="1"/>
+      <c r="B113" s="1" t="str">
+        <v>相机</v>
+      </c>
       <c r="C113" s="1">
         <v>10104</v>
       </c>
@@ -8413,7 +8402,6 @@
       <c r="AQ113" s="1"/>
       <c r="AR113" s="1"/>
       <c r="AS113" s="1"/>
-      <c r="AT113" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="114">
       <c r="A114" s="1">
@@ -8481,13 +8469,14 @@
       <c r="AQ114" s="1"/>
       <c r="AR114" s="1"/>
       <c r="AS114" s="1"/>
-      <c r="AT114" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="115">
       <c r="A115" s="1">
         <v>10011</v>
       </c>
-      <c r="B115" s="1"/>
+      <c r="B115" s="1" t="str">
+        <v>笔记本电脑</v>
+      </c>
       <c r="C115" s="1">
         <v>10111</v>
       </c>
@@ -8551,7 +8540,6 @@
       <c r="AQ115" s="1"/>
       <c r="AR115" s="1"/>
       <c r="AS115" s="1"/>
-      <c r="AT115" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="116">
       <c r="A116" s="1">
@@ -8619,13 +8607,14 @@
       <c r="AQ116" s="1"/>
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
-      <c r="AT116" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="117">
       <c r="A117" s="1">
         <v>10014</v>
       </c>
-      <c r="B117" s="1"/>
+      <c r="B117" s="1" t="str">
+        <v>手机</v>
+      </c>
       <c r="C117" s="1">
         <v>10114</v>
       </c>
@@ -8683,7 +8672,6 @@
       <c r="AQ117" s="1"/>
       <c r="AR117" s="1"/>
       <c r="AS117" s="1"/>
-      <c r="AT117" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="118">
       <c r="A118" s="1">
@@ -8747,13 +8735,14 @@
       <c r="AQ118" s="1"/>
       <c r="AR118" s="1"/>
       <c r="AS118" s="1"/>
-      <c r="AT118" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="119">
       <c r="A119" s="1">
         <v>10016</v>
       </c>
-      <c r="B119" s="1"/>
+      <c r="B119" s="1" t="str">
+        <v>手捧鲜花</v>
+      </c>
       <c r="C119" s="1">
         <v>10116</v>
       </c>
@@ -8811,7 +8800,6 @@
       <c r="AQ119" s="1"/>
       <c r="AR119" s="1"/>
       <c r="AS119" s="1"/>
-      <c r="AT119" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="120">
       <c r="A120" s="1">
@@ -8875,13 +8863,14 @@
       <c r="AQ120" s="1"/>
       <c r="AR120" s="1"/>
       <c r="AS120" s="1"/>
-      <c r="AT120" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="121">
       <c r="A121" s="1">
         <v>10017</v>
       </c>
-      <c r="B121" s="1"/>
+      <c r="B121" s="1" t="str">
+        <v>购物车</v>
+      </c>
       <c r="C121" s="1">
         <v>10117</v>
       </c>
@@ -8945,7 +8934,6 @@
       <c r="AQ121" s="1"/>
       <c r="AR121" s="1"/>
       <c r="AS121" s="1"/>
-      <c r="AT121" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="122">
       <c r="A122" s="1">
@@ -9009,13 +8997,14 @@
       <c r="AQ122" s="1"/>
       <c r="AR122" s="1"/>
       <c r="AS122" s="1"/>
-      <c r="AT122" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="123">
       <c r="A123" s="1">
         <v>10019</v>
       </c>
-      <c r="B123" s="1"/>
+      <c r="B123" s="1" t="str">
+        <v>婴儿车</v>
+      </c>
       <c r="C123" s="1">
         <v>10119</v>
       </c>
@@ -9079,7 +9068,6 @@
       <c r="AQ123" s="1"/>
       <c r="AR123" s="1"/>
       <c r="AS123" s="1"/>
-      <c r="AT123" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="124">
       <c r="A124" s="1">
@@ -9143,13 +9131,14 @@
       <c r="AQ124" s="1"/>
       <c r="AR124" s="1"/>
       <c r="AS124" s="1"/>
-      <c r="AT124" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="125">
       <c r="A125" s="1">
         <v>10020</v>
       </c>
-      <c r="B125" s="1"/>
+      <c r="B125" s="1" t="str">
+        <v>行李箱</v>
+      </c>
       <c r="C125" s="1">
         <v>10120</v>
       </c>
@@ -9213,7 +9202,6 @@
       <c r="AQ125" s="1"/>
       <c r="AR125" s="1"/>
       <c r="AS125" s="1"/>
-      <c r="AT125" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="126">
       <c r="A126" s="1">
@@ -9277,13 +9265,14 @@
       <c r="AQ126" s="1"/>
       <c r="AR126" s="1"/>
       <c r="AS126" s="1"/>
-      <c r="AT126" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="127">
       <c r="A127" s="1">
         <v>10021</v>
       </c>
-      <c r="B127" s="1"/>
+      <c r="B127" s="1" t="str">
+        <v>黑色雨伞</v>
+      </c>
       <c r="C127" s="1">
         <v>10121</v>
       </c>
@@ -9347,7 +9336,6 @@
       <c r="AQ127" s="1"/>
       <c r="AR127" s="1"/>
       <c r="AS127" s="1"/>
-      <c r="AT127" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="128">
       <c r="A128" s="1">
@@ -9411,13 +9399,14 @@
       <c r="AQ128" s="1"/>
       <c r="AR128" s="1"/>
       <c r="AS128" s="1"/>
-      <c r="AT128" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="129">
       <c r="A129" s="1">
         <v>10046</v>
       </c>
-      <c r="B129" s="1"/>
+      <c r="B129" s="1" t="str">
+        <v>气球</v>
+      </c>
       <c r="C129" s="1">
         <v>10146</v>
       </c>
@@ -9481,7 +9470,6 @@
       <c r="AQ129" s="1"/>
       <c r="AR129" s="1"/>
       <c r="AS129" s="1"/>
-      <c r="AT129" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="130">
       <c r="A130" s="1">
@@ -9545,13 +9533,14 @@
       <c r="AQ130" s="1"/>
       <c r="AR130" s="1"/>
       <c r="AS130" s="1"/>
-      <c r="AT130" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="131">
       <c r="A131" s="1">
         <v>10048</v>
       </c>
-      <c r="B131" s="1"/>
+      <c r="B131" s="1" t="str">
+        <v>小白兔玩偶</v>
+      </c>
       <c r="C131" s="1">
         <v>10148</v>
       </c>
@@ -9615,7 +9604,6 @@
       <c r="AQ131" s="1"/>
       <c r="AR131" s="1"/>
       <c r="AS131" s="1"/>
-      <c r="AT131" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="132">
       <c r="A132" s="1">
@@ -9679,13 +9667,14 @@
       <c r="AQ132" s="1"/>
       <c r="AR132" s="1"/>
       <c r="AS132" s="1"/>
-      <c r="AT132" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="133">
       <c r="A133" s="1">
         <v>10049</v>
       </c>
-      <c r="B133" s="1"/>
+      <c r="B133" s="1" t="str">
+        <v>玩偶</v>
+      </c>
       <c r="C133" s="1">
         <v>10149</v>
       </c>
@@ -9749,7 +9738,6 @@
       <c r="AQ133" s="1"/>
       <c r="AR133" s="1"/>
       <c r="AS133" s="1"/>
-      <c r="AT133" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="134">
       <c r="A134" s="1">
@@ -9813,13 +9801,14 @@
       <c r="AQ134" s="1"/>
       <c r="AR134" s="1"/>
       <c r="AS134" s="1"/>
-      <c r="AT134" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="135">
       <c r="A135" s="1">
         <v>10064</v>
       </c>
-      <c r="B135" s="1"/>
+      <c r="B135" s="1" t="str">
+        <v>杠铃</v>
+      </c>
       <c r="C135" s="1">
         <v>10164</v>
       </c>
@@ -9879,7 +9868,6 @@
       <c r="AQ135" s="1"/>
       <c r="AR135" s="1"/>
       <c r="AS135" s="1"/>
-      <c r="AT135" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="136">
       <c r="A136" s="1">
@@ -9943,13 +9931,14 @@
       <c r="AQ136" s="1"/>
       <c r="AR136" s="1"/>
       <c r="AS136" s="1"/>
-      <c r="AT136" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="137">
       <c r="A137" s="1">
         <v>10065</v>
       </c>
-      <c r="B137" s="1"/>
+      <c r="B137" s="1" t="str">
+        <v>杠铃</v>
+      </c>
       <c r="C137" s="1">
         <v>10165</v>
       </c>
@@ -10013,7 +10002,6 @@
       <c r="AQ137" s="1"/>
       <c r="AR137" s="1"/>
       <c r="AS137" s="1"/>
-      <c r="AT137" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="138">
       <c r="A138" s="1">
@@ -10077,13 +10065,14 @@
       <c r="AQ138" s="1"/>
       <c r="AR138" s="1"/>
       <c r="AS138" s="1"/>
-      <c r="AT138" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="139">
       <c r="A139" s="1">
         <v>10066</v>
       </c>
-      <c r="B139" s="1"/>
+      <c r="B139" s="1" t="str">
+        <v>玩偶</v>
+      </c>
       <c r="C139" s="1">
         <v>10166</v>
       </c>
@@ -10147,7 +10136,6 @@
       <c r="AQ139" s="1"/>
       <c r="AR139" s="1"/>
       <c r="AS139" s="1"/>
-      <c r="AT139" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="140">
       <c r="A140" s="1">
@@ -10211,13 +10199,14 @@
       <c r="AQ140" s="1"/>
       <c r="AR140" s="1"/>
       <c r="AS140" s="1"/>
-      <c r="AT140" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="141">
       <c r="A141" s="1">
         <v>10067</v>
       </c>
-      <c r="B141" s="1"/>
+      <c r="B141" s="1" t="str">
+        <v>玩偶</v>
+      </c>
       <c r="C141" s="1">
         <v>10167</v>
       </c>
@@ -10281,7 +10270,6 @@
       <c r="AQ141" s="1"/>
       <c r="AR141" s="1"/>
       <c r="AS141" s="1"/>
-      <c r="AT141" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="142">
       <c r="A142" s="1">
@@ -10345,13 +10333,14 @@
       <c r="AQ142" s="1"/>
       <c r="AR142" s="1"/>
       <c r="AS142" s="1"/>
-      <c r="AT142" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="143">
       <c r="A143" s="1">
         <v>10069</v>
       </c>
-      <c r="B143" s="1"/>
+      <c r="B143" s="1" t="str">
+        <v>奖杯</v>
+      </c>
       <c r="C143" s="1">
         <v>10169</v>
       </c>
@@ -10415,7 +10404,6 @@
       <c r="AQ143" s="1"/>
       <c r="AR143" s="1"/>
       <c r="AS143" s="1"/>
-      <c r="AT143" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="144">
       <c r="A144" s="1">
@@ -10479,13 +10467,14 @@
       <c r="AQ144" s="1"/>
       <c r="AR144" s="1"/>
       <c r="AS144" s="1"/>
-      <c r="AT144" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="145">
       <c r="A145" s="1">
         <v>10070</v>
       </c>
-      <c r="B145" s="1"/>
+      <c r="B145" s="1" t="str">
+        <v>靠垫</v>
+      </c>
       <c r="C145" s="1">
         <v>10170</v>
       </c>
@@ -10549,7 +10538,6 @@
       <c r="AQ145" s="1"/>
       <c r="AR145" s="1"/>
       <c r="AS145" s="1"/>
-      <c r="AT145" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="146">
       <c r="A146" s="1">
@@ -10613,13 +10601,14 @@
       <c r="AQ146" s="1"/>
       <c r="AR146" s="1"/>
       <c r="AS146" s="1"/>
-      <c r="AT146" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="147">
       <c r="A147" s="1">
         <v>10071</v>
       </c>
-      <c r="B147" s="1"/>
+      <c r="B147" s="1" t="str">
+        <v>靠垫</v>
+      </c>
       <c r="C147" s="1">
         <v>10171</v>
       </c>
@@ -10683,7 +10672,6 @@
       <c r="AQ147" s="1"/>
       <c r="AR147" s="1"/>
       <c r="AS147" s="1"/>
-      <c r="AT147" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="148">
       <c r="A148" s="1">
@@ -10747,13 +10735,14 @@
       <c r="AQ148" s="1"/>
       <c r="AR148" s="1"/>
       <c r="AS148" s="1"/>
-      <c r="AT148" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="149">
       <c r="A149" s="1">
         <v>10073</v>
       </c>
-      <c r="B149" s="1"/>
+      <c r="B149" s="1" t="str">
+        <v>游戏机</v>
+      </c>
       <c r="C149" s="1">
         <v>10173</v>
       </c>
@@ -10811,7 +10800,6 @@
       <c r="AQ149" s="1"/>
       <c r="AR149" s="1"/>
       <c r="AS149" s="1"/>
-      <c r="AT149" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="150">
       <c r="A150" s="1">
@@ -10875,13 +10863,14 @@
       <c r="AQ150" s="1"/>
       <c r="AR150" s="1"/>
       <c r="AS150" s="1"/>
-      <c r="AT150" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="151">
       <c r="A151" s="1">
         <v>10075</v>
       </c>
-      <c r="B151" s="1"/>
+      <c r="B151" s="1" t="str">
+        <v>鲤鱼</v>
+      </c>
       <c r="C151" s="1">
         <v>10175</v>
       </c>
@@ -10945,7 +10934,6 @@
       <c r="AQ151" s="1"/>
       <c r="AR151" s="1"/>
       <c r="AS151" s="1"/>
-      <c r="AT151" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="152">
       <c r="A152" s="1">
@@ -11009,13 +10997,14 @@
       <c r="AQ152" s="1"/>
       <c r="AR152" s="1"/>
       <c r="AS152" s="1"/>
-      <c r="AT152" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="153">
       <c r="A153" s="1">
         <v>10076</v>
       </c>
-      <c r="B153" s="1"/>
+      <c r="B153" s="1" t="str">
+        <v>龙虾</v>
+      </c>
       <c r="C153" s="1">
         <v>10176</v>
       </c>
@@ -11079,7 +11068,6 @@
       <c r="AQ153" s="1"/>
       <c r="AR153" s="1"/>
       <c r="AS153" s="1"/>
-      <c r="AT153" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="154">
       <c r="A154" s="1">
@@ -11143,13 +11131,14 @@
       <c r="AQ154" s="1"/>
       <c r="AR154" s="1"/>
       <c r="AS154" s="1"/>
-      <c r="AT154" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="155">
       <c r="A155" s="1">
         <v>10077</v>
       </c>
-      <c r="B155" s="1"/>
+      <c r="B155" s="1" t="str">
+        <v>金龙鱼</v>
+      </c>
       <c r="C155" s="1">
         <v>10177</v>
       </c>
@@ -11213,7 +11202,6 @@
       <c r="AQ155" s="1"/>
       <c r="AR155" s="1"/>
       <c r="AS155" s="1"/>
-      <c r="AT155" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="156">
       <c r="A156" s="1">
@@ -11277,13 +11265,14 @@
       <c r="AQ156" s="1"/>
       <c r="AR156" s="1"/>
       <c r="AS156" s="1"/>
-      <c r="AT156" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="157">
       <c r="A157" s="1">
         <v>10078</v>
       </c>
-      <c r="B157" s="1"/>
+      <c r="B157" s="1" t="str">
+        <v>毛鼻鲶</v>
+      </c>
       <c r="C157" s="1">
         <v>10178</v>
       </c>
@@ -11347,7 +11336,6 @@
       <c r="AQ157" s="1"/>
       <c r="AR157" s="1"/>
       <c r="AS157" s="1"/>
-      <c r="AT157" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="158">
       <c r="A158" s="1">
@@ -11411,13 +11399,14 @@
       <c r="AQ158" s="1"/>
       <c r="AR158" s="1"/>
       <c r="AS158" s="1"/>
-      <c r="AT158" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="159">
       <c r="A159" s="1">
         <v>10079</v>
       </c>
-      <c r="B159" s="1"/>
+      <c r="B159" s="1" t="str">
+        <v>尖吻鲈</v>
+      </c>
       <c r="C159" s="1">
         <v>10179</v>
       </c>
@@ -11481,7 +11470,6 @@
       <c r="AQ159" s="1"/>
       <c r="AR159" s="1"/>
       <c r="AS159" s="1"/>
-      <c r="AT159" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="160">
       <c r="A160" s="1">
@@ -11545,13 +11533,14 @@
       <c r="AQ160" s="1"/>
       <c r="AR160" s="1"/>
       <c r="AS160" s="1"/>
-      <c r="AT160" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="161">
       <c r="A161" s="1">
         <v>10080</v>
       </c>
-      <c r="B161" s="1"/>
+      <c r="B161" s="1" t="str">
+        <v>蓝鳍金枪鱼</v>
+      </c>
       <c r="C161" s="1">
         <v>10180</v>
       </c>
@@ -11615,7 +11604,6 @@
       <c r="AQ161" s="1"/>
       <c r="AR161" s="1"/>
       <c r="AS161" s="1"/>
-      <c r="AT161" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="162">
       <c r="A162" s="1">
@@ -11679,13 +11667,14 @@
       <c r="AQ162" s="1"/>
       <c r="AR162" s="1"/>
       <c r="AS162" s="1"/>
-      <c r="AT162" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="163">
       <c r="A163" s="1">
         <v>10081</v>
       </c>
-      <c r="B163" s="1"/>
+      <c r="B163" s="1" t="str">
+        <v>大眼鲤鱼</v>
+      </c>
       <c r="C163" s="1">
         <v>10181</v>
       </c>
@@ -11749,7 +11738,6 @@
       <c r="AQ163" s="1"/>
       <c r="AR163" s="1"/>
       <c r="AS163" s="1"/>
-      <c r="AT163" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="164">
       <c r="A164" s="1">
@@ -11813,13 +11801,14 @@
       <c r="AQ164" s="1"/>
       <c r="AR164" s="1"/>
       <c r="AS164" s="1"/>
-      <c r="AT164" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="165">
       <c r="A165" s="1">
         <v>10082</v>
       </c>
-      <c r="B165" s="1"/>
+      <c r="B165" s="1" t="str">
+        <v>大口副鲈</v>
+      </c>
       <c r="C165" s="1">
         <v>10182</v>
       </c>
@@ -11883,7 +11872,6 @@
       <c r="AQ165" s="1"/>
       <c r="AR165" s="1"/>
       <c r="AS165" s="1"/>
-      <c r="AT165" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="166">
       <c r="A166" s="1">
@@ -11947,13 +11935,14 @@
       <c r="AQ166" s="1"/>
       <c r="AR166" s="1"/>
       <c r="AS166" s="1"/>
-      <c r="AT166" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="167">
       <c r="A167" s="1">
         <v>10083</v>
       </c>
-      <c r="B167" s="1"/>
+      <c r="B167" s="1" t="str">
+        <v>皇带鱼</v>
+      </c>
       <c r="C167" s="1">
         <v>10183</v>
       </c>
@@ -12017,7 +12006,6 @@
       <c r="AQ167" s="1"/>
       <c r="AR167" s="1"/>
       <c r="AS167" s="1"/>
-      <c r="AT167" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="168">
       <c r="A168" s="1">
@@ -12081,13 +12069,14 @@
       <c r="AQ168" s="1"/>
       <c r="AR168" s="1"/>
       <c r="AS168" s="1"/>
-      <c r="AT168" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="169">
       <c r="A169" s="1">
         <v>10084</v>
       </c>
-      <c r="B169" s="1"/>
+      <c r="B169" s="1" t="str">
+        <v>鲸鱼</v>
+      </c>
       <c r="C169" s="1">
         <v>10184</v>
       </c>
@@ -12151,7 +12140,6 @@
       <c r="AQ169" s="1"/>
       <c r="AR169" s="1"/>
       <c r="AS169" s="1"/>
-      <c r="AT169" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="170">
       <c r="A170" s="1">
@@ -12215,13 +12203,14 @@
       <c r="AQ170" s="1"/>
       <c r="AR170" s="1"/>
       <c r="AS170" s="1"/>
-      <c r="AT170" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="171">
       <c r="A171" s="1">
         <v>10085</v>
       </c>
-      <c r="B171" s="1"/>
+      <c r="B171" s="1" t="str">
+        <v>孔雀鱼</v>
+      </c>
       <c r="C171" s="1">
         <v>10185</v>
       </c>
@@ -12285,7 +12274,6 @@
       <c r="AQ171" s="1"/>
       <c r="AR171" s="1"/>
       <c r="AS171" s="1"/>
-      <c r="AT171" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="172">
       <c r="A172" s="1">
@@ -12349,13 +12337,14 @@
       <c r="AQ172" s="1"/>
       <c r="AR172" s="1"/>
       <c r="AS172" s="1"/>
-      <c r="AT172" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="173">
       <c r="A173" s="1">
         <v>10086</v>
       </c>
-      <c r="B173" s="1"/>
+      <c r="B173" s="1" t="str">
+        <v>笛鲷</v>
+      </c>
       <c r="C173" s="1">
         <v>10186</v>
       </c>
@@ -12419,7 +12408,6 @@
       <c r="AQ173" s="1"/>
       <c r="AR173" s="1"/>
       <c r="AS173" s="1"/>
-      <c r="AT173" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="174">
       <c r="A174" s="1">
@@ -12483,13 +12471,14 @@
       <c r="AQ174" s="1"/>
       <c r="AR174" s="1"/>
       <c r="AS174" s="1"/>
-      <c r="AT174" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="175">
       <c r="A175" s="1">
         <v>10087</v>
       </c>
-      <c r="B175" s="1"/>
+      <c r="B175" s="1" t="str">
+        <v>平颌鱲</v>
+      </c>
       <c r="C175" s="1">
         <v>10187</v>
       </c>
@@ -12553,7 +12542,6 @@
       <c r="AQ175" s="1"/>
       <c r="AR175" s="1"/>
       <c r="AS175" s="1"/>
-      <c r="AT175" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="176">
       <c r="A176" s="1">
@@ -12617,13 +12605,14 @@
       <c r="AQ176" s="1"/>
       <c r="AR176" s="1"/>
       <c r="AS176" s="1"/>
-      <c r="AT176" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="177">
       <c r="A177" s="1">
         <v>10088</v>
       </c>
-      <c r="B177" s="1"/>
+      <c r="B177" s="1" t="str">
+        <v>鲨鱼</v>
+      </c>
       <c r="C177" s="1">
         <v>10188</v>
       </c>
@@ -12687,7 +12676,6 @@
       <c r="AQ177" s="1"/>
       <c r="AR177" s="1"/>
       <c r="AS177" s="1"/>
-      <c r="AT177" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="178">
       <c r="A178" s="1">
@@ -12751,13 +12739,14 @@
       <c r="AQ178" s="1"/>
       <c r="AR178" s="1"/>
       <c r="AS178" s="1"/>
-      <c r="AT178" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="179">
       <c r="A179" s="1">
         <v>10089</v>
       </c>
-      <c r="B179" s="1"/>
+      <c r="B179" s="1" t="str">
+        <v>樱花枝</v>
+      </c>
       <c r="C179" s="1">
         <v>10189</v>
       </c>
@@ -12815,7 +12804,6 @@
       <c r="AQ179" s="1"/>
       <c r="AR179" s="1"/>
       <c r="AS179" s="1"/>
-      <c r="AT179" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="180">
       <c r="A180" s="1">
@@ -12879,13 +12867,14 @@
       <c r="AQ180" s="1"/>
       <c r="AR180" s="1"/>
       <c r="AS180" s="1"/>
-      <c r="AT180" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="181">
       <c r="A181" s="1">
         <v>10090</v>
       </c>
-      <c r="B181" s="1"/>
+      <c r="B181" s="1" t="str">
+        <v>咖啡</v>
+      </c>
       <c r="C181" s="1">
         <v>10190</v>
       </c>
@@ -12949,7 +12938,6 @@
       <c r="AQ181" s="1"/>
       <c r="AR181" s="1"/>
       <c r="AS181" s="1"/>
-      <c r="AT181" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="182">
       <c r="A182" s="1">
@@ -13013,13 +13001,14 @@
       <c r="AQ182" s="1"/>
       <c r="AR182" s="1"/>
       <c r="AS182" s="1"/>
-      <c r="AT182" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="183">
       <c r="A183" s="1">
         <v>10091</v>
       </c>
-      <c r="B183" s="1"/>
+      <c r="B183" s="1" t="str">
+        <v>女帽子</v>
+      </c>
       <c r="C183" s="1">
         <v>10191</v>
       </c>
@@ -13077,7 +13066,6 @@
       <c r="AQ183" s="1"/>
       <c r="AR183" s="1"/>
       <c r="AS183" s="1"/>
-      <c r="AT183" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="184">
       <c r="A184" s="1">
@@ -13141,13 +13129,14 @@
       <c r="AQ184" s="1"/>
       <c r="AR184" s="1"/>
       <c r="AS184" s="1"/>
-      <c r="AT184" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="185">
       <c r="A185" s="1">
         <v>10097</v>
       </c>
-      <c r="B185" s="1"/>
+      <c r="B185" s="1" t="str">
+        <v>角色模型</v>
+      </c>
       <c r="C185" s="1">
         <v>10197</v>
       </c>
@@ -13158,7 +13147,7 @@
         <v>38</v>
       </c>
       <c r="F185" s="1">
-        <v>197388</v>
+        <v>177590</v>
       </c>
       <c r="G185" s="1">
         <v>23</v>
@@ -13215,7 +13204,6 @@
       <c r="AQ185" s="1"/>
       <c r="AR185" s="1"/>
       <c r="AS185" s="1"/>
-      <c r="AT185" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="186">
       <c r="A186" s="1">
@@ -13277,13 +13265,14 @@
       <c r="AQ186" s="1"/>
       <c r="AR186" s="1"/>
       <c r="AS186" s="1"/>
-      <c r="AT186" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="187">
       <c r="A187" s="1">
         <v>10098</v>
       </c>
-      <c r="B187" s="1"/>
+      <c r="B187" s="1" t="str">
+        <v>背带鲨鱼</v>
+      </c>
       <c r="C187" s="1">
         <v>10198</v>
       </c>
@@ -13347,7 +13336,6 @@
       <c r="AQ187" s="1"/>
       <c r="AR187" s="1"/>
       <c r="AS187" s="1"/>
-      <c r="AT187" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="188">
       <c r="A188" s="1">
@@ -13411,13 +13399,14 @@
       <c r="AQ188" s="1"/>
       <c r="AR188" s="1"/>
       <c r="AS188" s="1"/>
-      <c r="AT188" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="189">
       <c r="A189" s="1">
         <v>10099</v>
       </c>
-      <c r="B189" s="1"/>
+      <c r="B189" s="1" t="str">
+        <v>埃及鲨鱼</v>
+      </c>
       <c r="C189" s="1">
         <v>10199</v>
       </c>
@@ -13481,7 +13470,6 @@
       <c r="AQ189" s="1"/>
       <c r="AR189" s="1"/>
       <c r="AS189" s="1"/>
-      <c r="AT189" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="190">
       <c r="A190" s="1">
@@ -13545,13 +13533,14 @@
       <c r="AQ190" s="1"/>
       <c r="AR190" s="1"/>
       <c r="AS190" s="1"/>
-      <c r="AT190" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="191">
       <c r="A191" s="1">
         <v>10300</v>
       </c>
-      <c r="B191" s="1"/>
+      <c r="B191" s="1" t="str">
+        <v>埃及章鱼</v>
+      </c>
       <c r="C191" s="1">
         <v>10400</v>
       </c>
@@ -13615,7 +13604,6 @@
       <c r="AQ191" s="1"/>
       <c r="AR191" s="1"/>
       <c r="AS191" s="1"/>
-      <c r="AT191" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="192">
       <c r="A192" s="1">
@@ -13679,13 +13667,14 @@
       <c r="AQ192" s="1"/>
       <c r="AR192" s="1"/>
       <c r="AS192" s="1"/>
-      <c r="AT192" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="193">
       <c r="A193" s="1">
         <v>10301</v>
       </c>
-      <c r="B193" s="1"/>
+      <c r="B193" s="1" t="str">
+        <v>埃及金鱼</v>
+      </c>
       <c r="C193" s="1">
         <v>10401</v>
       </c>
@@ -13749,7 +13738,6 @@
       <c r="AQ193" s="1"/>
       <c r="AR193" s="1"/>
       <c r="AS193" s="1"/>
-      <c r="AT193" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="194">
       <c r="A194" s="1">
@@ -13813,13 +13801,14 @@
       <c r="AQ194" s="1"/>
       <c r="AR194" s="1"/>
       <c r="AS194" s="1"/>
-      <c r="AT194" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="195">
       <c r="A195" s="1">
         <v>10302</v>
       </c>
-      <c r="B195" s="1"/>
+      <c r="B195" s="1" t="str">
+        <v>天使章鱼</v>
+      </c>
       <c r="C195" s="1">
         <v>10402</v>
       </c>
@@ -13883,7 +13872,6 @@
       <c r="AQ195" s="1"/>
       <c r="AR195" s="1"/>
       <c r="AS195" s="1"/>
-      <c r="AT195" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="196">
       <c r="A196" s="1">
@@ -13947,13 +13935,14 @@
       <c r="AQ196" s="1"/>
       <c r="AR196" s="1"/>
       <c r="AS196" s="1"/>
-      <c r="AT196" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="197">
       <c r="A197" s="1">
         <v>10303</v>
       </c>
-      <c r="B197" s="1"/>
+      <c r="B197" s="1" t="str">
+        <v>嘟嘟嘴金鱼</v>
+      </c>
       <c r="C197" s="1">
         <v>10403</v>
       </c>
@@ -14017,7 +14006,6 @@
       <c r="AQ197" s="1"/>
       <c r="AR197" s="1"/>
       <c r="AS197" s="1"/>
-      <c r="AT197" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="198">
       <c r="A198" s="1">
@@ -14081,13 +14069,14 @@
       <c r="AQ198" s="1"/>
       <c r="AR198" s="1"/>
       <c r="AS198" s="1"/>
-      <c r="AT198" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="199">
       <c r="A199" s="1">
         <v>10304</v>
       </c>
-      <c r="B199" s="1"/>
+      <c r="B199" s="1" t="str">
+        <v>嘟嘟嘴红金鱼</v>
+      </c>
       <c r="C199" s="1">
         <v>10404</v>
       </c>
@@ -14151,7 +14140,6 @@
       <c r="AQ199" s="1"/>
       <c r="AR199" s="1"/>
       <c r="AS199" s="1"/>
-      <c r="AT199" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="200">
       <c r="A200" s="1">
@@ -14215,13 +14203,14 @@
       <c r="AQ200" s="1"/>
       <c r="AR200" s="1"/>
       <c r="AS200" s="1"/>
-      <c r="AT200" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="201">
       <c r="A201" s="1">
         <v>10305</v>
       </c>
-      <c r="B201" s="1"/>
+      <c r="B201" s="1" t="str">
+        <v>灯笼鱼形态的宠物</v>
+      </c>
       <c r="C201" s="1">
         <v>10405</v>
       </c>
@@ -14285,7 +14274,6 @@
       <c r="AQ201" s="1"/>
       <c r="AR201" s="1"/>
       <c r="AS201" s="1"/>
-      <c r="AT201" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="202">
       <c r="A202" s="1">
@@ -14355,13 +14343,14 @@
       <c r="AQ202" s="1"/>
       <c r="AR202" s="1"/>
       <c r="AS202" s="1"/>
-      <c r="AT202" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="203">
       <c r="A203" s="1">
         <v>10307</v>
       </c>
-      <c r="B203" s="1"/>
+      <c r="B203" s="1" t="str">
+        <v>紫阳春剑</v>
+      </c>
       <c r="C203" s="1">
         <v>10407</v>
       </c>
@@ -14425,7 +14414,6 @@
       <c r="AQ203" s="1"/>
       <c r="AR203" s="1"/>
       <c r="AS203" s="1"/>
-      <c r="AT203" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="204">
       <c r="A204" s="1">
@@ -14495,13 +14483,14 @@
       <c r="AQ204" s="1"/>
       <c r="AR204" s="1"/>
       <c r="AS204" s="1"/>
-      <c r="AT204" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="205">
       <c r="A205" s="1">
         <v>10308</v>
       </c>
-      <c r="B205" s="1"/>
+      <c r="B205" s="1" t="str">
+        <v>剑</v>
+      </c>
       <c r="C205" s="1">
         <v>10408</v>
       </c>
@@ -14565,7 +14554,6 @@
       <c r="AQ205" s="1"/>
       <c r="AR205" s="1"/>
       <c r="AS205" s="1"/>
-      <c r="AT205" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="206">
       <c r="A206" s="1">
@@ -14635,13 +14623,14 @@
       <c r="AQ206" s="1"/>
       <c r="AR206" s="1"/>
       <c r="AS206" s="1"/>
-      <c r="AT206" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="207">
       <c r="A207" s="1">
         <v>10309</v>
       </c>
-      <c r="B207" s="1"/>
+      <c r="B207" s="1" t="str">
+        <v>大剑</v>
+      </c>
       <c r="C207" s="1">
         <v>10409</v>
       </c>
@@ -14705,7 +14694,6 @@
       <c r="AQ207" s="1"/>
       <c r="AR207" s="1"/>
       <c r="AS207" s="1"/>
-      <c r="AT207" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="208">
       <c r="A208" s="1">
@@ -14775,13 +14763,14 @@
       <c r="AQ208" s="1"/>
       <c r="AR208" s="1"/>
       <c r="AS208" s="1"/>
-      <c r="AT208" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="209">
       <c r="A209" s="1">
         <v>10310</v>
       </c>
-      <c r="B209" s="1"/>
+      <c r="B209" s="1" t="str">
+        <v>樱花枝</v>
+      </c>
       <c r="C209" s="1">
         <v>10410</v>
       </c>
@@ -14845,7 +14834,6 @@
       <c r="AQ209" s="1"/>
       <c r="AR209" s="1"/>
       <c r="AS209" s="1"/>
-      <c r="AT209" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="210">
       <c r="A210" s="1">
@@ -14903,13 +14891,14 @@
       <c r="AQ210" s="1"/>
       <c r="AR210" s="1"/>
       <c r="AS210" s="1"/>
-      <c r="AT210" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="211">
       <c r="A211" s="1">
         <v>10311</v>
       </c>
-      <c r="B211" s="1"/>
+      <c r="B211" s="1" t="str">
+        <v>樱花枝</v>
+      </c>
       <c r="C211" s="1">
         <v>10411</v>
       </c>
@@ -14973,7 +14962,6 @@
       <c r="AQ211" s="1"/>
       <c r="AR211" s="1"/>
       <c r="AS211" s="1"/>
-      <c r="AT211" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="212">
       <c r="A212" s="1">
@@ -15031,13 +15019,14 @@
       <c r="AQ212" s="1"/>
       <c r="AR212" s="1"/>
       <c r="AS212" s="1"/>
-      <c r="AT212" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="213">
       <c r="A213" s="1">
         <v>10327</v>
       </c>
-      <c r="B213" s="1"/>
+      <c r="B213" s="1" t="str">
+        <v>卡通小人</v>
+      </c>
       <c r="C213" s="1">
         <v>10427</v>
       </c>
@@ -15101,7 +15090,6 @@
       <c r="AQ213" s="1"/>
       <c r="AR213" s="1"/>
       <c r="AS213" s="1"/>
-      <c r="AT213" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="214">
       <c r="A214" s="1">
@@ -15165,13 +15153,14 @@
       <c r="AQ214" s="1"/>
       <c r="AR214" s="1"/>
       <c r="AS214" s="1"/>
-      <c r="AT214" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="215">
       <c r="A215" s="1">
         <v>10328</v>
       </c>
-      <c r="B215" s="1"/>
+      <c r="B215" s="1" t="str">
+        <v>甜品店吉祥物</v>
+      </c>
       <c r="C215" s="1">
         <v>10428</v>
       </c>
@@ -15235,7 +15224,6 @@
       <c r="AQ215" s="1"/>
       <c r="AR215" s="1"/>
       <c r="AS215" s="1"/>
-      <c r="AT215" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="216">
       <c r="A216" s="1">
@@ -15299,13 +15287,14 @@
       <c r="AQ216" s="1"/>
       <c r="AR216" s="1"/>
       <c r="AS216" s="1"/>
-      <c r="AT216" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="217">
       <c r="A217" s="1">
         <v>10022</v>
       </c>
-      <c r="B217" s="1"/>
+      <c r="B217" s="1" t="str">
+        <v>汉堡</v>
+      </c>
       <c r="C217" s="1">
         <v>10122</v>
       </c>
@@ -15367,7 +15356,6 @@
       <c r="AQ217" s="1"/>
       <c r="AR217" s="1"/>
       <c r="AS217" s="1"/>
-      <c r="AT217" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="218">
       <c r="A218" s="1">
@@ -15431,13 +15419,14 @@
       <c r="AQ218" s="1"/>
       <c r="AR218" s="1"/>
       <c r="AS218" s="1"/>
-      <c r="AT218" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="219">
       <c r="A219" s="1">
         <v>10023</v>
       </c>
-      <c r="B219" s="1"/>
+      <c r="B219" s="1" t="str">
+        <v>羊奶</v>
+      </c>
       <c r="C219" s="1">
         <v>10123</v>
       </c>
@@ -15499,7 +15488,6 @@
       <c r="AQ219" s="1"/>
       <c r="AR219" s="1"/>
       <c r="AS219" s="1"/>
-      <c r="AT219" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="220">
       <c r="A220" s="1">
@@ -15563,13 +15551,14 @@
       <c r="AQ220" s="1"/>
       <c r="AR220" s="1"/>
       <c r="AS220" s="1"/>
-      <c r="AT220" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="221">
       <c r="A221" s="1">
         <v>10024</v>
       </c>
-      <c r="B221" s="1"/>
+      <c r="B221" s="1" t="str">
+        <v>面包</v>
+      </c>
       <c r="C221" s="1">
         <v>10124</v>
       </c>
@@ -15631,7 +15620,6 @@
       <c r="AQ221" s="1"/>
       <c r="AR221" s="1"/>
       <c r="AS221" s="1"/>
-      <c r="AT221" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="222">
       <c r="A222" s="1">
@@ -15695,13 +15683,14 @@
       <c r="AQ222" s="1"/>
       <c r="AR222" s="1"/>
       <c r="AS222" s="1"/>
-      <c r="AT222" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="223">
       <c r="A223" s="1">
         <v>10025</v>
       </c>
-      <c r="B223" s="1"/>
+      <c r="B223" s="1" t="str">
+        <v>面包</v>
+      </c>
       <c r="C223" s="1">
         <v>10125</v>
       </c>
@@ -15763,7 +15752,6 @@
       <c r="AQ223" s="1"/>
       <c r="AR223" s="1"/>
       <c r="AS223" s="1"/>
-      <c r="AT223" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="224">
       <c r="A224" s="1">
@@ -15827,13 +15815,14 @@
       <c r="AQ224" s="1"/>
       <c r="AR224" s="1"/>
       <c r="AS224" s="1"/>
-      <c r="AT224" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="225">
       <c r="A225" s="1">
         <v>10027</v>
       </c>
-      <c r="B225" s="1"/>
+      <c r="B225" s="1" t="str">
+        <v>饮料</v>
+      </c>
       <c r="C225" s="1">
         <v>10127</v>
       </c>
@@ -15895,7 +15884,6 @@
       <c r="AQ225" s="1"/>
       <c r="AR225" s="1"/>
       <c r="AS225" s="1"/>
-      <c r="AT225" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="226">
       <c r="A226" s="1">
@@ -15959,13 +15947,14 @@
       <c r="AQ226" s="1"/>
       <c r="AR226" s="1"/>
       <c r="AS226" s="1"/>
-      <c r="AT226" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="227">
       <c r="A227" s="1">
         <v>10028</v>
       </c>
-      <c r="B227" s="1"/>
+      <c r="B227" s="1" t="str">
+        <v>饮料</v>
+      </c>
       <c r="C227" s="1">
         <v>10128</v>
       </c>
@@ -16027,7 +16016,6 @@
       <c r="AQ227" s="1"/>
       <c r="AR227" s="1"/>
       <c r="AS227" s="1"/>
-      <c r="AT227" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="228">
       <c r="A228" s="1">
@@ -16091,13 +16079,14 @@
       <c r="AQ228" s="1"/>
       <c r="AR228" s="1"/>
       <c r="AS228" s="1"/>
-      <c r="AT228" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="229">
       <c r="A229" s="1">
         <v>10029</v>
       </c>
-      <c r="B229" s="1"/>
+      <c r="B229" s="1" t="str">
+        <v>饮料</v>
+      </c>
       <c r="C229" s="1">
         <v>10129</v>
       </c>
@@ -16159,7 +16148,6 @@
       <c r="AQ229" s="1"/>
       <c r="AR229" s="1"/>
       <c r="AS229" s="1"/>
-      <c r="AT229" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="230">
       <c r="A230" s="1">
@@ -16223,13 +16211,14 @@
       <c r="AQ230" s="1"/>
       <c r="AR230" s="1"/>
       <c r="AS230" s="1"/>
-      <c r="AT230" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="231">
       <c r="A231" s="1">
         <v>10031</v>
       </c>
-      <c r="B231" s="1"/>
+      <c r="B231" s="1" t="str">
+        <v>酒</v>
+      </c>
       <c r="C231" s="1">
         <v>10131</v>
       </c>
@@ -16291,7 +16280,6 @@
       <c r="AQ231" s="1"/>
       <c r="AR231" s="1"/>
       <c r="AS231" s="1"/>
-      <c r="AT231" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="232">
       <c r="A232" s="1">
@@ -16355,13 +16343,14 @@
       <c r="AQ232" s="1"/>
       <c r="AR232" s="1"/>
       <c r="AS232" s="1"/>
-      <c r="AT232" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="233">
       <c r="A233" s="1">
         <v>10033</v>
       </c>
-      <c r="B233" s="1"/>
+      <c r="B233" s="1" t="str">
+        <v>奶昔</v>
+      </c>
       <c r="C233" s="1">
         <v>10133</v>
       </c>
@@ -16423,7 +16412,6 @@
       <c r="AQ233" s="1"/>
       <c r="AR233" s="1"/>
       <c r="AS233" s="1"/>
-      <c r="AT233" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="234">
       <c r="A234" s="1">
@@ -16487,13 +16475,14 @@
       <c r="AQ234" s="1"/>
       <c r="AR234" s="1"/>
       <c r="AS234" s="1"/>
-      <c r="AT234" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="235">
       <c r="A235" s="1">
         <v>10034</v>
       </c>
-      <c r="B235" s="1"/>
+      <c r="B235" s="1" t="str">
+        <v>冰淇淋</v>
+      </c>
       <c r="C235" s="1">
         <v>10134</v>
       </c>
@@ -16555,7 +16544,6 @@
       <c r="AQ235" s="1"/>
       <c r="AR235" s="1"/>
       <c r="AS235" s="1"/>
-      <c r="AT235" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="236">
       <c r="A236" s="1">
@@ -16619,13 +16607,14 @@
       <c r="AQ236" s="1"/>
       <c r="AR236" s="1"/>
       <c r="AS236" s="1"/>
-      <c r="AT236" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="237">
       <c r="A237" s="1">
         <v>10038</v>
       </c>
-      <c r="B237" s="1"/>
+      <c r="B237" s="1" t="str">
+        <v>烧烤</v>
+      </c>
       <c r="C237" s="1">
         <v>10138</v>
       </c>
@@ -16687,7 +16676,6 @@
       <c r="AQ237" s="1"/>
       <c r="AR237" s="1"/>
       <c r="AS237" s="1"/>
-      <c r="AT237" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="238">
       <c r="A238" s="1">
@@ -16751,13 +16739,14 @@
       <c r="AQ238" s="1"/>
       <c r="AR238" s="1"/>
       <c r="AS238" s="1"/>
-      <c r="AT238" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="239">
       <c r="A239" s="1">
         <v>10041</v>
       </c>
-      <c r="B239" s="1"/>
+      <c r="B239" s="1" t="str">
+        <v>奶茶</v>
+      </c>
       <c r="C239" s="1">
         <v>10141</v>
       </c>
@@ -16819,7 +16808,6 @@
       <c r="AQ239" s="1"/>
       <c r="AR239" s="1"/>
       <c r="AS239" s="1"/>
-      <c r="AT239" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="240">
       <c r="A240" s="1">
@@ -16883,13 +16871,14 @@
       <c r="AQ240" s="1"/>
       <c r="AR240" s="1"/>
       <c r="AS240" s="1"/>
-      <c r="AT240" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="241">
       <c r="A241" s="1">
         <v>10043</v>
       </c>
-      <c r="B241" s="1"/>
+      <c r="B241" s="1" t="str">
+        <v>猫粮</v>
+      </c>
       <c r="C241" s="1">
         <v>10143</v>
       </c>
@@ -16951,7 +16940,6 @@
       <c r="AQ241" s="1"/>
       <c r="AR241" s="1"/>
       <c r="AS241" s="1"/>
-      <c r="AT241" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="242">
       <c r="A242" s="1">
@@ -17015,13 +17003,14 @@
       <c r="AQ242" s="1"/>
       <c r="AR242" s="1"/>
       <c r="AS242" s="1"/>
-      <c r="AT242" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="243">
       <c r="A243" s="1">
         <v>10054</v>
       </c>
-      <c r="B243" s="1"/>
+      <c r="B243" s="1" t="str">
+        <v>蛋糕</v>
+      </c>
       <c r="C243" s="1">
         <v>10154</v>
       </c>
@@ -17083,7 +17072,6 @@
       <c r="AQ243" s="1"/>
       <c r="AR243" s="1"/>
       <c r="AS243" s="1"/>
-      <c r="AT243" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="244">
       <c r="A244" s="1">
@@ -17147,13 +17135,14 @@
       <c r="AQ244" s="1"/>
       <c r="AR244" s="1"/>
       <c r="AS244" s="1"/>
-      <c r="AT244" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="245">
       <c r="A245" s="1">
         <v>10057</v>
       </c>
-      <c r="B245" s="1"/>
+      <c r="B245" s="1" t="str">
+        <v>一盘蛋糕</v>
+      </c>
       <c r="C245" s="1">
         <v>10157</v>
       </c>
@@ -17215,7 +17204,6 @@
       <c r="AQ245" s="1"/>
       <c r="AR245" s="1"/>
       <c r="AS245" s="1"/>
-      <c r="AT245" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="246">
       <c r="A246" s="1">
@@ -17279,13 +17267,14 @@
       <c r="AQ246" s="1"/>
       <c r="AR246" s="1"/>
       <c r="AS246" s="1"/>
-      <c r="AT246" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="247">
       <c r="A247" s="1">
         <v>10059</v>
       </c>
-      <c r="B247" s="1"/>
+      <c r="B247" s="1" t="str">
+        <v>咖啡</v>
+      </c>
       <c r="C247" s="1">
         <v>10159</v>
       </c>
@@ -17347,7 +17336,6 @@
       <c r="AQ247" s="1"/>
       <c r="AR247" s="1"/>
       <c r="AS247" s="1"/>
-      <c r="AT247" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="248">
       <c r="A248" s="1">
@@ -17411,13 +17399,14 @@
       <c r="AQ248" s="1"/>
       <c r="AR248" s="1"/>
       <c r="AS248" s="1"/>
-      <c r="AT248" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="249">
       <c r="A249" s="1">
         <v>10062</v>
       </c>
-      <c r="B249" s="1"/>
+      <c r="B249" s="1" t="str">
+        <v>清酒</v>
+      </c>
       <c r="C249" s="1">
         <v>10162</v>
       </c>
@@ -17479,7 +17468,6 @@
       <c r="AQ249" s="1"/>
       <c r="AR249" s="1"/>
       <c r="AS249" s="1"/>
-      <c r="AT249" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="250">
       <c r="A250" s="1">
@@ -17543,13 +17531,14 @@
       <c r="AQ250" s="1"/>
       <c r="AR250" s="1"/>
       <c r="AS250" s="1"/>
-      <c r="AT250" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="251">
       <c r="A251" s="1">
         <v>10063</v>
       </c>
-      <c r="B251" s="1"/>
+      <c r="B251" s="1" t="str">
+        <v>清酒</v>
+      </c>
       <c r="C251" s="1">
         <v>10163</v>
       </c>
@@ -17611,7 +17600,6 @@
       <c r="AQ251" s="1"/>
       <c r="AR251" s="1"/>
       <c r="AS251" s="1"/>
-      <c r="AT251" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="252">
       <c r="A252" s="1">
@@ -17675,13 +17663,14 @@
       <c r="AQ252" s="1"/>
       <c r="AR252" s="1"/>
       <c r="AS252" s="1"/>
-      <c r="AT252" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="253">
       <c r="A253" s="1">
         <v>20001</v>
       </c>
-      <c r="B253" s="1"/>
+      <c r="B253" s="1" t="str">
+        <v>火焰翅膀</v>
+      </c>
       <c r="C253" s="1">
         <v>20002</v>
       </c>
@@ -17741,7 +17730,6 @@
       <c r="AQ253" s="1"/>
       <c r="AR253" s="1"/>
       <c r="AS253" s="1"/>
-      <c r="AT253" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="254">
       <c r="A254" s="1">
@@ -17801,13 +17789,14 @@
       <c r="AQ254" s="1"/>
       <c r="AR254" s="1"/>
       <c r="AS254" s="1"/>
-      <c r="AT254" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="255">
       <c r="A255" s="1">
         <v>20003</v>
       </c>
-      <c r="B255" s="1"/>
+      <c r="B255" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C255" s="1">
         <v>20004</v>
       </c>
@@ -17867,7 +17856,6 @@
       <c r="AQ255" s="1"/>
       <c r="AR255" s="1"/>
       <c r="AS255" s="1"/>
-      <c r="AT255" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="256">
       <c r="A256" s="1">
@@ -17927,13 +17915,14 @@
       <c r="AQ256" s="1"/>
       <c r="AR256" s="1"/>
       <c r="AS256" s="1"/>
-      <c r="AT256" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="257">
       <c r="A257" s="1">
         <v>20005</v>
       </c>
-      <c r="B257" s="1"/>
+      <c r="B257" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C257" s="1">
         <v>20006</v>
       </c>
@@ -17993,7 +17982,6 @@
       <c r="AQ257" s="1"/>
       <c r="AR257" s="1"/>
       <c r="AS257" s="1"/>
-      <c r="AT257" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="258">
       <c r="A258" s="1">
@@ -18053,13 +18041,14 @@
       <c r="AQ258" s="1"/>
       <c r="AR258" s="1"/>
       <c r="AS258" s="1"/>
-      <c r="AT258" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="259">
       <c r="A259" s="1">
         <v>20007</v>
       </c>
-      <c r="B259" s="1"/>
+      <c r="B259" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C259" s="1">
         <v>20008</v>
       </c>
@@ -18119,7 +18108,6 @@
       <c r="AQ259" s="1"/>
       <c r="AR259" s="1"/>
       <c r="AS259" s="1"/>
-      <c r="AT259" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="260">
       <c r="A260" s="1">
@@ -18179,13 +18167,14 @@
       <c r="AQ260" s="1"/>
       <c r="AR260" s="1"/>
       <c r="AS260" s="1"/>
-      <c r="AT260" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="261">
       <c r="A261" s="1">
         <v>20009</v>
       </c>
-      <c r="B261" s="1"/>
+      <c r="B261" s="1" t="str">
+        <v>双层翅膀</v>
+      </c>
       <c r="C261" s="1">
         <v>20010</v>
       </c>
@@ -18245,7 +18234,6 @@
       <c r="AQ261" s="1"/>
       <c r="AR261" s="1"/>
       <c r="AS261" s="1"/>
-      <c r="AT261" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="262">
       <c r="A262" s="1">
@@ -18305,13 +18293,14 @@
       <c r="AQ262" s="1"/>
       <c r="AR262" s="1"/>
       <c r="AS262" s="1"/>
-      <c r="AT262" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="263">
       <c r="A263" s="1">
         <v>20011</v>
       </c>
-      <c r="B263" s="1"/>
+      <c r="B263" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C263" s="1">
         <v>20012</v>
       </c>
@@ -18371,7 +18360,6 @@
       <c r="AQ263" s="1"/>
       <c r="AR263" s="1"/>
       <c r="AS263" s="1"/>
-      <c r="AT263" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="264">
       <c r="A264" s="1">
@@ -18431,13 +18419,14 @@
       <c r="AQ264" s="1"/>
       <c r="AR264" s="1"/>
       <c r="AS264" s="1"/>
-      <c r="AT264" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="265">
       <c r="A265" s="1">
         <v>20013</v>
       </c>
-      <c r="B265" s="1"/>
+      <c r="B265" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C265" s="1">
         <v>20014</v>
       </c>
@@ -18497,7 +18486,6 @@
       <c r="AQ265" s="1"/>
       <c r="AR265" s="1"/>
       <c r="AS265" s="1"/>
-      <c r="AT265" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="266">
       <c r="A266" s="1">
@@ -18557,13 +18545,14 @@
       <c r="AQ266" s="1"/>
       <c r="AR266" s="1"/>
       <c r="AS266" s="1"/>
-      <c r="AT266" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="267">
       <c r="A267" s="1">
         <v>20015</v>
       </c>
-      <c r="B267" s="1"/>
+      <c r="B267" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C267" s="1">
         <v>20016</v>
       </c>
@@ -18623,7 +18612,6 @@
       <c r="AQ267" s="1"/>
       <c r="AR267" s="1"/>
       <c r="AS267" s="1"/>
-      <c r="AT267" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="268">
       <c r="A268" s="1">
@@ -18683,13 +18671,14 @@
       <c r="AQ268" s="1"/>
       <c r="AR268" s="1"/>
       <c r="AS268" s="1"/>
-      <c r="AT268" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="269">
       <c r="A269" s="1">
         <v>20017</v>
       </c>
-      <c r="B269" s="1"/>
+      <c r="B269" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C269" s="1">
         <v>20018</v>
       </c>
@@ -18749,7 +18738,6 @@
       <c r="AQ269" s="1"/>
       <c r="AR269" s="1"/>
       <c r="AS269" s="1"/>
-      <c r="AT269" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="270">
       <c r="A270" s="1">
@@ -18809,13 +18797,14 @@
       <c r="AQ270" s="1"/>
       <c r="AR270" s="1"/>
       <c r="AS270" s="1"/>
-      <c r="AT270" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="271">
       <c r="A271" s="1">
         <v>20019</v>
       </c>
-      <c r="B271" s="1"/>
+      <c r="B271" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C271" s="1">
         <v>20020</v>
       </c>
@@ -18875,7 +18864,6 @@
       <c r="AQ271" s="1"/>
       <c r="AR271" s="1"/>
       <c r="AS271" s="1"/>
-      <c r="AT271" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="272">
       <c r="A272" s="1">
@@ -18935,13 +18923,14 @@
       <c r="AQ272" s="1"/>
       <c r="AR272" s="1"/>
       <c r="AS272" s="1"/>
-      <c r="AT272" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="273">
       <c r="A273" s="1">
         <v>20021</v>
       </c>
-      <c r="B273" s="1"/>
+      <c r="B273" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C273" s="1">
         <v>20022</v>
       </c>
@@ -19001,7 +18990,6 @@
       <c r="AQ273" s="1"/>
       <c r="AR273" s="1"/>
       <c r="AS273" s="1"/>
-      <c r="AT273" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="274">
       <c r="A274" s="1">
@@ -19061,13 +19049,14 @@
       <c r="AQ274" s="1"/>
       <c r="AR274" s="1"/>
       <c r="AS274" s="1"/>
-      <c r="AT274" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="275">
       <c r="A275" s="1">
         <v>20023</v>
       </c>
-      <c r="B275" s="1"/>
+      <c r="B275" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C275" s="1">
         <v>20024</v>
       </c>
@@ -19127,7 +19116,6 @@
       <c r="AQ275" s="1"/>
       <c r="AR275" s="1"/>
       <c r="AS275" s="1"/>
-      <c r="AT275" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="276">
       <c r="A276" s="1">
@@ -19187,13 +19175,14 @@
       <c r="AQ276" s="1"/>
       <c r="AR276" s="1"/>
       <c r="AS276" s="1"/>
-      <c r="AT276" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="277">
       <c r="A277" s="1">
         <v>20025</v>
       </c>
-      <c r="B277" s="1"/>
+      <c r="B277" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C277" s="1">
         <v>20026</v>
       </c>
@@ -19253,7 +19242,6 @@
       <c r="AQ277" s="1"/>
       <c r="AR277" s="1"/>
       <c r="AS277" s="1"/>
-      <c r="AT277" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="278">
       <c r="A278" s="1">
@@ -19313,13 +19301,14 @@
       <c r="AQ278" s="1"/>
       <c r="AR278" s="1"/>
       <c r="AS278" s="1"/>
-      <c r="AT278" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="279">
       <c r="A279" s="1">
         <v>20027</v>
       </c>
-      <c r="B279" s="1"/>
+      <c r="B279" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C279" s="1">
         <v>20028</v>
       </c>
@@ -19379,7 +19368,6 @@
       <c r="AQ279" s="1"/>
       <c r="AR279" s="1"/>
       <c r="AS279" s="1"/>
-      <c r="AT279" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="280">
       <c r="A280" s="1">
@@ -19439,13 +19427,14 @@
       <c r="AQ280" s="1"/>
       <c r="AR280" s="1"/>
       <c r="AS280" s="1"/>
-      <c r="AT280" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="281">
       <c r="A281" s="1">
         <v>20029</v>
       </c>
-      <c r="B281" s="1"/>
+      <c r="B281" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C281" s="1">
         <v>20030</v>
       </c>
@@ -19505,7 +19494,6 @@
       <c r="AQ281" s="1"/>
       <c r="AR281" s="1"/>
       <c r="AS281" s="1"/>
-      <c r="AT281" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="282">
       <c r="A282" s="1">
@@ -19565,13 +19553,14 @@
       <c r="AQ282" s="1"/>
       <c r="AR282" s="1"/>
       <c r="AS282" s="1"/>
-      <c r="AT282" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="283">
       <c r="A283" s="1">
         <v>20031</v>
       </c>
-      <c r="B283" s="1"/>
+      <c r="B283" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C283" s="1">
         <v>20032</v>
       </c>
@@ -19631,7 +19620,6 @@
       <c r="AQ283" s="1"/>
       <c r="AR283" s="1"/>
       <c r="AS283" s="1"/>
-      <c r="AT283" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="284">
       <c r="A284" s="1">
@@ -19691,13 +19679,14 @@
       <c r="AQ284" s="1"/>
       <c r="AR284" s="1"/>
       <c r="AS284" s="1"/>
-      <c r="AT284" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="285">
       <c r="A285" s="1">
         <v>20033</v>
       </c>
-      <c r="B285" s="1"/>
+      <c r="B285" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C285" s="1">
         <v>20034</v>
       </c>
@@ -19757,7 +19746,6 @@
       <c r="AQ285" s="1"/>
       <c r="AR285" s="1"/>
       <c r="AS285" s="1"/>
-      <c r="AT285" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="286">
       <c r="A286" s="1">
@@ -19817,13 +19805,14 @@
       <c r="AQ286" s="1"/>
       <c r="AR286" s="1"/>
       <c r="AS286" s="1"/>
-      <c r="AT286" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="287">
       <c r="A287" s="1">
         <v>20035</v>
       </c>
-      <c r="B287" s="1"/>
+      <c r="B287" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C287" s="1">
         <v>20036</v>
       </c>
@@ -19883,7 +19872,6 @@
       <c r="AQ287" s="1"/>
       <c r="AR287" s="1"/>
       <c r="AS287" s="1"/>
-      <c r="AT287" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="288">
       <c r="A288" s="1">
@@ -19943,13 +19931,14 @@
       <c r="AQ288" s="1"/>
       <c r="AR288" s="1"/>
       <c r="AS288" s="1"/>
-      <c r="AT288" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="289">
       <c r="A289" s="1">
         <v>20037</v>
       </c>
-      <c r="B289" s="1"/>
+      <c r="B289" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C289" s="1">
         <v>20038</v>
       </c>
@@ -20009,7 +19998,6 @@
       <c r="AQ289" s="1"/>
       <c r="AR289" s="1"/>
       <c r="AS289" s="1"/>
-      <c r="AT289" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="290">
       <c r="A290" s="1">
@@ -20069,13 +20057,14 @@
       <c r="AQ290" s="1"/>
       <c r="AR290" s="1"/>
       <c r="AS290" s="1"/>
-      <c r="AT290" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="291">
       <c r="A291" s="1">
         <v>20039</v>
       </c>
-      <c r="B291" s="1"/>
+      <c r="B291" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C291" s="1">
         <v>20040</v>
       </c>
@@ -20135,7 +20124,6 @@
       <c r="AQ291" s="1"/>
       <c r="AR291" s="1"/>
       <c r="AS291" s="1"/>
-      <c r="AT291" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="292">
       <c r="A292" s="1">
@@ -20195,13 +20183,14 @@
       <c r="AQ292" s="1"/>
       <c r="AR292" s="1"/>
       <c r="AS292" s="1"/>
-      <c r="AT292" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="293">
       <c r="A293" s="1">
         <v>20041</v>
       </c>
-      <c r="B293" s="1"/>
+      <c r="B293" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C293" s="1">
         <v>20042</v>
       </c>
@@ -20261,7 +20250,6 @@
       <c r="AQ293" s="1"/>
       <c r="AR293" s="1"/>
       <c r="AS293" s="1"/>
-      <c r="AT293" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="294">
       <c r="A294" s="1">
@@ -20321,13 +20309,14 @@
       <c r="AQ294" s="1"/>
       <c r="AR294" s="1"/>
       <c r="AS294" s="1"/>
-      <c r="AT294" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="295">
       <c r="A295" s="1">
         <v>20043</v>
       </c>
-      <c r="B295" s="1"/>
+      <c r="B295" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C295" s="1">
         <v>20044</v>
       </c>
@@ -20387,7 +20376,6 @@
       <c r="AQ295" s="1"/>
       <c r="AR295" s="1"/>
       <c r="AS295" s="1"/>
-      <c r="AT295" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="296">
       <c r="A296" s="1">
@@ -20447,13 +20435,14 @@
       <c r="AQ296" s="1"/>
       <c r="AR296" s="1"/>
       <c r="AS296" s="1"/>
-      <c r="AT296" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="297">
       <c r="A297" s="1">
         <v>20045</v>
       </c>
-      <c r="B297" s="1"/>
+      <c r="B297" s="1" t="str">
+        <v>六翼翅膀</v>
+      </c>
       <c r="C297" s="1">
         <v>20046</v>
       </c>
@@ -20513,7 +20502,6 @@
       <c r="AQ297" s="1"/>
       <c r="AR297" s="1"/>
       <c r="AS297" s="1"/>
-      <c r="AT297" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="298">
       <c r="A298" s="1">
@@ -20573,13 +20561,14 @@
       <c r="AQ298" s="1"/>
       <c r="AR298" s="1"/>
       <c r="AS298" s="1"/>
-      <c r="AT298" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="299">
       <c r="A299" s="1">
         <v>20047</v>
       </c>
-      <c r="B299" s="1"/>
+      <c r="B299" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C299" s="1">
         <v>20048</v>
       </c>
@@ -20639,7 +20628,6 @@
       <c r="AQ299" s="1"/>
       <c r="AR299" s="1"/>
       <c r="AS299" s="1"/>
-      <c r="AT299" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="300">
       <c r="A300" s="1">
@@ -20699,13 +20687,14 @@
       <c r="AQ300" s="1"/>
       <c r="AR300" s="1"/>
       <c r="AS300" s="1"/>
-      <c r="AT300" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="301">
       <c r="A301" s="1">
         <v>20049</v>
       </c>
-      <c r="B301" s="1"/>
+      <c r="B301" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C301" s="1">
         <v>20050</v>
       </c>
@@ -20765,7 +20754,6 @@
       <c r="AQ301" s="1"/>
       <c r="AR301" s="1"/>
       <c r="AS301" s="1"/>
-      <c r="AT301" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="302">
       <c r="A302" s="1">
@@ -20825,13 +20813,14 @@
       <c r="AQ302" s="1"/>
       <c r="AR302" s="1"/>
       <c r="AS302" s="1"/>
-      <c r="AT302" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="303">
       <c r="A303" s="1">
         <v>20051</v>
       </c>
-      <c r="B303" s="1"/>
+      <c r="B303" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C303" s="1">
         <v>20052</v>
       </c>
@@ -20891,7 +20880,6 @@
       <c r="AQ303" s="1"/>
       <c r="AR303" s="1"/>
       <c r="AS303" s="1"/>
-      <c r="AT303" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="304">
       <c r="A304" s="1">
@@ -20951,13 +20939,14 @@
       <c r="AQ304" s="1"/>
       <c r="AR304" s="1"/>
       <c r="AS304" s="1"/>
-      <c r="AT304" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="305">
       <c r="A305" s="1">
         <v>20053</v>
       </c>
-      <c r="B305" s="1"/>
+      <c r="B305" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C305" s="1">
         <v>20054</v>
       </c>
@@ -21017,7 +21006,6 @@
       <c r="AQ305" s="1"/>
       <c r="AR305" s="1"/>
       <c r="AS305" s="1"/>
-      <c r="AT305" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="306">
       <c r="A306" s="1">
@@ -21077,13 +21065,14 @@
       <c r="AQ306" s="1"/>
       <c r="AR306" s="1"/>
       <c r="AS306" s="1"/>
-      <c r="AT306" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="307">
       <c r="A307" s="1">
         <v>20055</v>
       </c>
-      <c r="B307" s="1"/>
+      <c r="B307" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C307" s="1">
         <v>20056</v>
       </c>
@@ -21143,7 +21132,6 @@
       <c r="AQ307" s="1"/>
       <c r="AR307" s="1"/>
       <c r="AS307" s="1"/>
-      <c r="AT307" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="308">
       <c r="A308" s="1">
@@ -21203,13 +21191,14 @@
       <c r="AQ308" s="1"/>
       <c r="AR308" s="1"/>
       <c r="AS308" s="1"/>
-      <c r="AT308" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="309">
       <c r="A309" s="1">
         <v>20057</v>
       </c>
-      <c r="B309" s="1"/>
+      <c r="B309" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C309" s="1">
         <v>20058</v>
       </c>
@@ -21269,7 +21258,6 @@
       <c r="AQ309" s="1"/>
       <c r="AR309" s="1"/>
       <c r="AS309" s="1"/>
-      <c r="AT309" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="310">
       <c r="A310" s="1">
@@ -21329,13 +21317,14 @@
       <c r="AQ310" s="1"/>
       <c r="AR310" s="1"/>
       <c r="AS310" s="1"/>
-      <c r="AT310" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="311">
       <c r="A311" s="1">
         <v>20059</v>
       </c>
-      <c r="B311" s="1"/>
+      <c r="B311" s="1" t="str">
+        <v>翅膀</v>
+      </c>
       <c r="C311" s="1">
         <v>20060</v>
       </c>
@@ -21395,7 +21384,6 @@
       <c r="AQ311" s="1"/>
       <c r="AR311" s="1"/>
       <c r="AS311" s="1"/>
-      <c r="AT311" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="312">
       <c r="A312" s="1">
@@ -21455,13 +21443,14 @@
       <c r="AQ312" s="1"/>
       <c r="AR312" s="1"/>
       <c r="AS312" s="1"/>
-      <c r="AT312" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="313">
       <c r="A313" s="1">
         <v>20061</v>
       </c>
-      <c r="B313" s="1"/>
+      <c r="B313" s="1" t="str">
+        <v>火焰翅膀</v>
+      </c>
       <c r="C313" s="1">
         <v>20062</v>
       </c>
@@ -21521,7 +21510,6 @@
       <c r="AQ313" s="1"/>
       <c r="AR313" s="1"/>
       <c r="AS313" s="1"/>
-      <c r="AT313" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="314">
       <c r="A314" s="1">
@@ -21581,13 +21569,14 @@
       <c r="AQ314" s="1"/>
       <c r="AR314" s="1"/>
       <c r="AS314" s="1"/>
-      <c r="AT314" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="315">
       <c r="A315" s="1">
         <v>30001</v>
       </c>
-      <c r="B315" s="1"/>
+      <c r="B315" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C315" s="1">
         <v>30002</v>
       </c>
@@ -21645,7 +21634,6 @@
       <c r="AQ315" s="1"/>
       <c r="AR315" s="1"/>
       <c r="AS315" s="1"/>
-      <c r="AT315" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="316">
       <c r="A316" s="1">
@@ -21721,13 +21709,14 @@
       <c r="AQ316" s="1"/>
       <c r="AR316" s="1"/>
       <c r="AS316" s="1"/>
-      <c r="AT316" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="317">
       <c r="A317" s="1">
         <v>30003</v>
       </c>
-      <c r="B317" s="1"/>
+      <c r="B317" s="1" t="str">
+        <v>炮弹</v>
+      </c>
       <c r="C317" s="1">
         <v>30004</v>
       </c>
@@ -21791,7 +21780,6 @@
       <c r="AQ317" s="1"/>
       <c r="AR317" s="1"/>
       <c r="AS317" s="1"/>
-      <c r="AT317" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="318">
       <c r="A318" s="1">
@@ -21871,13 +21859,14 @@
       <c r="AQ318" s="1"/>
       <c r="AR318" s="1"/>
       <c r="AS318" s="1"/>
-      <c r="AT318" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="319">
       <c r="A319" s="1">
         <v>30005</v>
       </c>
-      <c r="B319" s="1"/>
+      <c r="B319" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C319" s="1">
         <v>30006</v>
       </c>
@@ -21935,7 +21924,6 @@
       <c r="AQ319" s="1"/>
       <c r="AR319" s="1"/>
       <c r="AS319" s="1"/>
-      <c r="AT319" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="320">
       <c r="A320" s="1">
@@ -22011,13 +21999,14 @@
       <c r="AQ320" s="1"/>
       <c r="AR320" s="1"/>
       <c r="AS320" s="1"/>
-      <c r="AT320" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="321">
       <c r="A321" s="1">
         <v>30007</v>
       </c>
-      <c r="B321" s="1"/>
+      <c r="B321" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C321" s="1">
         <v>30008</v>
       </c>
@@ -22075,7 +22064,6 @@
       <c r="AQ321" s="1"/>
       <c r="AR321" s="1"/>
       <c r="AS321" s="1"/>
-      <c r="AT321" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="322">
       <c r="A322" s="1">
@@ -22151,13 +22139,14 @@
       <c r="AQ322" s="1"/>
       <c r="AR322" s="1"/>
       <c r="AS322" s="1"/>
-      <c r="AT322" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="323">
       <c r="A323" s="1">
         <v>30009</v>
       </c>
-      <c r="B323" s="1"/>
+      <c r="B323" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C323" s="1">
         <v>30010</v>
       </c>
@@ -22215,7 +22204,6 @@
       <c r="AQ323" s="1"/>
       <c r="AR323" s="1"/>
       <c r="AS323" s="1"/>
-      <c r="AT323" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="324">
       <c r="A324" s="1">
@@ -22291,13 +22279,14 @@
       <c r="AQ324" s="1"/>
       <c r="AR324" s="1"/>
       <c r="AS324" s="1"/>
-      <c r="AT324" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="325">
       <c r="A325" s="1">
         <v>30011</v>
       </c>
-      <c r="B325" s="1"/>
+      <c r="B325" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C325" s="1">
         <v>30012</v>
       </c>
@@ -22355,7 +22344,6 @@
       <c r="AQ325" s="1"/>
       <c r="AR325" s="1"/>
       <c r="AS325" s="1"/>
-      <c r="AT325" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="326">
       <c r="A326" s="1">
@@ -22431,13 +22419,14 @@
       <c r="AQ326" s="1"/>
       <c r="AR326" s="1"/>
       <c r="AS326" s="1"/>
-      <c r="AT326" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="327">
       <c r="A327" s="1">
         <v>30013</v>
       </c>
-      <c r="B327" s="1"/>
+      <c r="B327" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C327" s="1">
         <v>30014</v>
       </c>
@@ -22495,7 +22484,6 @@
       <c r="AQ327" s="1"/>
       <c r="AR327" s="1"/>
       <c r="AS327" s="1"/>
-      <c r="AT327" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="328">
       <c r="A328" s="1">
@@ -22571,13 +22559,14 @@
       <c r="AQ328" s="1"/>
       <c r="AR328" s="1"/>
       <c r="AS328" s="1"/>
-      <c r="AT328" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="329">
       <c r="A329" s="1">
         <v>30015</v>
       </c>
-      <c r="B329" s="1"/>
+      <c r="B329" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C329" s="1">
         <v>30016</v>
       </c>
@@ -22635,7 +22624,6 @@
       <c r="AQ329" s="1"/>
       <c r="AR329" s="1"/>
       <c r="AS329" s="1"/>
-      <c r="AT329" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="330">
       <c r="A330" s="1">
@@ -22711,13 +22699,14 @@
       <c r="AQ330" s="1"/>
       <c r="AR330" s="1"/>
       <c r="AS330" s="1"/>
-      <c r="AT330" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="331">
       <c r="A331" s="1">
         <v>30017</v>
       </c>
-      <c r="B331" s="1"/>
+      <c r="B331" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C331" s="1">
         <v>30018</v>
       </c>
@@ -22775,7 +22764,6 @@
       <c r="AQ331" s="1"/>
       <c r="AR331" s="1"/>
       <c r="AS331" s="1"/>
-      <c r="AT331" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="332">
       <c r="A332" s="1">
@@ -22851,13 +22839,14 @@
       <c r="AQ332" s="1"/>
       <c r="AR332" s="1"/>
       <c r="AS332" s="1"/>
-      <c r="AT332" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="333">
       <c r="A333" s="1">
         <v>30019</v>
       </c>
-      <c r="B333" s="1"/>
+      <c r="B333" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C333" s="1">
         <v>30020</v>
       </c>
@@ -22915,7 +22904,6 @@
       <c r="AQ333" s="1"/>
       <c r="AR333" s="1"/>
       <c r="AS333" s="1"/>
-      <c r="AT333" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="334">
       <c r="A334" s="1">
@@ -22991,13 +22979,14 @@
       <c r="AQ334" s="1"/>
       <c r="AR334" s="1"/>
       <c r="AS334" s="1"/>
-      <c r="AT334" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="335">
       <c r="A335" s="1">
         <v>30021</v>
       </c>
-      <c r="B335" s="1"/>
+      <c r="B335" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C335" s="1">
         <v>30022</v>
       </c>
@@ -23055,7 +23044,6 @@
       <c r="AQ335" s="1"/>
       <c r="AR335" s="1"/>
       <c r="AS335" s="1"/>
-      <c r="AT335" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="336">
       <c r="A336" s="1">
@@ -23131,13 +23119,14 @@
       <c r="AQ336" s="1"/>
       <c r="AR336" s="1"/>
       <c r="AS336" s="1"/>
-      <c r="AT336" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="337">
       <c r="A337" s="1">
         <v>30023</v>
       </c>
-      <c r="B337" s="1"/>
+      <c r="B337" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C337" s="1">
         <v>30024</v>
       </c>
@@ -23195,7 +23184,6 @@
       <c r="AQ337" s="1"/>
       <c r="AR337" s="1"/>
       <c r="AS337" s="1"/>
-      <c r="AT337" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="338">
       <c r="A338" s="1">
@@ -23271,13 +23259,14 @@
       <c r="AQ338" s="1"/>
       <c r="AR338" s="1"/>
       <c r="AS338" s="1"/>
-      <c r="AT338" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="339">
       <c r="A339" s="1">
         <v>30025</v>
       </c>
-      <c r="B339" s="1"/>
+      <c r="B339" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C339" s="1">
         <v>30026</v>
       </c>
@@ -23335,7 +23324,6 @@
       <c r="AQ339" s="1"/>
       <c r="AR339" s="1"/>
       <c r="AS339" s="1"/>
-      <c r="AT339" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="340">
       <c r="A340" s="1">
@@ -23411,13 +23399,14 @@
       <c r="AQ340" s="1"/>
       <c r="AR340" s="1"/>
       <c r="AS340" s="1"/>
-      <c r="AT340" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="341">
       <c r="A341" s="1">
         <v>30027</v>
       </c>
-      <c r="B341" s="1"/>
+      <c r="B341" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C341" s="1">
         <v>30028</v>
       </c>
@@ -23475,7 +23464,6 @@
       <c r="AQ341" s="1"/>
       <c r="AR341" s="1"/>
       <c r="AS341" s="1"/>
-      <c r="AT341" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="342">
       <c r="A342" s="1">
@@ -23551,13 +23539,14 @@
       <c r="AQ342" s="1"/>
       <c r="AR342" s="1"/>
       <c r="AS342" s="1"/>
-      <c r="AT342" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="343">
       <c r="A343" s="1">
         <v>30029</v>
       </c>
-      <c r="B343" s="1"/>
+      <c r="B343" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C343" s="1">
         <v>30030</v>
       </c>
@@ -23615,7 +23604,6 @@
       <c r="AQ343" s="1"/>
       <c r="AR343" s="1"/>
       <c r="AS343" s="1"/>
-      <c r="AT343" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="344">
       <c r="A344" s="1">
@@ -23691,13 +23679,14 @@
       <c r="AQ344" s="1"/>
       <c r="AR344" s="1"/>
       <c r="AS344" s="1"/>
-      <c r="AT344" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="345">
       <c r="A345" s="1">
         <v>30031</v>
       </c>
-      <c r="B345" s="1"/>
+      <c r="B345" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C345" s="1">
         <v>30032</v>
       </c>
@@ -23755,7 +23744,6 @@
       <c r="AQ345" s="1"/>
       <c r="AR345" s="1"/>
       <c r="AS345" s="1"/>
-      <c r="AT345" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="346">
       <c r="A346" s="1">
@@ -23831,13 +23819,14 @@
       <c r="AQ346" s="1"/>
       <c r="AR346" s="1"/>
       <c r="AS346" s="1"/>
-      <c r="AT346" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="347">
       <c r="A347" s="1">
         <v>30033</v>
       </c>
-      <c r="B347" s="1"/>
+      <c r="B347" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C347" s="1">
         <v>30034</v>
       </c>
@@ -23895,7 +23884,6 @@
       <c r="AQ347" s="1"/>
       <c r="AR347" s="1"/>
       <c r="AS347" s="1"/>
-      <c r="AT347" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="348">
       <c r="A348" s="1">
@@ -23971,13 +23959,14 @@
       <c r="AQ348" s="1"/>
       <c r="AR348" s="1"/>
       <c r="AS348" s="1"/>
-      <c r="AT348" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="349">
       <c r="A349" s="1">
         <v>30035</v>
       </c>
-      <c r="B349" s="1"/>
+      <c r="B349" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C349" s="1">
         <v>30036</v>
       </c>
@@ -24035,7 +24024,6 @@
       <c r="AQ349" s="1"/>
       <c r="AR349" s="1"/>
       <c r="AS349" s="1"/>
-      <c r="AT349" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="350">
       <c r="A350" s="1">
@@ -24111,13 +24099,14 @@
       <c r="AQ350" s="1"/>
       <c r="AR350" s="1"/>
       <c r="AS350" s="1"/>
-      <c r="AT350" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="351">
       <c r="A351" s="1">
         <v>30037</v>
       </c>
-      <c r="B351" s="1"/>
+      <c r="B351" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C351" s="1">
         <v>30038</v>
       </c>
@@ -24175,7 +24164,6 @@
       <c r="AQ351" s="1"/>
       <c r="AR351" s="1"/>
       <c r="AS351" s="1"/>
-      <c r="AT351" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="352">
       <c r="A352" s="1">
@@ -24251,13 +24239,14 @@
       <c r="AQ352" s="1"/>
       <c r="AR352" s="1"/>
       <c r="AS352" s="1"/>
-      <c r="AT352" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="353">
       <c r="A353" s="1">
         <v>30039</v>
       </c>
-      <c r="B353" s="1"/>
+      <c r="B353" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C353" s="1">
         <v>30040</v>
       </c>
@@ -24315,7 +24304,6 @@
       <c r="AQ353" s="1"/>
       <c r="AR353" s="1"/>
       <c r="AS353" s="1"/>
-      <c r="AT353" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="354">
       <c r="A354" s="1">
@@ -24391,13 +24379,14 @@
       <c r="AQ354" s="1"/>
       <c r="AR354" s="1"/>
       <c r="AS354" s="1"/>
-      <c r="AT354" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="355">
       <c r="A355" s="1">
         <v>30041</v>
       </c>
-      <c r="B355" s="1"/>
+      <c r="B355" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C355" s="1">
         <v>30042</v>
       </c>
@@ -24455,7 +24444,6 @@
       <c r="AQ355" s="1"/>
       <c r="AR355" s="1"/>
       <c r="AS355" s="1"/>
-      <c r="AT355" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="356">
       <c r="A356" s="1">
@@ -24531,13 +24519,14 @@
       <c r="AQ356" s="1"/>
       <c r="AR356" s="1"/>
       <c r="AS356" s="1"/>
-      <c r="AT356" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="357">
       <c r="A357" s="1">
         <v>30043</v>
       </c>
-      <c r="B357" s="1"/>
+      <c r="B357" s="1" t="str">
+        <v>烟花筒</v>
+      </c>
       <c r="C357" s="1">
         <v>30044</v>
       </c>
@@ -24595,7 +24584,6 @@
       <c r="AQ357" s="1"/>
       <c r="AR357" s="1"/>
       <c r="AS357" s="1"/>
-      <c r="AT357" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="358">
       <c r="A358" s="1">
@@ -24671,13 +24659,14 @@
       <c r="AQ358" s="1"/>
       <c r="AR358" s="1"/>
       <c r="AS358" s="1"/>
-      <c r="AT358" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="359">
       <c r="A359" s="1">
         <v>30045</v>
       </c>
-      <c r="B359" s="1"/>
+      <c r="B359" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C359" s="1">
         <v>30046</v>
       </c>
@@ -24735,7 +24724,6 @@
       <c r="AQ359" s="1"/>
       <c r="AR359" s="1"/>
       <c r="AS359" s="1"/>
-      <c r="AT359" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="360">
       <c r="A360" s="1">
@@ -24811,13 +24799,14 @@
       <c r="AQ360" s="1"/>
       <c r="AR360" s="1"/>
       <c r="AS360" s="1"/>
-      <c r="AT360" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="361">
       <c r="A361" s="1">
         <v>30047</v>
       </c>
-      <c r="B361" s="1"/>
+      <c r="B361" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C361" s="1">
         <v>30048</v>
       </c>
@@ -24875,7 +24864,6 @@
       <c r="AQ361" s="1"/>
       <c r="AR361" s="1"/>
       <c r="AS361" s="1"/>
-      <c r="AT361" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="362">
       <c r="A362" s="1">
@@ -24951,13 +24939,14 @@
       <c r="AQ362" s="1"/>
       <c r="AR362" s="1"/>
       <c r="AS362" s="1"/>
-      <c r="AT362" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="363">
       <c r="A363" s="1">
         <v>30049</v>
       </c>
-      <c r="B363" s="1"/>
+      <c r="B363" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C363" s="1">
         <v>30050</v>
       </c>
@@ -25015,7 +25004,6 @@
       <c r="AQ363" s="1"/>
       <c r="AR363" s="1"/>
       <c r="AS363" s="1"/>
-      <c r="AT363" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="364">
       <c r="A364" s="1">
@@ -25091,13 +25079,14 @@
       <c r="AQ364" s="1"/>
       <c r="AR364" s="1"/>
       <c r="AS364" s="1"/>
-      <c r="AT364" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="365">
       <c r="A365" s="1">
         <v>30051</v>
       </c>
-      <c r="B365" s="1"/>
+      <c r="B365" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C365" s="1">
         <v>30052</v>
       </c>
@@ -25155,7 +25144,6 @@
       <c r="AQ365" s="1"/>
       <c r="AR365" s="1"/>
       <c r="AS365" s="1"/>
-      <c r="AT365" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="366">
       <c r="A366" s="1">
@@ -25231,13 +25219,14 @@
       <c r="AQ366" s="1"/>
       <c r="AR366" s="1"/>
       <c r="AS366" s="1"/>
-      <c r="AT366" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="367">
       <c r="A367" s="1">
         <v>30053</v>
       </c>
-      <c r="B367" s="1"/>
+      <c r="B367" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C367" s="1">
         <v>30054</v>
       </c>
@@ -25295,7 +25284,6 @@
       <c r="AQ367" s="1"/>
       <c r="AR367" s="1"/>
       <c r="AS367" s="1"/>
-      <c r="AT367" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="368">
       <c r="A368" s="1">
@@ -25371,13 +25359,14 @@
       <c r="AQ368" s="1"/>
       <c r="AR368" s="1"/>
       <c r="AS368" s="1"/>
-      <c r="AT368" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="369">
       <c r="A369" s="1">
         <v>30055</v>
       </c>
-      <c r="B369" s="1"/>
+      <c r="B369" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C369" s="1">
         <v>30056</v>
       </c>
@@ -25435,7 +25424,6 @@
       <c r="AQ369" s="1"/>
       <c r="AR369" s="1"/>
       <c r="AS369" s="1"/>
-      <c r="AT369" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="370">
       <c r="A370" s="1">
@@ -25511,13 +25499,14 @@
       <c r="AQ370" s="1"/>
       <c r="AR370" s="1"/>
       <c r="AS370" s="1"/>
-      <c r="AT370" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="371">
       <c r="A371" s="1">
         <v>30057</v>
       </c>
-      <c r="B371" s="1"/>
+      <c r="B371" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C371" s="1">
         <v>30058</v>
       </c>
@@ -25575,7 +25564,6 @@
       <c r="AQ371" s="1"/>
       <c r="AR371" s="1"/>
       <c r="AS371" s="1"/>
-      <c r="AT371" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="372">
       <c r="A372" s="1">
@@ -25651,13 +25639,14 @@
       <c r="AQ372" s="1"/>
       <c r="AR372" s="1"/>
       <c r="AS372" s="1"/>
-      <c r="AT372" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="373">
       <c r="A373" s="1">
         <v>30059</v>
       </c>
-      <c r="B373" s="1"/>
+      <c r="B373" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C373" s="1">
         <v>30060</v>
       </c>
@@ -25715,7 +25704,6 @@
       <c r="AQ373" s="1"/>
       <c r="AR373" s="1"/>
       <c r="AS373" s="1"/>
-      <c r="AT373" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="374">
       <c r="A374" s="1">
@@ -25791,13 +25779,14 @@
       <c r="AQ374" s="1"/>
       <c r="AR374" s="1"/>
       <c r="AS374" s="1"/>
-      <c r="AT374" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="375">
       <c r="A375" s="1">
         <v>30061</v>
       </c>
-      <c r="B375" s="1"/>
+      <c r="B375" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C375" s="1">
         <v>30062</v>
       </c>
@@ -25855,7 +25844,6 @@
       <c r="AQ375" s="1"/>
       <c r="AR375" s="1"/>
       <c r="AS375" s="1"/>
-      <c r="AT375" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="376">
       <c r="A376" s="1">
@@ -25931,13 +25919,14 @@
       <c r="AQ376" s="1"/>
       <c r="AR376" s="1"/>
       <c r="AS376" s="1"/>
-      <c r="AT376" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="377">
       <c r="A377" s="1">
         <v>30063</v>
       </c>
-      <c r="B377" s="1"/>
+      <c r="B377" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C377" s="1">
         <v>30064</v>
       </c>
@@ -25995,7 +25984,6 @@
       <c r="AQ377" s="1"/>
       <c r="AR377" s="1"/>
       <c r="AS377" s="1"/>
-      <c r="AT377" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="378">
       <c r="A378" s="1">
@@ -26071,13 +26059,14 @@
       <c r="AQ378" s="1"/>
       <c r="AR378" s="1"/>
       <c r="AS378" s="1"/>
-      <c r="AT378" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="379">
       <c r="A379" s="1">
         <v>30065</v>
       </c>
-      <c r="B379" s="1"/>
+      <c r="B379" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C379" s="1">
         <v>30066</v>
       </c>
@@ -26135,7 +26124,6 @@
       <c r="AQ379" s="1"/>
       <c r="AR379" s="1"/>
       <c r="AS379" s="1"/>
-      <c r="AT379" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="380">
       <c r="A380" s="1">
@@ -26211,13 +26199,14 @@
       <c r="AQ380" s="1"/>
       <c r="AR380" s="1"/>
       <c r="AS380" s="1"/>
-      <c r="AT380" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="381">
       <c r="A381" s="1">
         <v>30067</v>
       </c>
-      <c r="B381" s="1"/>
+      <c r="B381" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C381" s="1">
         <v>30068</v>
       </c>
@@ -26275,7 +26264,6 @@
       <c r="AQ381" s="1"/>
       <c r="AR381" s="1"/>
       <c r="AS381" s="1"/>
-      <c r="AT381" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="382">
       <c r="A382" s="1">
@@ -26351,13 +26339,14 @@
       <c r="AQ382" s="1"/>
       <c r="AR382" s="1"/>
       <c r="AS382" s="1"/>
-      <c r="AT382" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="383">
       <c r="A383" s="1">
         <v>30069</v>
       </c>
-      <c r="B383" s="1"/>
+      <c r="B383" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C383" s="1">
         <v>30070</v>
       </c>
@@ -26415,7 +26404,6 @@
       <c r="AQ383" s="1"/>
       <c r="AR383" s="1"/>
       <c r="AS383" s="1"/>
-      <c r="AT383" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="384">
       <c r="A384" s="1">
@@ -26491,13 +26479,14 @@
       <c r="AQ384" s="1"/>
       <c r="AR384" s="1"/>
       <c r="AS384" s="1"/>
-      <c r="AT384" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="385">
       <c r="A385" s="1">
         <v>30071</v>
       </c>
-      <c r="B385" s="1"/>
+      <c r="B385" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C385" s="1">
         <v>30072</v>
       </c>
@@ -26555,7 +26544,6 @@
       <c r="AQ385" s="1"/>
       <c r="AR385" s="1"/>
       <c r="AS385" s="1"/>
-      <c r="AT385" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="386">
       <c r="A386" s="1">
@@ -26631,13 +26619,14 @@
       <c r="AQ386" s="1"/>
       <c r="AR386" s="1"/>
       <c r="AS386" s="1"/>
-      <c r="AT386" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="387">
       <c r="A387" s="1">
         <v>30073</v>
       </c>
-      <c r="B387" s="1"/>
+      <c r="B387" s="1" t="str">
+        <v>炮竹</v>
+      </c>
       <c r="C387" s="1">
         <v>30074</v>
       </c>
@@ -26695,7 +26684,6 @@
       <c r="AQ387" s="1"/>
       <c r="AR387" s="1"/>
       <c r="AS387" s="1"/>
-      <c r="AT387" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="388">
       <c r="A388" s="1">
@@ -26771,7 +26759,6 @@
       <c r="AQ388" s="1"/>
       <c r="AR388" s="1"/>
       <c r="AS388" s="1"/>
-      <c r="AT388" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="389">
       <c r="A389" s="1">
@@ -26843,7 +26830,6 @@
       <c r="AQ389" s="1"/>
       <c r="AR389" s="1"/>
       <c r="AS389" s="1"/>
-      <c r="AT389" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="390">
       <c r="A390" s="1">
@@ -26915,7 +26901,6 @@
       <c r="AQ390" s="1"/>
       <c r="AR390" s="1"/>
       <c r="AS390" s="1"/>
-      <c r="AT390" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="391">
       <c r="A391" s="1">
@@ -26987,7 +26972,6 @@
       <c r="AQ391" s="1"/>
       <c r="AR391" s="1"/>
       <c r="AS391" s="1"/>
-      <c r="AT391" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="392">
       <c r="A392" s="1">
@@ -27059,7 +27043,6 @@
       <c r="AQ392" s="1"/>
       <c r="AR392" s="1"/>
       <c r="AS392" s="1"/>
-      <c r="AT392" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="393">
       <c r="A393" s="1">
@@ -27131,7 +27114,6 @@
       <c r="AQ393" s="1"/>
       <c r="AR393" s="1"/>
       <c r="AS393" s="1"/>
-      <c r="AT393" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="394">
       <c r="A394" s="1">
@@ -27203,7 +27185,6 @@
       <c r="AQ394" s="1"/>
       <c r="AR394" s="1"/>
       <c r="AS394" s="1"/>
-      <c r="AT394" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="395">
       <c r="A395" s="1">
@@ -27275,7 +27256,6 @@
       <c r="AQ395" s="1"/>
       <c r="AR395" s="1"/>
       <c r="AS395" s="1"/>
-      <c r="AT395" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="396">
       <c r="A396" s="1">
@@ -27355,7 +27335,6 @@
       <c r="AQ396" s="1"/>
       <c r="AR396" s="1"/>
       <c r="AS396" s="1"/>
-      <c r="AT396" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="397">
       <c r="A397" s="1">
@@ -27435,7 +27414,6 @@
       <c r="AQ397" s="1"/>
       <c r="AR397" s="1"/>
       <c r="AS397" s="1"/>
-      <c r="AT397" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="398">
       <c r="A398" s="1">
@@ -27515,7 +27493,6 @@
       <c r="AQ398" s="1"/>
       <c r="AR398" s="1"/>
       <c r="AS398" s="1"/>
-      <c r="AT398" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="399">
       <c r="A399" s="1">
@@ -27595,7 +27572,6 @@
       <c r="AQ399" s="1"/>
       <c r="AR399" s="1"/>
       <c r="AS399" s="1"/>
-      <c r="AT399" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="400">
       <c r="A400" s="1">
@@ -27675,9 +27651,8 @@
       <c r="AQ400" s="1"/>
       <c r="AR400" s="1"/>
       <c r="AS400" s="1"/>
-      <c r="AT400" s="1"/>
-    </row>
-    <row r="401">
+    </row>
+    <row customHeight="true" ht="21" r="401">
       <c r="A401" s="1">
         <v>60013</v>
       </c>
@@ -27747,9 +27722,8 @@
       <c r="AQ401" s="1"/>
       <c r="AR401" s="1"/>
       <c r="AS401" s="1"/>
-      <c r="AT401" s="1"/>
-    </row>
-    <row r="402">
+    </row>
+    <row customHeight="true" ht="21" r="402">
       <c r="A402" s="1">
         <v>60014</v>
       </c>
@@ -27819,2647 +27793,6 @@
       <c r="AQ402" s="1"/>
       <c r="AR402" s="1"/>
       <c r="AS402" s="1"/>
-      <c r="AT402" s="1"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1"/>
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
-      <c r="D403" s="1"/>
-      <c r="E403" s="1"/>
-      <c r="F403" s="1"/>
-      <c r="G403" s="1"/>
-      <c r="H403" s="2"/>
-      <c r="I403" s="1"/>
-      <c r="J403" s="1"/>
-      <c r="K403" s="1"/>
-      <c r="L403" s="1"/>
-      <c r="M403" s="1"/>
-      <c r="N403" s="1"/>
-      <c r="O403" s="1"/>
-      <c r="P403" s="1"/>
-      <c r="Q403" s="1"/>
-      <c r="R403" s="1"/>
-      <c r="S403" s="1"/>
-      <c r="T403" s="1"/>
-      <c r="U403" s="1"/>
-      <c r="V403" s="1"/>
-      <c r="W403" s="1"/>
-      <c r="X403" s="1"/>
-      <c r="Y403" s="1"/>
-      <c r="Z403" s="1"/>
-      <c r="AA403" s="1"/>
-      <c r="AB403" s="1"/>
-      <c r="AC403" s="1"/>
-      <c r="AD403" s="1"/>
-      <c r="AE403" s="1"/>
-      <c r="AF403" s="1"/>
-      <c r="AG403" s="1"/>
-      <c r="AH403" s="1"/>
-      <c r="AI403" s="1"/>
-      <c r="AJ403" s="1"/>
-      <c r="AK403" s="1"/>
-      <c r="AL403" s="1"/>
-      <c r="AM403" s="1"/>
-      <c r="AN403" s="1"/>
-      <c r="AO403" s="1"/>
-      <c r="AP403" s="1"/>
-      <c r="AQ403" s="1"/>
-      <c r="AR403" s="1"/>
-      <c r="AS403" s="1"/>
-      <c r="AT403" s="1"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1"/>
-      <c r="B404" s="1"/>
-      <c r="C404" s="1"/>
-      <c r="D404" s="1"/>
-      <c r="E404" s="1"/>
-      <c r="F404" s="1"/>
-      <c r="G404" s="1"/>
-      <c r="H404" s="2"/>
-      <c r="I404" s="1"/>
-      <c r="J404" s="1"/>
-      <c r="K404" s="1"/>
-      <c r="L404" s="1"/>
-      <c r="M404" s="1"/>
-      <c r="N404" s="1"/>
-      <c r="O404" s="1"/>
-      <c r="P404" s="1"/>
-      <c r="Q404" s="1"/>
-      <c r="R404" s="1"/>
-      <c r="S404" s="1"/>
-      <c r="T404" s="1"/>
-      <c r="U404" s="1"/>
-      <c r="V404" s="1"/>
-      <c r="W404" s="1"/>
-      <c r="X404" s="1"/>
-      <c r="Y404" s="1"/>
-      <c r="Z404" s="1"/>
-      <c r="AA404" s="1"/>
-      <c r="AB404" s="1"/>
-      <c r="AC404" s="1"/>
-      <c r="AD404" s="1"/>
-      <c r="AE404" s="1"/>
-      <c r="AF404" s="1"/>
-      <c r="AG404" s="1"/>
-      <c r="AH404" s="1"/>
-      <c r="AI404" s="1"/>
-      <c r="AJ404" s="1"/>
-      <c r="AK404" s="1"/>
-      <c r="AL404" s="1"/>
-      <c r="AM404" s="1"/>
-      <c r="AN404" s="1"/>
-      <c r="AO404" s="1"/>
-      <c r="AP404" s="1"/>
-      <c r="AQ404" s="1"/>
-      <c r="AR404" s="1"/>
-      <c r="AS404" s="1"/>
-      <c r="AT404" s="1"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1"/>
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-      <c r="D405" s="1"/>
-      <c r="E405" s="1"/>
-      <c r="F405" s="1"/>
-      <c r="G405" s="1"/>
-      <c r="H405" s="2"/>
-      <c r="I405" s="1"/>
-      <c r="J405" s="1"/>
-      <c r="K405" s="1"/>
-      <c r="L405" s="1"/>
-      <c r="M405" s="1"/>
-      <c r="N405" s="1"/>
-      <c r="O405" s="1"/>
-      <c r="P405" s="1"/>
-      <c r="Q405" s="1"/>
-      <c r="R405" s="1"/>
-      <c r="S405" s="1"/>
-      <c r="T405" s="1"/>
-      <c r="U405" s="1"/>
-      <c r="V405" s="1"/>
-      <c r="W405" s="1"/>
-      <c r="X405" s="1"/>
-      <c r="Y405" s="1"/>
-      <c r="Z405" s="1"/>
-      <c r="AA405" s="1"/>
-      <c r="AB405" s="1"/>
-      <c r="AC405" s="1"/>
-      <c r="AD405" s="1"/>
-      <c r="AE405" s="1"/>
-      <c r="AF405" s="1"/>
-      <c r="AG405" s="1"/>
-      <c r="AH405" s="1"/>
-      <c r="AI405" s="1"/>
-      <c r="AJ405" s="1"/>
-      <c r="AK405" s="1"/>
-      <c r="AL405" s="1"/>
-      <c r="AM405" s="1"/>
-      <c r="AN405" s="1"/>
-      <c r="AO405" s="1"/>
-      <c r="AP405" s="1"/>
-      <c r="AQ405" s="1"/>
-      <c r="AR405" s="1"/>
-      <c r="AS405" s="1"/>
-      <c r="AT405" s="1"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1"/>
-      <c r="B406" s="1"/>
-      <c r="C406" s="1"/>
-      <c r="D406" s="1"/>
-      <c r="E406" s="1"/>
-      <c r="F406" s="1"/>
-      <c r="G406" s="1"/>
-      <c r="H406" s="2"/>
-      <c r="I406" s="1"/>
-      <c r="J406" s="1"/>
-      <c r="K406" s="1"/>
-      <c r="L406" s="1"/>
-      <c r="M406" s="1"/>
-      <c r="N406" s="1"/>
-      <c r="O406" s="1"/>
-      <c r="P406" s="1"/>
-      <c r="Q406" s="1"/>
-      <c r="R406" s="1"/>
-      <c r="S406" s="1"/>
-      <c r="T406" s="1"/>
-      <c r="U406" s="1"/>
-      <c r="V406" s="1"/>
-      <c r="W406" s="1"/>
-      <c r="X406" s="1"/>
-      <c r="Y406" s="1"/>
-      <c r="Z406" s="1"/>
-      <c r="AA406" s="1"/>
-      <c r="AB406" s="1"/>
-      <c r="AC406" s="1"/>
-      <c r="AD406" s="1"/>
-      <c r="AE406" s="1"/>
-      <c r="AF406" s="1"/>
-      <c r="AG406" s="1"/>
-      <c r="AH406" s="1"/>
-      <c r="AI406" s="1"/>
-      <c r="AJ406" s="1"/>
-      <c r="AK406" s="1"/>
-      <c r="AL406" s="1"/>
-      <c r="AM406" s="1"/>
-      <c r="AN406" s="1"/>
-      <c r="AO406" s="1"/>
-      <c r="AP406" s="1"/>
-      <c r="AQ406" s="1"/>
-      <c r="AR406" s="1"/>
-      <c r="AS406" s="1"/>
-      <c r="AT406" s="1"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1"/>
-      <c r="B407" s="1"/>
-      <c r="C407" s="1"/>
-      <c r="D407" s="1"/>
-      <c r="E407" s="1"/>
-      <c r="F407" s="1"/>
-      <c r="G407" s="1"/>
-      <c r="H407" s="2"/>
-      <c r="I407" s="1"/>
-      <c r="J407" s="1"/>
-      <c r="K407" s="1"/>
-      <c r="L407" s="1"/>
-      <c r="M407" s="1"/>
-      <c r="N407" s="1"/>
-      <c r="O407" s="1"/>
-      <c r="P407" s="1"/>
-      <c r="Q407" s="1"/>
-      <c r="R407" s="1"/>
-      <c r="S407" s="1"/>
-      <c r="T407" s="1"/>
-      <c r="U407" s="1"/>
-      <c r="V407" s="1"/>
-      <c r="W407" s="1"/>
-      <c r="X407" s="1"/>
-      <c r="Y407" s="1"/>
-      <c r="Z407" s="1"/>
-      <c r="AA407" s="1"/>
-      <c r="AB407" s="1"/>
-      <c r="AC407" s="1"/>
-      <c r="AD407" s="1"/>
-      <c r="AE407" s="1"/>
-      <c r="AF407" s="1"/>
-      <c r="AG407" s="1"/>
-      <c r="AH407" s="1"/>
-      <c r="AI407" s="1"/>
-      <c r="AJ407" s="1"/>
-      <c r="AK407" s="1"/>
-      <c r="AL407" s="1"/>
-      <c r="AM407" s="1"/>
-      <c r="AN407" s="1"/>
-      <c r="AO407" s="1"/>
-      <c r="AP407" s="1"/>
-      <c r="AQ407" s="1"/>
-      <c r="AR407" s="1"/>
-      <c r="AS407" s="1"/>
-      <c r="AT407" s="1"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1"/>
-      <c r="B408" s="1"/>
-      <c r="C408" s="1"/>
-      <c r="D408" s="1"/>
-      <c r="E408" s="1"/>
-      <c r="F408" s="1"/>
-      <c r="G408" s="1"/>
-      <c r="H408" s="2"/>
-      <c r="I408" s="1"/>
-      <c r="J408" s="1"/>
-      <c r="K408" s="1"/>
-      <c r="L408" s="1"/>
-      <c r="M408" s="1"/>
-      <c r="N408" s="1"/>
-      <c r="O408" s="1"/>
-      <c r="P408" s="1"/>
-      <c r="Q408" s="1"/>
-      <c r="R408" s="1"/>
-      <c r="S408" s="1"/>
-      <c r="T408" s="1"/>
-      <c r="U408" s="1"/>
-      <c r="V408" s="1"/>
-      <c r="W408" s="1"/>
-      <c r="X408" s="1"/>
-      <c r="Y408" s="1"/>
-      <c r="Z408" s="1"/>
-      <c r="AA408" s="1"/>
-      <c r="AB408" s="1"/>
-      <c r="AC408" s="1"/>
-      <c r="AD408" s="1"/>
-      <c r="AE408" s="1"/>
-      <c r="AF408" s="1"/>
-      <c r="AG408" s="1"/>
-      <c r="AH408" s="1"/>
-      <c r="AI408" s="1"/>
-      <c r="AJ408" s="1"/>
-      <c r="AK408" s="1"/>
-      <c r="AL408" s="1"/>
-      <c r="AM408" s="1"/>
-      <c r="AN408" s="1"/>
-      <c r="AO408" s="1"/>
-      <c r="AP408" s="1"/>
-      <c r="AQ408" s="1"/>
-      <c r="AR408" s="1"/>
-      <c r="AS408" s="1"/>
-      <c r="AT408" s="1"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1"/>
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
-      <c r="D409" s="1"/>
-      <c r="E409" s="1"/>
-      <c r="F409" s="1"/>
-      <c r="G409" s="1"/>
-      <c r="H409" s="2"/>
-      <c r="I409" s="1"/>
-      <c r="J409" s="1"/>
-      <c r="K409" s="1"/>
-      <c r="L409" s="1"/>
-      <c r="M409" s="1"/>
-      <c r="N409" s="1"/>
-      <c r="O409" s="1"/>
-      <c r="P409" s="1"/>
-      <c r="Q409" s="1"/>
-      <c r="R409" s="1"/>
-      <c r="S409" s="1"/>
-      <c r="T409" s="1"/>
-      <c r="U409" s="1"/>
-      <c r="V409" s="1"/>
-      <c r="W409" s="1"/>
-      <c r="X409" s="1"/>
-      <c r="Y409" s="1"/>
-      <c r="Z409" s="1"/>
-      <c r="AA409" s="1"/>
-      <c r="AB409" s="1"/>
-      <c r="AC409" s="1"/>
-      <c r="AD409" s="1"/>
-      <c r="AE409" s="1"/>
-      <c r="AF409" s="1"/>
-      <c r="AG409" s="1"/>
-      <c r="AH409" s="1"/>
-      <c r="AI409" s="1"/>
-      <c r="AJ409" s="1"/>
-      <c r="AK409" s="1"/>
-      <c r="AL409" s="1"/>
-      <c r="AM409" s="1"/>
-      <c r="AN409" s="1"/>
-      <c r="AO409" s="1"/>
-      <c r="AP409" s="1"/>
-      <c r="AQ409" s="1"/>
-      <c r="AR409" s="1"/>
-      <c r="AS409" s="1"/>
-      <c r="AT409" s="1"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1"/>
-      <c r="B410" s="1"/>
-      <c r="C410" s="1"/>
-      <c r="D410" s="1"/>
-      <c r="E410" s="1"/>
-      <c r="F410" s="1"/>
-      <c r="G410" s="1"/>
-      <c r="H410" s="2"/>
-      <c r="I410" s="1"/>
-      <c r="J410" s="1"/>
-      <c r="K410" s="1"/>
-      <c r="L410" s="1"/>
-      <c r="M410" s="1"/>
-      <c r="N410" s="1"/>
-      <c r="O410" s="1"/>
-      <c r="P410" s="1"/>
-      <c r="Q410" s="1"/>
-      <c r="R410" s="1"/>
-      <c r="S410" s="1"/>
-      <c r="T410" s="1"/>
-      <c r="U410" s="1"/>
-      <c r="V410" s="1"/>
-      <c r="W410" s="1"/>
-      <c r="X410" s="1"/>
-      <c r="Y410" s="1"/>
-      <c r="Z410" s="1"/>
-      <c r="AA410" s="1"/>
-      <c r="AB410" s="1"/>
-      <c r="AC410" s="1"/>
-      <c r="AD410" s="1"/>
-      <c r="AE410" s="1"/>
-      <c r="AF410" s="1"/>
-      <c r="AG410" s="1"/>
-      <c r="AH410" s="1"/>
-      <c r="AI410" s="1"/>
-      <c r="AJ410" s="1"/>
-      <c r="AK410" s="1"/>
-      <c r="AL410" s="1"/>
-      <c r="AM410" s="1"/>
-      <c r="AN410" s="1"/>
-      <c r="AO410" s="1"/>
-      <c r="AP410" s="1"/>
-      <c r="AQ410" s="1"/>
-      <c r="AR410" s="1"/>
-      <c r="AS410" s="1"/>
-      <c r="AT410" s="1"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1"/>
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
-      <c r="D411" s="1"/>
-      <c r="E411" s="1"/>
-      <c r="F411" s="1"/>
-      <c r="G411" s="1"/>
-      <c r="H411" s="2"/>
-      <c r="I411" s="1"/>
-      <c r="J411" s="1"/>
-      <c r="K411" s="1"/>
-      <c r="L411" s="1"/>
-      <c r="M411" s="1"/>
-      <c r="N411" s="1"/>
-      <c r="O411" s="1"/>
-      <c r="P411" s="1"/>
-      <c r="Q411" s="1"/>
-      <c r="R411" s="1"/>
-      <c r="S411" s="1"/>
-      <c r="T411" s="1"/>
-      <c r="U411" s="1"/>
-      <c r="V411" s="1"/>
-      <c r="W411" s="1"/>
-      <c r="X411" s="1"/>
-      <c r="Y411" s="1"/>
-      <c r="Z411" s="1"/>
-      <c r="AA411" s="1"/>
-      <c r="AB411" s="1"/>
-      <c r="AC411" s="1"/>
-      <c r="AD411" s="1"/>
-      <c r="AE411" s="1"/>
-      <c r="AF411" s="1"/>
-      <c r="AG411" s="1"/>
-      <c r="AH411" s="1"/>
-      <c r="AI411" s="1"/>
-      <c r="AJ411" s="1"/>
-      <c r="AK411" s="1"/>
-      <c r="AL411" s="1"/>
-      <c r="AM411" s="1"/>
-      <c r="AN411" s="1"/>
-      <c r="AO411" s="1"/>
-      <c r="AP411" s="1"/>
-      <c r="AQ411" s="1"/>
-      <c r="AR411" s="1"/>
-      <c r="AS411" s="1"/>
-      <c r="AT411" s="1"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1"/>
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
-      <c r="D412" s="1"/>
-      <c r="E412" s="1"/>
-      <c r="F412" s="1"/>
-      <c r="G412" s="1"/>
-      <c r="H412" s="2"/>
-      <c r="I412" s="1"/>
-      <c r="J412" s="1"/>
-      <c r="K412" s="1"/>
-      <c r="L412" s="1"/>
-      <c r="M412" s="1"/>
-      <c r="N412" s="1"/>
-      <c r="O412" s="1"/>
-      <c r="P412" s="1"/>
-      <c r="Q412" s="1"/>
-      <c r="R412" s="1"/>
-      <c r="S412" s="1"/>
-      <c r="T412" s="1"/>
-      <c r="U412" s="1"/>
-      <c r="V412" s="1"/>
-      <c r="W412" s="1"/>
-      <c r="X412" s="1"/>
-      <c r="Y412" s="1"/>
-      <c r="Z412" s="1"/>
-      <c r="AA412" s="1"/>
-      <c r="AB412" s="1"/>
-      <c r="AC412" s="1"/>
-      <c r="AD412" s="1"/>
-      <c r="AE412" s="1"/>
-      <c r="AF412" s="1"/>
-      <c r="AG412" s="1"/>
-      <c r="AH412" s="1"/>
-      <c r="AI412" s="1"/>
-      <c r="AJ412" s="1"/>
-      <c r="AK412" s="1"/>
-      <c r="AL412" s="1"/>
-      <c r="AM412" s="1"/>
-      <c r="AN412" s="1"/>
-      <c r="AO412" s="1"/>
-      <c r="AP412" s="1"/>
-      <c r="AQ412" s="1"/>
-      <c r="AR412" s="1"/>
-      <c r="AS412" s="1"/>
-      <c r="AT412" s="1"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1"/>
-      <c r="B413" s="1"/>
-      <c r="C413" s="1"/>
-      <c r="D413" s="1"/>
-      <c r="E413" s="1"/>
-      <c r="F413" s="1"/>
-      <c r="G413" s="1"/>
-      <c r="H413" s="2"/>
-      <c r="I413" s="1"/>
-      <c r="J413" s="1"/>
-      <c r="K413" s="1"/>
-      <c r="L413" s="1"/>
-      <c r="M413" s="1"/>
-      <c r="N413" s="1"/>
-      <c r="O413" s="1"/>
-      <c r="P413" s="1"/>
-      <c r="Q413" s="1"/>
-      <c r="R413" s="1"/>
-      <c r="S413" s="1"/>
-      <c r="T413" s="1"/>
-      <c r="U413" s="1"/>
-      <c r="V413" s="1"/>
-      <c r="W413" s="1"/>
-      <c r="X413" s="1"/>
-      <c r="Y413" s="1"/>
-      <c r="Z413" s="1"/>
-      <c r="AA413" s="1"/>
-      <c r="AB413" s="1"/>
-      <c r="AC413" s="1"/>
-      <c r="AD413" s="1"/>
-      <c r="AE413" s="1"/>
-      <c r="AF413" s="1"/>
-      <c r="AG413" s="1"/>
-      <c r="AH413" s="1"/>
-      <c r="AI413" s="1"/>
-      <c r="AJ413" s="1"/>
-      <c r="AK413" s="1"/>
-      <c r="AL413" s="1"/>
-      <c r="AM413" s="1"/>
-      <c r="AN413" s="1"/>
-      <c r="AO413" s="1"/>
-      <c r="AP413" s="1"/>
-      <c r="AQ413" s="1"/>
-      <c r="AR413" s="1"/>
-      <c r="AS413" s="1"/>
-      <c r="AT413" s="1"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1"/>
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
-      <c r="D414" s="1"/>
-      <c r="E414" s="1"/>
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-      <c r="H414" s="2"/>
-      <c r="I414" s="1"/>
-      <c r="J414" s="1"/>
-      <c r="K414" s="1"/>
-      <c r="L414" s="1"/>
-      <c r="M414" s="1"/>
-      <c r="N414" s="1"/>
-      <c r="O414" s="1"/>
-      <c r="P414" s="1"/>
-      <c r="Q414" s="1"/>
-      <c r="R414" s="1"/>
-      <c r="S414" s="1"/>
-      <c r="T414" s="1"/>
-      <c r="U414" s="1"/>
-      <c r="V414" s="1"/>
-      <c r="W414" s="1"/>
-      <c r="X414" s="1"/>
-      <c r="Y414" s="1"/>
-      <c r="Z414" s="1"/>
-      <c r="AA414" s="1"/>
-      <c r="AB414" s="1"/>
-      <c r="AC414" s="1"/>
-      <c r="AD414" s="1"/>
-      <c r="AE414" s="1"/>
-      <c r="AF414" s="1"/>
-      <c r="AG414" s="1"/>
-      <c r="AH414" s="1"/>
-      <c r="AI414" s="1"/>
-      <c r="AJ414" s="1"/>
-      <c r="AK414" s="1"/>
-      <c r="AL414" s="1"/>
-      <c r="AM414" s="1"/>
-      <c r="AN414" s="1"/>
-      <c r="AO414" s="1"/>
-      <c r="AP414" s="1"/>
-      <c r="AQ414" s="1"/>
-      <c r="AR414" s="1"/>
-      <c r="AS414" s="1"/>
-      <c r="AT414" s="1"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1"/>
-      <c r="B415" s="1"/>
-      <c r="C415" s="1"/>
-      <c r="D415" s="1"/>
-      <c r="E415" s="1"/>
-      <c r="F415" s="1"/>
-      <c r="G415" s="1"/>
-      <c r="H415" s="2"/>
-      <c r="I415" s="1"/>
-      <c r="J415" s="1"/>
-      <c r="K415" s="1"/>
-      <c r="L415" s="1"/>
-      <c r="M415" s="1"/>
-      <c r="N415" s="1"/>
-      <c r="O415" s="1"/>
-      <c r="P415" s="1"/>
-      <c r="Q415" s="1"/>
-      <c r="R415" s="1"/>
-      <c r="S415" s="1"/>
-      <c r="T415" s="1"/>
-      <c r="U415" s="1"/>
-      <c r="V415" s="1"/>
-      <c r="W415" s="1"/>
-      <c r="X415" s="1"/>
-      <c r="Y415" s="1"/>
-      <c r="Z415" s="1"/>
-      <c r="AA415" s="1"/>
-      <c r="AB415" s="1"/>
-      <c r="AC415" s="1"/>
-      <c r="AD415" s="1"/>
-      <c r="AE415" s="1"/>
-      <c r="AF415" s="1"/>
-      <c r="AG415" s="1"/>
-      <c r="AH415" s="1"/>
-      <c r="AI415" s="1"/>
-      <c r="AJ415" s="1"/>
-      <c r="AK415" s="1"/>
-      <c r="AL415" s="1"/>
-      <c r="AM415" s="1"/>
-      <c r="AN415" s="1"/>
-      <c r="AO415" s="1"/>
-      <c r="AP415" s="1"/>
-      <c r="AQ415" s="1"/>
-      <c r="AR415" s="1"/>
-      <c r="AS415" s="1"/>
-      <c r="AT415" s="1"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1"/>
-      <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
-      <c r="D416" s="1"/>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1"/>
-      <c r="G416" s="1"/>
-      <c r="H416" s="2"/>
-      <c r="I416" s="1"/>
-      <c r="J416" s="1"/>
-      <c r="K416" s="1"/>
-      <c r="L416" s="1"/>
-      <c r="M416" s="1"/>
-      <c r="N416" s="1"/>
-      <c r="O416" s="1"/>
-      <c r="P416" s="1"/>
-      <c r="Q416" s="1"/>
-      <c r="R416" s="1"/>
-      <c r="S416" s="1"/>
-      <c r="T416" s="1"/>
-      <c r="U416" s="1"/>
-      <c r="V416" s="1"/>
-      <c r="W416" s="1"/>
-      <c r="X416" s="1"/>
-      <c r="Y416" s="1"/>
-      <c r="Z416" s="1"/>
-      <c r="AA416" s="1"/>
-      <c r="AB416" s="1"/>
-      <c r="AC416" s="1"/>
-      <c r="AD416" s="1"/>
-      <c r="AE416" s="1"/>
-      <c r="AF416" s="1"/>
-      <c r="AG416" s="1"/>
-      <c r="AH416" s="1"/>
-      <c r="AI416" s="1"/>
-      <c r="AJ416" s="1"/>
-      <c r="AK416" s="1"/>
-      <c r="AL416" s="1"/>
-      <c r="AM416" s="1"/>
-      <c r="AN416" s="1"/>
-      <c r="AO416" s="1"/>
-      <c r="AP416" s="1"/>
-      <c r="AQ416" s="1"/>
-      <c r="AR416" s="1"/>
-      <c r="AS416" s="1"/>
-      <c r="AT416" s="1"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1"/>
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
-      <c r="D417" s="1"/>
-      <c r="E417" s="1"/>
-      <c r="F417" s="1"/>
-      <c r="G417" s="1"/>
-      <c r="H417" s="2"/>
-      <c r="I417" s="1"/>
-      <c r="J417" s="1"/>
-      <c r="K417" s="1"/>
-      <c r="L417" s="1"/>
-      <c r="M417" s="1"/>
-      <c r="N417" s="1"/>
-      <c r="O417" s="1"/>
-      <c r="P417" s="1"/>
-      <c r="Q417" s="1"/>
-      <c r="R417" s="1"/>
-      <c r="S417" s="1"/>
-      <c r="T417" s="1"/>
-      <c r="U417" s="1"/>
-      <c r="V417" s="1"/>
-      <c r="W417" s="1"/>
-      <c r="X417" s="1"/>
-      <c r="Y417" s="1"/>
-      <c r="Z417" s="1"/>
-      <c r="AA417" s="1"/>
-      <c r="AB417" s="1"/>
-      <c r="AC417" s="1"/>
-      <c r="AD417" s="1"/>
-      <c r="AE417" s="1"/>
-      <c r="AF417" s="1"/>
-      <c r="AG417" s="1"/>
-      <c r="AH417" s="1"/>
-      <c r="AI417" s="1"/>
-      <c r="AJ417" s="1"/>
-      <c r="AK417" s="1"/>
-      <c r="AL417" s="1"/>
-      <c r="AM417" s="1"/>
-      <c r="AN417" s="1"/>
-      <c r="AO417" s="1"/>
-      <c r="AP417" s="1"/>
-      <c r="AQ417" s="1"/>
-      <c r="AR417" s="1"/>
-      <c r="AS417" s="1"/>
-      <c r="AT417" s="1"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1"/>
-      <c r="B418" s="1"/>
-      <c r="C418" s="1"/>
-      <c r="D418" s="1"/>
-      <c r="E418" s="1"/>
-      <c r="F418" s="1"/>
-      <c r="G418" s="1"/>
-      <c r="H418" s="2"/>
-      <c r="I418" s="1"/>
-      <c r="J418" s="1"/>
-      <c r="K418" s="1"/>
-      <c r="L418" s="1"/>
-      <c r="M418" s="1"/>
-      <c r="N418" s="1"/>
-      <c r="O418" s="1"/>
-      <c r="P418" s="1"/>
-      <c r="Q418" s="1"/>
-      <c r="R418" s="1"/>
-      <c r="S418" s="1"/>
-      <c r="T418" s="1"/>
-      <c r="U418" s="1"/>
-      <c r="V418" s="1"/>
-      <c r="W418" s="1"/>
-      <c r="X418" s="1"/>
-      <c r="Y418" s="1"/>
-      <c r="Z418" s="1"/>
-      <c r="AA418" s="1"/>
-      <c r="AB418" s="1"/>
-      <c r="AC418" s="1"/>
-      <c r="AD418" s="1"/>
-      <c r="AE418" s="1"/>
-      <c r="AF418" s="1"/>
-      <c r="AG418" s="1"/>
-      <c r="AH418" s="1"/>
-      <c r="AI418" s="1"/>
-      <c r="AJ418" s="1"/>
-      <c r="AK418" s="1"/>
-      <c r="AL418" s="1"/>
-      <c r="AM418" s="1"/>
-      <c r="AN418" s="1"/>
-      <c r="AO418" s="1"/>
-      <c r="AP418" s="1"/>
-      <c r="AQ418" s="1"/>
-      <c r="AR418" s="1"/>
-      <c r="AS418" s="1"/>
-      <c r="AT418" s="1"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1"/>
-      <c r="B419" s="1"/>
-      <c r="C419" s="1"/>
-      <c r="D419" s="1"/>
-      <c r="E419" s="1"/>
-      <c r="F419" s="1"/>
-      <c r="G419" s="1"/>
-      <c r="H419" s="2"/>
-      <c r="I419" s="1"/>
-      <c r="J419" s="1"/>
-      <c r="K419" s="1"/>
-      <c r="L419" s="1"/>
-      <c r="M419" s="1"/>
-      <c r="N419" s="1"/>
-      <c r="O419" s="1"/>
-      <c r="P419" s="1"/>
-      <c r="Q419" s="1"/>
-      <c r="R419" s="1"/>
-      <c r="S419" s="1"/>
-      <c r="T419" s="1"/>
-      <c r="U419" s="1"/>
-      <c r="V419" s="1"/>
-      <c r="W419" s="1"/>
-      <c r="X419" s="1"/>
-      <c r="Y419" s="1"/>
-      <c r="Z419" s="1"/>
-      <c r="AA419" s="1"/>
-      <c r="AB419" s="1"/>
-      <c r="AC419" s="1"/>
-      <c r="AD419" s="1"/>
-      <c r="AE419" s="1"/>
-      <c r="AF419" s="1"/>
-      <c r="AG419" s="1"/>
-      <c r="AH419" s="1"/>
-      <c r="AI419" s="1"/>
-      <c r="AJ419" s="1"/>
-      <c r="AK419" s="1"/>
-      <c r="AL419" s="1"/>
-      <c r="AM419" s="1"/>
-      <c r="AN419" s="1"/>
-      <c r="AO419" s="1"/>
-      <c r="AP419" s="1"/>
-      <c r="AQ419" s="1"/>
-      <c r="AR419" s="1"/>
-      <c r="AS419" s="1"/>
-      <c r="AT419" s="1"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1"/>
-      <c r="B420" s="1"/>
-      <c r="C420" s="1"/>
-      <c r="D420" s="1"/>
-      <c r="E420" s="1"/>
-      <c r="F420" s="1"/>
-      <c r="G420" s="1"/>
-      <c r="H420" s="2"/>
-      <c r="I420" s="1"/>
-      <c r="J420" s="1"/>
-      <c r="K420" s="1"/>
-      <c r="L420" s="1"/>
-      <c r="M420" s="1"/>
-      <c r="N420" s="1"/>
-      <c r="O420" s="1"/>
-      <c r="P420" s="1"/>
-      <c r="Q420" s="1"/>
-      <c r="R420" s="1"/>
-      <c r="S420" s="1"/>
-      <c r="T420" s="1"/>
-      <c r="U420" s="1"/>
-      <c r="V420" s="1"/>
-      <c r="W420" s="1"/>
-      <c r="X420" s="1"/>
-      <c r="Y420" s="1"/>
-      <c r="Z420" s="1"/>
-      <c r="AA420" s="1"/>
-      <c r="AB420" s="1"/>
-      <c r="AC420" s="1"/>
-      <c r="AD420" s="1"/>
-      <c r="AE420" s="1"/>
-      <c r="AF420" s="1"/>
-      <c r="AG420" s="1"/>
-      <c r="AH420" s="1"/>
-      <c r="AI420" s="1"/>
-      <c r="AJ420" s="1"/>
-      <c r="AK420" s="1"/>
-      <c r="AL420" s="1"/>
-      <c r="AM420" s="1"/>
-      <c r="AN420" s="1"/>
-      <c r="AO420" s="1"/>
-      <c r="AP420" s="1"/>
-      <c r="AQ420" s="1"/>
-      <c r="AR420" s="1"/>
-      <c r="AS420" s="1"/>
-      <c r="AT420" s="1"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1"/>
-      <c r="B421" s="1"/>
-      <c r="C421" s="1"/>
-      <c r="D421" s="1"/>
-      <c r="E421" s="1"/>
-      <c r="F421" s="1"/>
-      <c r="G421" s="1"/>
-      <c r="H421" s="2"/>
-      <c r="I421" s="1"/>
-      <c r="J421" s="1"/>
-      <c r="K421" s="1"/>
-      <c r="L421" s="1"/>
-      <c r="M421" s="1"/>
-      <c r="N421" s="1"/>
-      <c r="O421" s="1"/>
-      <c r="P421" s="1"/>
-      <c r="Q421" s="1"/>
-      <c r="R421" s="1"/>
-      <c r="S421" s="1"/>
-      <c r="T421" s="1"/>
-      <c r="U421" s="1"/>
-      <c r="V421" s="1"/>
-      <c r="W421" s="1"/>
-      <c r="X421" s="1"/>
-      <c r="Y421" s="1"/>
-      <c r="Z421" s="1"/>
-      <c r="AA421" s="1"/>
-      <c r="AB421" s="1"/>
-      <c r="AC421" s="1"/>
-      <c r="AD421" s="1"/>
-      <c r="AE421" s="1"/>
-      <c r="AF421" s="1"/>
-      <c r="AG421" s="1"/>
-      <c r="AH421" s="1"/>
-      <c r="AI421" s="1"/>
-      <c r="AJ421" s="1"/>
-      <c r="AK421" s="1"/>
-      <c r="AL421" s="1"/>
-      <c r="AM421" s="1"/>
-      <c r="AN421" s="1"/>
-      <c r="AO421" s="1"/>
-      <c r="AP421" s="1"/>
-      <c r="AQ421" s="1"/>
-      <c r="AR421" s="1"/>
-      <c r="AS421" s="1"/>
-      <c r="AT421" s="1"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1"/>
-      <c r="B422" s="1"/>
-      <c r="C422" s="1"/>
-      <c r="D422" s="1"/>
-      <c r="E422" s="1"/>
-      <c r="F422" s="1"/>
-      <c r="G422" s="1"/>
-      <c r="H422" s="2"/>
-      <c r="I422" s="1"/>
-      <c r="J422" s="1"/>
-      <c r="K422" s="1"/>
-      <c r="L422" s="1"/>
-      <c r="M422" s="1"/>
-      <c r="N422" s="1"/>
-      <c r="O422" s="1"/>
-      <c r="P422" s="1"/>
-      <c r="Q422" s="1"/>
-      <c r="R422" s="1"/>
-      <c r="S422" s="1"/>
-      <c r="T422" s="1"/>
-      <c r="U422" s="1"/>
-      <c r="V422" s="1"/>
-      <c r="W422" s="1"/>
-      <c r="X422" s="1"/>
-      <c r="Y422" s="1"/>
-      <c r="Z422" s="1"/>
-      <c r="AA422" s="1"/>
-      <c r="AB422" s="1"/>
-      <c r="AC422" s="1"/>
-      <c r="AD422" s="1"/>
-      <c r="AE422" s="1"/>
-      <c r="AF422" s="1"/>
-      <c r="AG422" s="1"/>
-      <c r="AH422" s="1"/>
-      <c r="AI422" s="1"/>
-      <c r="AJ422" s="1"/>
-      <c r="AK422" s="1"/>
-      <c r="AL422" s="1"/>
-      <c r="AM422" s="1"/>
-      <c r="AN422" s="1"/>
-      <c r="AO422" s="1"/>
-      <c r="AP422" s="1"/>
-      <c r="AQ422" s="1"/>
-      <c r="AR422" s="1"/>
-      <c r="AS422" s="1"/>
-      <c r="AT422" s="1"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1"/>
-      <c r="B423" s="1"/>
-      <c r="C423" s="1"/>
-      <c r="D423" s="1"/>
-      <c r="E423" s="1"/>
-      <c r="F423" s="1"/>
-      <c r="G423" s="1"/>
-      <c r="H423" s="2"/>
-      <c r="I423" s="1"/>
-      <c r="J423" s="1"/>
-      <c r="K423" s="1"/>
-      <c r="L423" s="1"/>
-      <c r="M423" s="1"/>
-      <c r="N423" s="1"/>
-      <c r="O423" s="1"/>
-      <c r="P423" s="1"/>
-      <c r="Q423" s="1"/>
-      <c r="R423" s="1"/>
-      <c r="S423" s="1"/>
-      <c r="T423" s="1"/>
-      <c r="U423" s="1"/>
-      <c r="V423" s="1"/>
-      <c r="W423" s="1"/>
-      <c r="X423" s="1"/>
-      <c r="Y423" s="1"/>
-      <c r="Z423" s="1"/>
-      <c r="AA423" s="1"/>
-      <c r="AB423" s="1"/>
-      <c r="AC423" s="1"/>
-      <c r="AD423" s="1"/>
-      <c r="AE423" s="1"/>
-      <c r="AF423" s="1"/>
-      <c r="AG423" s="1"/>
-      <c r="AH423" s="1"/>
-      <c r="AI423" s="1"/>
-      <c r="AJ423" s="1"/>
-      <c r="AK423" s="1"/>
-      <c r="AL423" s="1"/>
-      <c r="AM423" s="1"/>
-      <c r="AN423" s="1"/>
-      <c r="AO423" s="1"/>
-      <c r="AP423" s="1"/>
-      <c r="AQ423" s="1"/>
-      <c r="AR423" s="1"/>
-      <c r="AS423" s="1"/>
-      <c r="AT423" s="1"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1"/>
-      <c r="B424" s="1"/>
-      <c r="C424" s="1"/>
-      <c r="D424" s="1"/>
-      <c r="E424" s="1"/>
-      <c r="F424" s="1"/>
-      <c r="G424" s="1"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="1"/>
-      <c r="J424" s="1"/>
-      <c r="K424" s="1"/>
-      <c r="L424" s="1"/>
-      <c r="M424" s="1"/>
-      <c r="N424" s="1"/>
-      <c r="O424" s="1"/>
-      <c r="P424" s="1"/>
-      <c r="Q424" s="1"/>
-      <c r="R424" s="1"/>
-      <c r="S424" s="1"/>
-      <c r="T424" s="1"/>
-      <c r="U424" s="1"/>
-      <c r="V424" s="1"/>
-      <c r="W424" s="1"/>
-      <c r="X424" s="1"/>
-      <c r="Y424" s="1"/>
-      <c r="Z424" s="1"/>
-      <c r="AA424" s="1"/>
-      <c r="AB424" s="1"/>
-      <c r="AC424" s="1"/>
-      <c r="AD424" s="1"/>
-      <c r="AE424" s="1"/>
-      <c r="AF424" s="1"/>
-      <c r="AG424" s="1"/>
-      <c r="AH424" s="1"/>
-      <c r="AI424" s="1"/>
-      <c r="AJ424" s="1"/>
-      <c r="AK424" s="1"/>
-      <c r="AL424" s="1"/>
-      <c r="AM424" s="1"/>
-      <c r="AN424" s="1"/>
-      <c r="AO424" s="1"/>
-      <c r="AP424" s="1"/>
-      <c r="AQ424" s="1"/>
-      <c r="AR424" s="1"/>
-      <c r="AS424" s="1"/>
-      <c r="AT424" s="1"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1"/>
-      <c r="B425" s="1"/>
-      <c r="C425" s="1"/>
-      <c r="D425" s="1"/>
-      <c r="E425" s="1"/>
-      <c r="F425" s="1"/>
-      <c r="G425" s="1"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="1"/>
-      <c r="J425" s="1"/>
-      <c r="K425" s="1"/>
-      <c r="L425" s="1"/>
-      <c r="M425" s="1"/>
-      <c r="N425" s="1"/>
-      <c r="O425" s="1"/>
-      <c r="P425" s="1"/>
-      <c r="Q425" s="1"/>
-      <c r="R425" s="1"/>
-      <c r="S425" s="1"/>
-      <c r="T425" s="1"/>
-      <c r="U425" s="1"/>
-      <c r="V425" s="1"/>
-      <c r="W425" s="1"/>
-      <c r="X425" s="1"/>
-      <c r="Y425" s="1"/>
-      <c r="Z425" s="1"/>
-      <c r="AA425" s="1"/>
-      <c r="AB425" s="1"/>
-      <c r="AC425" s="1"/>
-      <c r="AD425" s="1"/>
-      <c r="AE425" s="1"/>
-      <c r="AF425" s="1"/>
-      <c r="AG425" s="1"/>
-      <c r="AH425" s="1"/>
-      <c r="AI425" s="1"/>
-      <c r="AJ425" s="1"/>
-      <c r="AK425" s="1"/>
-      <c r="AL425" s="1"/>
-      <c r="AM425" s="1"/>
-      <c r="AN425" s="1"/>
-      <c r="AO425" s="1"/>
-      <c r="AP425" s="1"/>
-      <c r="AQ425" s="1"/>
-      <c r="AR425" s="1"/>
-      <c r="AS425" s="1"/>
-      <c r="AT425" s="1"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1"/>
-      <c r="B426" s="1"/>
-      <c r="C426" s="1"/>
-      <c r="D426" s="1"/>
-      <c r="E426" s="1"/>
-      <c r="F426" s="1"/>
-      <c r="G426" s="1"/>
-      <c r="H426" s="2"/>
-      <c r="I426" s="1"/>
-      <c r="J426" s="1"/>
-      <c r="K426" s="1"/>
-      <c r="L426" s="1"/>
-      <c r="M426" s="1"/>
-      <c r="N426" s="1"/>
-      <c r="O426" s="1"/>
-      <c r="P426" s="1"/>
-      <c r="Q426" s="1"/>
-      <c r="R426" s="1"/>
-      <c r="S426" s="1"/>
-      <c r="T426" s="1"/>
-      <c r="U426" s="1"/>
-      <c r="V426" s="1"/>
-      <c r="W426" s="1"/>
-      <c r="X426" s="1"/>
-      <c r="Y426" s="1"/>
-      <c r="Z426" s="1"/>
-      <c r="AA426" s="1"/>
-      <c r="AB426" s="1"/>
-      <c r="AC426" s="1"/>
-      <c r="AD426" s="1"/>
-      <c r="AE426" s="1"/>
-      <c r="AF426" s="1"/>
-      <c r="AG426" s="1"/>
-      <c r="AH426" s="1"/>
-      <c r="AI426" s="1"/>
-      <c r="AJ426" s="1"/>
-      <c r="AK426" s="1"/>
-      <c r="AL426" s="1"/>
-      <c r="AM426" s="1"/>
-      <c r="AN426" s="1"/>
-      <c r="AO426" s="1"/>
-      <c r="AP426" s="1"/>
-      <c r="AQ426" s="1"/>
-      <c r="AR426" s="1"/>
-      <c r="AS426" s="1"/>
-      <c r="AT426" s="1"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1"/>
-      <c r="B427" s="1"/>
-      <c r="C427" s="1"/>
-      <c r="D427" s="1"/>
-      <c r="E427" s="1"/>
-      <c r="F427" s="1"/>
-      <c r="G427" s="1"/>
-      <c r="H427" s="2"/>
-      <c r="I427" s="1"/>
-      <c r="J427" s="1"/>
-      <c r="K427" s="1"/>
-      <c r="L427" s="1"/>
-      <c r="M427" s="1"/>
-      <c r="N427" s="1"/>
-      <c r="O427" s="1"/>
-      <c r="P427" s="1"/>
-      <c r="Q427" s="1"/>
-      <c r="R427" s="1"/>
-      <c r="S427" s="1"/>
-      <c r="T427" s="1"/>
-      <c r="U427" s="1"/>
-      <c r="V427" s="1"/>
-      <c r="W427" s="1"/>
-      <c r="X427" s="1"/>
-      <c r="Y427" s="1"/>
-      <c r="Z427" s="1"/>
-      <c r="AA427" s="1"/>
-      <c r="AB427" s="1"/>
-      <c r="AC427" s="1"/>
-      <c r="AD427" s="1"/>
-      <c r="AE427" s="1"/>
-      <c r="AF427" s="1"/>
-      <c r="AG427" s="1"/>
-      <c r="AH427" s="1"/>
-      <c r="AI427" s="1"/>
-      <c r="AJ427" s="1"/>
-      <c r="AK427" s="1"/>
-      <c r="AL427" s="1"/>
-      <c r="AM427" s="1"/>
-      <c r="AN427" s="1"/>
-      <c r="AO427" s="1"/>
-      <c r="AP427" s="1"/>
-      <c r="AQ427" s="1"/>
-      <c r="AR427" s="1"/>
-      <c r="AS427" s="1"/>
-      <c r="AT427" s="1"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1"/>
-      <c r="B428" s="1"/>
-      <c r="C428" s="1"/>
-      <c r="D428" s="1"/>
-      <c r="E428" s="1"/>
-      <c r="F428" s="1"/>
-      <c r="G428" s="1"/>
-      <c r="H428" s="2"/>
-      <c r="I428" s="1"/>
-      <c r="J428" s="1"/>
-      <c r="K428" s="1"/>
-      <c r="L428" s="1"/>
-      <c r="M428" s="1"/>
-      <c r="N428" s="1"/>
-      <c r="O428" s="1"/>
-      <c r="P428" s="1"/>
-      <c r="Q428" s="1"/>
-      <c r="R428" s="1"/>
-      <c r="S428" s="1"/>
-      <c r="T428" s="1"/>
-      <c r="U428" s="1"/>
-      <c r="V428" s="1"/>
-      <c r="W428" s="1"/>
-      <c r="X428" s="1"/>
-      <c r="Y428" s="1"/>
-      <c r="Z428" s="1"/>
-      <c r="AA428" s="1"/>
-      <c r="AB428" s="1"/>
-      <c r="AC428" s="1"/>
-      <c r="AD428" s="1"/>
-      <c r="AE428" s="1"/>
-      <c r="AF428" s="1"/>
-      <c r="AG428" s="1"/>
-      <c r="AH428" s="1"/>
-      <c r="AI428" s="1"/>
-      <c r="AJ428" s="1"/>
-      <c r="AK428" s="1"/>
-      <c r="AL428" s="1"/>
-      <c r="AM428" s="1"/>
-      <c r="AN428" s="1"/>
-      <c r="AO428" s="1"/>
-      <c r="AP428" s="1"/>
-      <c r="AQ428" s="1"/>
-      <c r="AR428" s="1"/>
-      <c r="AS428" s="1"/>
-      <c r="AT428" s="1"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1"/>
-      <c r="B429" s="1"/>
-      <c r="C429" s="1"/>
-      <c r="D429" s="1"/>
-      <c r="E429" s="1"/>
-      <c r="F429" s="1"/>
-      <c r="G429" s="1"/>
-      <c r="H429" s="2"/>
-      <c r="I429" s="1"/>
-      <c r="J429" s="1"/>
-      <c r="K429" s="1"/>
-      <c r="L429" s="1"/>
-      <c r="M429" s="1"/>
-      <c r="N429" s="1"/>
-      <c r="O429" s="1"/>
-      <c r="P429" s="1"/>
-      <c r="Q429" s="1"/>
-      <c r="R429" s="1"/>
-      <c r="S429" s="1"/>
-      <c r="T429" s="1"/>
-      <c r="U429" s="1"/>
-      <c r="V429" s="1"/>
-      <c r="W429" s="1"/>
-      <c r="X429" s="1"/>
-      <c r="Y429" s="1"/>
-      <c r="Z429" s="1"/>
-      <c r="AA429" s="1"/>
-      <c r="AB429" s="1"/>
-      <c r="AC429" s="1"/>
-      <c r="AD429" s="1"/>
-      <c r="AE429" s="1"/>
-      <c r="AF429" s="1"/>
-      <c r="AG429" s="1"/>
-      <c r="AH429" s="1"/>
-      <c r="AI429" s="1"/>
-      <c r="AJ429" s="1"/>
-      <c r="AK429" s="1"/>
-      <c r="AL429" s="1"/>
-      <c r="AM429" s="1"/>
-      <c r="AN429" s="1"/>
-      <c r="AO429" s="1"/>
-      <c r="AP429" s="1"/>
-      <c r="AQ429" s="1"/>
-      <c r="AR429" s="1"/>
-      <c r="AS429" s="1"/>
-      <c r="AT429" s="1"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1"/>
-      <c r="B430" s="1"/>
-      <c r="C430" s="1"/>
-      <c r="D430" s="1"/>
-      <c r="E430" s="1"/>
-      <c r="F430" s="1"/>
-      <c r="G430" s="1"/>
-      <c r="H430" s="2"/>
-      <c r="I430" s="1"/>
-      <c r="J430" s="1"/>
-      <c r="K430" s="1"/>
-      <c r="L430" s="1"/>
-      <c r="M430" s="1"/>
-      <c r="N430" s="1"/>
-      <c r="O430" s="1"/>
-      <c r="P430" s="1"/>
-      <c r="Q430" s="1"/>
-      <c r="R430" s="1"/>
-      <c r="S430" s="1"/>
-      <c r="T430" s="1"/>
-      <c r="U430" s="1"/>
-      <c r="V430" s="1"/>
-      <c r="W430" s="1"/>
-      <c r="X430" s="1"/>
-      <c r="Y430" s="1"/>
-      <c r="Z430" s="1"/>
-      <c r="AA430" s="1"/>
-      <c r="AB430" s="1"/>
-      <c r="AC430" s="1"/>
-      <c r="AD430" s="1"/>
-      <c r="AE430" s="1"/>
-      <c r="AF430" s="1"/>
-      <c r="AG430" s="1"/>
-      <c r="AH430" s="1"/>
-      <c r="AI430" s="1"/>
-      <c r="AJ430" s="1"/>
-      <c r="AK430" s="1"/>
-      <c r="AL430" s="1"/>
-      <c r="AM430" s="1"/>
-      <c r="AN430" s="1"/>
-      <c r="AO430" s="1"/>
-      <c r="AP430" s="1"/>
-      <c r="AQ430" s="1"/>
-      <c r="AR430" s="1"/>
-      <c r="AS430" s="1"/>
-      <c r="AT430" s="1"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1"/>
-      <c r="B431" s="1"/>
-      <c r="C431" s="1"/>
-      <c r="D431" s="1"/>
-      <c r="E431" s="1"/>
-      <c r="F431" s="1"/>
-      <c r="G431" s="1"/>
-      <c r="H431" s="2"/>
-      <c r="I431" s="1"/>
-      <c r="J431" s="1"/>
-      <c r="K431" s="1"/>
-      <c r="L431" s="1"/>
-      <c r="M431" s="1"/>
-      <c r="N431" s="1"/>
-      <c r="O431" s="1"/>
-      <c r="P431" s="1"/>
-      <c r="Q431" s="1"/>
-      <c r="R431" s="1"/>
-      <c r="S431" s="1"/>
-      <c r="T431" s="1"/>
-      <c r="U431" s="1"/>
-      <c r="V431" s="1"/>
-      <c r="W431" s="1"/>
-      <c r="X431" s="1"/>
-      <c r="Y431" s="1"/>
-      <c r="Z431" s="1"/>
-      <c r="AA431" s="1"/>
-      <c r="AB431" s="1"/>
-      <c r="AC431" s="1"/>
-      <c r="AD431" s="1"/>
-      <c r="AE431" s="1"/>
-      <c r="AF431" s="1"/>
-      <c r="AG431" s="1"/>
-      <c r="AH431" s="1"/>
-      <c r="AI431" s="1"/>
-      <c r="AJ431" s="1"/>
-      <c r="AK431" s="1"/>
-      <c r="AL431" s="1"/>
-      <c r="AM431" s="1"/>
-      <c r="AN431" s="1"/>
-      <c r="AO431" s="1"/>
-      <c r="AP431" s="1"/>
-      <c r="AQ431" s="1"/>
-      <c r="AR431" s="1"/>
-      <c r="AS431" s="1"/>
-      <c r="AT431" s="1"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1"/>
-      <c r="B432" s="1"/>
-      <c r="C432" s="1"/>
-      <c r="D432" s="1"/>
-      <c r="E432" s="1"/>
-      <c r="F432" s="1"/>
-      <c r="G432" s="1"/>
-      <c r="H432" s="2"/>
-      <c r="I432" s="1"/>
-      <c r="J432" s="1"/>
-      <c r="K432" s="1"/>
-      <c r="L432" s="1"/>
-      <c r="M432" s="1"/>
-      <c r="N432" s="1"/>
-      <c r="O432" s="1"/>
-      <c r="P432" s="1"/>
-      <c r="Q432" s="1"/>
-      <c r="R432" s="1"/>
-      <c r="S432" s="1"/>
-      <c r="T432" s="1"/>
-      <c r="U432" s="1"/>
-      <c r="V432" s="1"/>
-      <c r="W432" s="1"/>
-      <c r="X432" s="1"/>
-      <c r="Y432" s="1"/>
-      <c r="Z432" s="1"/>
-      <c r="AA432" s="1"/>
-      <c r="AB432" s="1"/>
-      <c r="AC432" s="1"/>
-      <c r="AD432" s="1"/>
-      <c r="AE432" s="1"/>
-      <c r="AF432" s="1"/>
-      <c r="AG432" s="1"/>
-      <c r="AH432" s="1"/>
-      <c r="AI432" s="1"/>
-      <c r="AJ432" s="1"/>
-      <c r="AK432" s="1"/>
-      <c r="AL432" s="1"/>
-      <c r="AM432" s="1"/>
-      <c r="AN432" s="1"/>
-      <c r="AO432" s="1"/>
-      <c r="AP432" s="1"/>
-      <c r="AQ432" s="1"/>
-      <c r="AR432" s="1"/>
-      <c r="AS432" s="1"/>
-      <c r="AT432" s="1"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1"/>
-      <c r="B433" s="1"/>
-      <c r="C433" s="1"/>
-      <c r="D433" s="1"/>
-      <c r="E433" s="1"/>
-      <c r="F433" s="1"/>
-      <c r="G433" s="1"/>
-      <c r="H433" s="2"/>
-      <c r="I433" s="1"/>
-      <c r="J433" s="1"/>
-      <c r="K433" s="1"/>
-      <c r="L433" s="1"/>
-      <c r="M433" s="1"/>
-      <c r="N433" s="1"/>
-      <c r="O433" s="1"/>
-      <c r="P433" s="1"/>
-      <c r="Q433" s="1"/>
-      <c r="R433" s="1"/>
-      <c r="S433" s="1"/>
-      <c r="T433" s="1"/>
-      <c r="U433" s="1"/>
-      <c r="V433" s="1"/>
-      <c r="W433" s="1"/>
-      <c r="X433" s="1"/>
-      <c r="Y433" s="1"/>
-      <c r="Z433" s="1"/>
-      <c r="AA433" s="1"/>
-      <c r="AB433" s="1"/>
-      <c r="AC433" s="1"/>
-      <c r="AD433" s="1"/>
-      <c r="AE433" s="1"/>
-      <c r="AF433" s="1"/>
-      <c r="AG433" s="1"/>
-      <c r="AH433" s="1"/>
-      <c r="AI433" s="1"/>
-      <c r="AJ433" s="1"/>
-      <c r="AK433" s="1"/>
-      <c r="AL433" s="1"/>
-      <c r="AM433" s="1"/>
-      <c r="AN433" s="1"/>
-      <c r="AO433" s="1"/>
-      <c r="AP433" s="1"/>
-      <c r="AQ433" s="1"/>
-      <c r="AR433" s="1"/>
-      <c r="AS433" s="1"/>
-      <c r="AT433" s="1"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1"/>
-      <c r="B434" s="1"/>
-      <c r="C434" s="1"/>
-      <c r="D434" s="1"/>
-      <c r="E434" s="1"/>
-      <c r="F434" s="1"/>
-      <c r="G434" s="1"/>
-      <c r="H434" s="2"/>
-      <c r="I434" s="1"/>
-      <c r="J434" s="1"/>
-      <c r="K434" s="1"/>
-      <c r="L434" s="1"/>
-      <c r="M434" s="1"/>
-      <c r="N434" s="1"/>
-      <c r="O434" s="1"/>
-      <c r="P434" s="1"/>
-      <c r="Q434" s="1"/>
-      <c r="R434" s="1"/>
-      <c r="S434" s="1"/>
-      <c r="T434" s="1"/>
-      <c r="U434" s="1"/>
-      <c r="V434" s="1"/>
-      <c r="W434" s="1"/>
-      <c r="X434" s="1"/>
-      <c r="Y434" s="1"/>
-      <c r="Z434" s="1"/>
-      <c r="AA434" s="1"/>
-      <c r="AB434" s="1"/>
-      <c r="AC434" s="1"/>
-      <c r="AD434" s="1"/>
-      <c r="AE434" s="1"/>
-      <c r="AF434" s="1"/>
-      <c r="AG434" s="1"/>
-      <c r="AH434" s="1"/>
-      <c r="AI434" s="1"/>
-      <c r="AJ434" s="1"/>
-      <c r="AK434" s="1"/>
-      <c r="AL434" s="1"/>
-      <c r="AM434" s="1"/>
-      <c r="AN434" s="1"/>
-      <c r="AO434" s="1"/>
-      <c r="AP434" s="1"/>
-      <c r="AQ434" s="1"/>
-      <c r="AR434" s="1"/>
-      <c r="AS434" s="1"/>
-      <c r="AT434" s="1"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1"/>
-      <c r="B435" s="1"/>
-      <c r="C435" s="1"/>
-      <c r="D435" s="1"/>
-      <c r="E435" s="1"/>
-      <c r="F435" s="1"/>
-      <c r="G435" s="1"/>
-      <c r="H435" s="2"/>
-      <c r="I435" s="1"/>
-      <c r="J435" s="1"/>
-      <c r="K435" s="1"/>
-      <c r="L435" s="1"/>
-      <c r="M435" s="1"/>
-      <c r="N435" s="1"/>
-      <c r="O435" s="1"/>
-      <c r="P435" s="1"/>
-      <c r="Q435" s="1"/>
-      <c r="R435" s="1"/>
-      <c r="S435" s="1"/>
-      <c r="T435" s="1"/>
-      <c r="U435" s="1"/>
-      <c r="V435" s="1"/>
-      <c r="W435" s="1"/>
-      <c r="X435" s="1"/>
-      <c r="Y435" s="1"/>
-      <c r="Z435" s="1"/>
-      <c r="AA435" s="1"/>
-      <c r="AB435" s="1"/>
-      <c r="AC435" s="1"/>
-      <c r="AD435" s="1"/>
-      <c r="AE435" s="1"/>
-      <c r="AF435" s="1"/>
-      <c r="AG435" s="1"/>
-      <c r="AH435" s="1"/>
-      <c r="AI435" s="1"/>
-      <c r="AJ435" s="1"/>
-      <c r="AK435" s="1"/>
-      <c r="AL435" s="1"/>
-      <c r="AM435" s="1"/>
-      <c r="AN435" s="1"/>
-      <c r="AO435" s="1"/>
-      <c r="AP435" s="1"/>
-      <c r="AQ435" s="1"/>
-      <c r="AR435" s="1"/>
-      <c r="AS435" s="1"/>
-      <c r="AT435" s="1"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1"/>
-      <c r="B436" s="1"/>
-      <c r="C436" s="1"/>
-      <c r="D436" s="1"/>
-      <c r="E436" s="1"/>
-      <c r="F436" s="1"/>
-      <c r="G436" s="1"/>
-      <c r="H436" s="2"/>
-      <c r="I436" s="1"/>
-      <c r="J436" s="1"/>
-      <c r="K436" s="1"/>
-      <c r="L436" s="1"/>
-      <c r="M436" s="1"/>
-      <c r="N436" s="1"/>
-      <c r="O436" s="1"/>
-      <c r="P436" s="1"/>
-      <c r="Q436" s="1"/>
-      <c r="R436" s="1"/>
-      <c r="S436" s="1"/>
-      <c r="T436" s="1"/>
-      <c r="U436" s="1"/>
-      <c r="V436" s="1"/>
-      <c r="W436" s="1"/>
-      <c r="X436" s="1"/>
-      <c r="Y436" s="1"/>
-      <c r="Z436" s="1"/>
-      <c r="AA436" s="1"/>
-      <c r="AB436" s="1"/>
-      <c r="AC436" s="1"/>
-      <c r="AD436" s="1"/>
-      <c r="AE436" s="1"/>
-      <c r="AF436" s="1"/>
-      <c r="AG436" s="1"/>
-      <c r="AH436" s="1"/>
-      <c r="AI436" s="1"/>
-      <c r="AJ436" s="1"/>
-      <c r="AK436" s="1"/>
-      <c r="AL436" s="1"/>
-      <c r="AM436" s="1"/>
-      <c r="AN436" s="1"/>
-      <c r="AO436" s="1"/>
-      <c r="AP436" s="1"/>
-      <c r="AQ436" s="1"/>
-      <c r="AR436" s="1"/>
-      <c r="AS436" s="1"/>
-      <c r="AT436" s="1"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1"/>
-      <c r="B437" s="1"/>
-      <c r="C437" s="1"/>
-      <c r="D437" s="1"/>
-      <c r="E437" s="1"/>
-      <c r="F437" s="1"/>
-      <c r="G437" s="1"/>
-      <c r="H437" s="2"/>
-      <c r="I437" s="1"/>
-      <c r="J437" s="1"/>
-      <c r="K437" s="1"/>
-      <c r="L437" s="1"/>
-      <c r="M437" s="1"/>
-      <c r="N437" s="1"/>
-      <c r="O437" s="1"/>
-      <c r="P437" s="1"/>
-      <c r="Q437" s="1"/>
-      <c r="R437" s="1"/>
-      <c r="S437" s="1"/>
-      <c r="T437" s="1"/>
-      <c r="U437" s="1"/>
-      <c r="V437" s="1"/>
-      <c r="W437" s="1"/>
-      <c r="X437" s="1"/>
-      <c r="Y437" s="1"/>
-      <c r="Z437" s="1"/>
-      <c r="AA437" s="1"/>
-      <c r="AB437" s="1"/>
-      <c r="AC437" s="1"/>
-      <c r="AD437" s="1"/>
-      <c r="AE437" s="1"/>
-      <c r="AF437" s="1"/>
-      <c r="AG437" s="1"/>
-      <c r="AH437" s="1"/>
-      <c r="AI437" s="1"/>
-      <c r="AJ437" s="1"/>
-      <c r="AK437" s="1"/>
-      <c r="AL437" s="1"/>
-      <c r="AM437" s="1"/>
-      <c r="AN437" s="1"/>
-      <c r="AO437" s="1"/>
-      <c r="AP437" s="1"/>
-      <c r="AQ437" s="1"/>
-      <c r="AR437" s="1"/>
-      <c r="AS437" s="1"/>
-      <c r="AT437" s="1"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1"/>
-      <c r="B438" s="1"/>
-      <c r="C438" s="1"/>
-      <c r="D438" s="1"/>
-      <c r="E438" s="1"/>
-      <c r="F438" s="1"/>
-      <c r="G438" s="1"/>
-      <c r="H438" s="2"/>
-      <c r="I438" s="1"/>
-      <c r="J438" s="1"/>
-      <c r="K438" s="1"/>
-      <c r="L438" s="1"/>
-      <c r="M438" s="1"/>
-      <c r="N438" s="1"/>
-      <c r="O438" s="1"/>
-      <c r="P438" s="1"/>
-      <c r="Q438" s="1"/>
-      <c r="R438" s="1"/>
-      <c r="S438" s="1"/>
-      <c r="T438" s="1"/>
-      <c r="U438" s="1"/>
-      <c r="V438" s="1"/>
-      <c r="W438" s="1"/>
-      <c r="X438" s="1"/>
-      <c r="Y438" s="1"/>
-      <c r="Z438" s="1"/>
-      <c r="AA438" s="1"/>
-      <c r="AB438" s="1"/>
-      <c r="AC438" s="1"/>
-      <c r="AD438" s="1"/>
-      <c r="AE438" s="1"/>
-      <c r="AF438" s="1"/>
-      <c r="AG438" s="1"/>
-      <c r="AH438" s="1"/>
-      <c r="AI438" s="1"/>
-      <c r="AJ438" s="1"/>
-      <c r="AK438" s="1"/>
-      <c r="AL438" s="1"/>
-      <c r="AM438" s="1"/>
-      <c r="AN438" s="1"/>
-      <c r="AO438" s="1"/>
-      <c r="AP438" s="1"/>
-      <c r="AQ438" s="1"/>
-      <c r="AR438" s="1"/>
-      <c r="AS438" s="1"/>
-      <c r="AT438" s="1"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1"/>
-      <c r="B439" s="1"/>
-      <c r="C439" s="1"/>
-      <c r="D439" s="1"/>
-      <c r="E439" s="1"/>
-      <c r="F439" s="1"/>
-      <c r="G439" s="1"/>
-      <c r="H439" s="2"/>
-      <c r="I439" s="1"/>
-      <c r="J439" s="1"/>
-      <c r="K439" s="1"/>
-      <c r="L439" s="1"/>
-      <c r="M439" s="1"/>
-      <c r="N439" s="1"/>
-      <c r="O439" s="1"/>
-      <c r="P439" s="1"/>
-      <c r="Q439" s="1"/>
-      <c r="R439" s="1"/>
-      <c r="S439" s="1"/>
-      <c r="T439" s="1"/>
-      <c r="U439" s="1"/>
-      <c r="V439" s="1"/>
-      <c r="W439" s="1"/>
-      <c r="X439" s="1"/>
-      <c r="Y439" s="1"/>
-      <c r="Z439" s="1"/>
-      <c r="AA439" s="1"/>
-      <c r="AB439" s="1"/>
-      <c r="AC439" s="1"/>
-      <c r="AD439" s="1"/>
-      <c r="AE439" s="1"/>
-      <c r="AF439" s="1"/>
-      <c r="AG439" s="1"/>
-      <c r="AH439" s="1"/>
-      <c r="AI439" s="1"/>
-      <c r="AJ439" s="1"/>
-      <c r="AK439" s="1"/>
-      <c r="AL439" s="1"/>
-      <c r="AM439" s="1"/>
-      <c r="AN439" s="1"/>
-      <c r="AO439" s="1"/>
-      <c r="AP439" s="1"/>
-      <c r="AQ439" s="1"/>
-      <c r="AR439" s="1"/>
-      <c r="AS439" s="1"/>
-      <c r="AT439" s="1"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1"/>
-      <c r="B440" s="1"/>
-      <c r="C440" s="1"/>
-      <c r="D440" s="1"/>
-      <c r="E440" s="1"/>
-      <c r="F440" s="1"/>
-      <c r="G440" s="1"/>
-      <c r="H440" s="2"/>
-      <c r="I440" s="1"/>
-      <c r="J440" s="1"/>
-      <c r="K440" s="1"/>
-      <c r="L440" s="1"/>
-      <c r="M440" s="1"/>
-      <c r="N440" s="1"/>
-      <c r="O440" s="1"/>
-      <c r="P440" s="1"/>
-      <c r="Q440" s="1"/>
-      <c r="R440" s="1"/>
-      <c r="S440" s="1"/>
-      <c r="T440" s="1"/>
-      <c r="U440" s="1"/>
-      <c r="V440" s="1"/>
-      <c r="W440" s="1"/>
-      <c r="X440" s="1"/>
-      <c r="Y440" s="1"/>
-      <c r="Z440" s="1"/>
-      <c r="AA440" s="1"/>
-      <c r="AB440" s="1"/>
-      <c r="AC440" s="1"/>
-      <c r="AD440" s="1"/>
-      <c r="AE440" s="1"/>
-      <c r="AF440" s="1"/>
-      <c r="AG440" s="1"/>
-      <c r="AH440" s="1"/>
-      <c r="AI440" s="1"/>
-      <c r="AJ440" s="1"/>
-      <c r="AK440" s="1"/>
-      <c r="AL440" s="1"/>
-      <c r="AM440" s="1"/>
-      <c r="AN440" s="1"/>
-      <c r="AO440" s="1"/>
-      <c r="AP440" s="1"/>
-      <c r="AQ440" s="1"/>
-      <c r="AR440" s="1"/>
-      <c r="AS440" s="1"/>
-      <c r="AT440" s="1"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1"/>
-      <c r="B441" s="1"/>
-      <c r="C441" s="1"/>
-      <c r="D441" s="1"/>
-      <c r="E441" s="1"/>
-      <c r="F441" s="1"/>
-      <c r="G441" s="1"/>
-      <c r="H441" s="2"/>
-      <c r="I441" s="1"/>
-      <c r="J441" s="1"/>
-      <c r="K441" s="1"/>
-      <c r="L441" s="1"/>
-      <c r="M441" s="1"/>
-      <c r="N441" s="1"/>
-      <c r="O441" s="1"/>
-      <c r="P441" s="1"/>
-      <c r="Q441" s="1"/>
-      <c r="R441" s="1"/>
-      <c r="S441" s="1"/>
-      <c r="T441" s="1"/>
-      <c r="U441" s="1"/>
-      <c r="V441" s="1"/>
-      <c r="W441" s="1"/>
-      <c r="X441" s="1"/>
-      <c r="Y441" s="1"/>
-      <c r="Z441" s="1"/>
-      <c r="AA441" s="1"/>
-      <c r="AB441" s="1"/>
-      <c r="AC441" s="1"/>
-      <c r="AD441" s="1"/>
-      <c r="AE441" s="1"/>
-      <c r="AF441" s="1"/>
-      <c r="AG441" s="1"/>
-      <c r="AH441" s="1"/>
-      <c r="AI441" s="1"/>
-      <c r="AJ441" s="1"/>
-      <c r="AK441" s="1"/>
-      <c r="AL441" s="1"/>
-      <c r="AM441" s="1"/>
-      <c r="AN441" s="1"/>
-      <c r="AO441" s="1"/>
-      <c r="AP441" s="1"/>
-      <c r="AQ441" s="1"/>
-      <c r="AR441" s="1"/>
-      <c r="AS441" s="1"/>
-      <c r="AT441" s="1"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1"/>
-      <c r="B442" s="1"/>
-      <c r="C442" s="1"/>
-      <c r="D442" s="1"/>
-      <c r="E442" s="1"/>
-      <c r="F442" s="1"/>
-      <c r="G442" s="1"/>
-      <c r="H442" s="2"/>
-      <c r="I442" s="1"/>
-      <c r="J442" s="1"/>
-      <c r="K442" s="1"/>
-      <c r="L442" s="1"/>
-      <c r="M442" s="1"/>
-      <c r="N442" s="1"/>
-      <c r="O442" s="1"/>
-      <c r="P442" s="1"/>
-      <c r="Q442" s="1"/>
-      <c r="R442" s="1"/>
-      <c r="S442" s="1"/>
-      <c r="T442" s="1"/>
-      <c r="U442" s="1"/>
-      <c r="V442" s="1"/>
-      <c r="W442" s="1"/>
-      <c r="X442" s="1"/>
-      <c r="Y442" s="1"/>
-      <c r="Z442" s="1"/>
-      <c r="AA442" s="1"/>
-      <c r="AB442" s="1"/>
-      <c r="AC442" s="1"/>
-      <c r="AD442" s="1"/>
-      <c r="AE442" s="1"/>
-      <c r="AF442" s="1"/>
-      <c r="AG442" s="1"/>
-      <c r="AH442" s="1"/>
-      <c r="AI442" s="1"/>
-      <c r="AJ442" s="1"/>
-      <c r="AK442" s="1"/>
-      <c r="AL442" s="1"/>
-      <c r="AM442" s="1"/>
-      <c r="AN442" s="1"/>
-      <c r="AO442" s="1"/>
-      <c r="AP442" s="1"/>
-      <c r="AQ442" s="1"/>
-      <c r="AR442" s="1"/>
-      <c r="AS442" s="1"/>
-      <c r="AT442" s="1"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1"/>
-      <c r="B443" s="1"/>
-      <c r="C443" s="1"/>
-      <c r="D443" s="1"/>
-      <c r="E443" s="1"/>
-      <c r="F443" s="1"/>
-      <c r="G443" s="1"/>
-      <c r="H443" s="2"/>
-      <c r="I443" s="1"/>
-      <c r="J443" s="1"/>
-      <c r="K443" s="1"/>
-      <c r="L443" s="1"/>
-      <c r="M443" s="1"/>
-      <c r="N443" s="1"/>
-      <c r="O443" s="1"/>
-      <c r="P443" s="1"/>
-      <c r="Q443" s="1"/>
-      <c r="R443" s="1"/>
-      <c r="S443" s="1"/>
-      <c r="T443" s="1"/>
-      <c r="U443" s="1"/>
-      <c r="V443" s="1"/>
-      <c r="W443" s="1"/>
-      <c r="X443" s="1"/>
-      <c r="Y443" s="1"/>
-      <c r="Z443" s="1"/>
-      <c r="AA443" s="1"/>
-      <c r="AB443" s="1"/>
-      <c r="AC443" s="1"/>
-      <c r="AD443" s="1"/>
-      <c r="AE443" s="1"/>
-      <c r="AF443" s="1"/>
-      <c r="AG443" s="1"/>
-      <c r="AH443" s="1"/>
-      <c r="AI443" s="1"/>
-      <c r="AJ443" s="1"/>
-      <c r="AK443" s="1"/>
-      <c r="AL443" s="1"/>
-      <c r="AM443" s="1"/>
-      <c r="AN443" s="1"/>
-      <c r="AO443" s="1"/>
-      <c r="AP443" s="1"/>
-      <c r="AQ443" s="1"/>
-      <c r="AR443" s="1"/>
-      <c r="AS443" s="1"/>
-      <c r="AT443" s="1"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1"/>
-      <c r="B444" s="1"/>
-      <c r="C444" s="1"/>
-      <c r="D444" s="1"/>
-      <c r="E444" s="1"/>
-      <c r="F444" s="1"/>
-      <c r="G444" s="1"/>
-      <c r="H444" s="2"/>
-      <c r="I444" s="1"/>
-      <c r="J444" s="1"/>
-      <c r="K444" s="1"/>
-      <c r="L444" s="1"/>
-      <c r="M444" s="1"/>
-      <c r="N444" s="1"/>
-      <c r="O444" s="1"/>
-      <c r="P444" s="1"/>
-      <c r="Q444" s="1"/>
-      <c r="R444" s="1"/>
-      <c r="S444" s="1"/>
-      <c r="T444" s="1"/>
-      <c r="U444" s="1"/>
-      <c r="V444" s="1"/>
-      <c r="W444" s="1"/>
-      <c r="X444" s="1"/>
-      <c r="Y444" s="1"/>
-      <c r="Z444" s="1"/>
-      <c r="AA444" s="1"/>
-      <c r="AB444" s="1"/>
-      <c r="AC444" s="1"/>
-      <c r="AD444" s="1"/>
-      <c r="AE444" s="1"/>
-      <c r="AF444" s="1"/>
-      <c r="AG444" s="1"/>
-      <c r="AH444" s="1"/>
-      <c r="AI444" s="1"/>
-      <c r="AJ444" s="1"/>
-      <c r="AK444" s="1"/>
-      <c r="AL444" s="1"/>
-      <c r="AM444" s="1"/>
-      <c r="AN444" s="1"/>
-      <c r="AO444" s="1"/>
-      <c r="AP444" s="1"/>
-      <c r="AQ444" s="1"/>
-      <c r="AR444" s="1"/>
-      <c r="AS444" s="1"/>
-      <c r="AT444" s="1"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1"/>
-      <c r="B445" s="1"/>
-      <c r="C445" s="1"/>
-      <c r="D445" s="1"/>
-      <c r="E445" s="1"/>
-      <c r="F445" s="1"/>
-      <c r="G445" s="1"/>
-      <c r="H445" s="2"/>
-      <c r="I445" s="1"/>
-      <c r="J445" s="1"/>
-      <c r="K445" s="1"/>
-      <c r="L445" s="1"/>
-      <c r="M445" s="1"/>
-      <c r="N445" s="1"/>
-      <c r="O445" s="1"/>
-      <c r="P445" s="1"/>
-      <c r="Q445" s="1"/>
-      <c r="R445" s="1"/>
-      <c r="S445" s="1"/>
-      <c r="T445" s="1"/>
-      <c r="U445" s="1"/>
-      <c r="V445" s="1"/>
-      <c r="W445" s="1"/>
-      <c r="X445" s="1"/>
-      <c r="Y445" s="1"/>
-      <c r="Z445" s="1"/>
-      <c r="AA445" s="1"/>
-      <c r="AB445" s="1"/>
-      <c r="AC445" s="1"/>
-      <c r="AD445" s="1"/>
-      <c r="AE445" s="1"/>
-      <c r="AF445" s="1"/>
-      <c r="AG445" s="1"/>
-      <c r="AH445" s="1"/>
-      <c r="AI445" s="1"/>
-      <c r="AJ445" s="1"/>
-      <c r="AK445" s="1"/>
-      <c r="AL445" s="1"/>
-      <c r="AM445" s="1"/>
-      <c r="AN445" s="1"/>
-      <c r="AO445" s="1"/>
-      <c r="AP445" s="1"/>
-      <c r="AQ445" s="1"/>
-      <c r="AR445" s="1"/>
-      <c r="AS445" s="1"/>
-      <c r="AT445" s="1"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1"/>
-      <c r="B446" s="1"/>
-      <c r="C446" s="1"/>
-      <c r="D446" s="1"/>
-      <c r="E446" s="1"/>
-      <c r="F446" s="1"/>
-      <c r="G446" s="1"/>
-      <c r="H446" s="2"/>
-      <c r="I446" s="1"/>
-      <c r="J446" s="1"/>
-      <c r="K446" s="1"/>
-      <c r="L446" s="1"/>
-      <c r="M446" s="1"/>
-      <c r="N446" s="1"/>
-      <c r="O446" s="1"/>
-      <c r="P446" s="1"/>
-      <c r="Q446" s="1"/>
-      <c r="R446" s="1"/>
-      <c r="S446" s="1"/>
-      <c r="T446" s="1"/>
-      <c r="U446" s="1"/>
-      <c r="V446" s="1"/>
-      <c r="W446" s="1"/>
-      <c r="X446" s="1"/>
-      <c r="Y446" s="1"/>
-      <c r="Z446" s="1"/>
-      <c r="AA446" s="1"/>
-      <c r="AB446" s="1"/>
-      <c r="AC446" s="1"/>
-      <c r="AD446" s="1"/>
-      <c r="AE446" s="1"/>
-      <c r="AF446" s="1"/>
-      <c r="AG446" s="1"/>
-      <c r="AH446" s="1"/>
-      <c r="AI446" s="1"/>
-      <c r="AJ446" s="1"/>
-      <c r="AK446" s="1"/>
-      <c r="AL446" s="1"/>
-      <c r="AM446" s="1"/>
-      <c r="AN446" s="1"/>
-      <c r="AO446" s="1"/>
-      <c r="AP446" s="1"/>
-      <c r="AQ446" s="1"/>
-      <c r="AR446" s="1"/>
-      <c r="AS446" s="1"/>
-      <c r="AT446" s="1"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1"/>
-      <c r="B447" s="1"/>
-      <c r="C447" s="1"/>
-      <c r="D447" s="1"/>
-      <c r="E447" s="1"/>
-      <c r="F447" s="1"/>
-      <c r="G447" s="1"/>
-      <c r="H447" s="2"/>
-      <c r="I447" s="1"/>
-      <c r="J447" s="1"/>
-      <c r="K447" s="1"/>
-      <c r="L447" s="1"/>
-      <c r="M447" s="1"/>
-      <c r="N447" s="1"/>
-      <c r="O447" s="1"/>
-      <c r="P447" s="1"/>
-      <c r="Q447" s="1"/>
-      <c r="R447" s="1"/>
-      <c r="S447" s="1"/>
-      <c r="T447" s="1"/>
-      <c r="U447" s="1"/>
-      <c r="V447" s="1"/>
-      <c r="W447" s="1"/>
-      <c r="X447" s="1"/>
-      <c r="Y447" s="1"/>
-      <c r="Z447" s="1"/>
-      <c r="AA447" s="1"/>
-      <c r="AB447" s="1"/>
-      <c r="AC447" s="1"/>
-      <c r="AD447" s="1"/>
-      <c r="AE447" s="1"/>
-      <c r="AF447" s="1"/>
-      <c r="AG447" s="1"/>
-      <c r="AH447" s="1"/>
-      <c r="AI447" s="1"/>
-      <c r="AJ447" s="1"/>
-      <c r="AK447" s="1"/>
-      <c r="AL447" s="1"/>
-      <c r="AM447" s="1"/>
-      <c r="AN447" s="1"/>
-      <c r="AO447" s="1"/>
-      <c r="AP447" s="1"/>
-      <c r="AQ447" s="1"/>
-      <c r="AR447" s="1"/>
-      <c r="AS447" s="1"/>
-      <c r="AT447" s="1"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1"/>
-      <c r="B448" s="1"/>
-      <c r="C448" s="1"/>
-      <c r="D448" s="1"/>
-      <c r="E448" s="1"/>
-      <c r="F448" s="1"/>
-      <c r="G448" s="1"/>
-      <c r="H448" s="2"/>
-      <c r="I448" s="1"/>
-      <c r="J448" s="1"/>
-      <c r="K448" s="1"/>
-      <c r="L448" s="1"/>
-      <c r="M448" s="1"/>
-      <c r="N448" s="1"/>
-      <c r="O448" s="1"/>
-      <c r="P448" s="1"/>
-      <c r="Q448" s="1"/>
-      <c r="R448" s="1"/>
-      <c r="S448" s="1"/>
-      <c r="T448" s="1"/>
-      <c r="U448" s="1"/>
-      <c r="V448" s="1"/>
-      <c r="W448" s="1"/>
-      <c r="X448" s="1"/>
-      <c r="Y448" s="1"/>
-      <c r="Z448" s="1"/>
-      <c r="AA448" s="1"/>
-      <c r="AB448" s="1"/>
-      <c r="AC448" s="1"/>
-      <c r="AD448" s="1"/>
-      <c r="AE448" s="1"/>
-      <c r="AF448" s="1"/>
-      <c r="AG448" s="1"/>
-      <c r="AH448" s="1"/>
-      <c r="AI448" s="1"/>
-      <c r="AJ448" s="1"/>
-      <c r="AK448" s="1"/>
-      <c r="AL448" s="1"/>
-      <c r="AM448" s="1"/>
-      <c r="AN448" s="1"/>
-      <c r="AO448" s="1"/>
-      <c r="AP448" s="1"/>
-      <c r="AQ448" s="1"/>
-      <c r="AR448" s="1"/>
-      <c r="AS448" s="1"/>
-      <c r="AT448" s="1"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1"/>
-      <c r="B449" s="1"/>
-      <c r="C449" s="1"/>
-      <c r="D449" s="1"/>
-      <c r="E449" s="1"/>
-      <c r="F449" s="1"/>
-      <c r="G449" s="1"/>
-      <c r="H449" s="2"/>
-      <c r="I449" s="1"/>
-      <c r="J449" s="1"/>
-      <c r="K449" s="1"/>
-      <c r="L449" s="1"/>
-      <c r="M449" s="1"/>
-      <c r="N449" s="1"/>
-      <c r="O449" s="1"/>
-      <c r="P449" s="1"/>
-      <c r="Q449" s="1"/>
-      <c r="R449" s="1"/>
-      <c r="S449" s="1"/>
-      <c r="T449" s="1"/>
-      <c r="U449" s="1"/>
-      <c r="V449" s="1"/>
-      <c r="W449" s="1"/>
-      <c r="X449" s="1"/>
-      <c r="Y449" s="1"/>
-      <c r="Z449" s="1"/>
-      <c r="AA449" s="1"/>
-      <c r="AB449" s="1"/>
-      <c r="AC449" s="1"/>
-      <c r="AD449" s="1"/>
-      <c r="AE449" s="1"/>
-      <c r="AF449" s="1"/>
-      <c r="AG449" s="1"/>
-      <c r="AH449" s="1"/>
-      <c r="AI449" s="1"/>
-      <c r="AJ449" s="1"/>
-      <c r="AK449" s="1"/>
-      <c r="AL449" s="1"/>
-      <c r="AM449" s="1"/>
-      <c r="AN449" s="1"/>
-      <c r="AO449" s="1"/>
-      <c r="AP449" s="1"/>
-      <c r="AQ449" s="1"/>
-      <c r="AR449" s="1"/>
-      <c r="AS449" s="1"/>
-      <c r="AT449" s="1"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1"/>
-      <c r="B450" s="1"/>
-      <c r="C450" s="1"/>
-      <c r="D450" s="1"/>
-      <c r="E450" s="1"/>
-      <c r="F450" s="1"/>
-      <c r="G450" s="1"/>
-      <c r="H450" s="2"/>
-      <c r="I450" s="1"/>
-      <c r="J450" s="1"/>
-      <c r="K450" s="1"/>
-      <c r="L450" s="1"/>
-      <c r="M450" s="1"/>
-      <c r="N450" s="1"/>
-      <c r="O450" s="1"/>
-      <c r="P450" s="1"/>
-      <c r="Q450" s="1"/>
-      <c r="R450" s="1"/>
-      <c r="S450" s="1"/>
-      <c r="T450" s="1"/>
-      <c r="U450" s="1"/>
-      <c r="V450" s="1"/>
-      <c r="W450" s="1"/>
-      <c r="X450" s="1"/>
-      <c r="Y450" s="1"/>
-      <c r="Z450" s="1"/>
-      <c r="AA450" s="1"/>
-      <c r="AB450" s="1"/>
-      <c r="AC450" s="1"/>
-      <c r="AD450" s="1"/>
-      <c r="AE450" s="1"/>
-      <c r="AF450" s="1"/>
-      <c r="AG450" s="1"/>
-      <c r="AH450" s="1"/>
-      <c r="AI450" s="1"/>
-      <c r="AJ450" s="1"/>
-      <c r="AK450" s="1"/>
-      <c r="AL450" s="1"/>
-      <c r="AM450" s="1"/>
-      <c r="AN450" s="1"/>
-      <c r="AO450" s="1"/>
-      <c r="AP450" s="1"/>
-      <c r="AQ450" s="1"/>
-      <c r="AR450" s="1"/>
-      <c r="AS450" s="1"/>
-      <c r="AT450" s="1"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1"/>
-      <c r="B451" s="1"/>
-      <c r="C451" s="1"/>
-      <c r="D451" s="1"/>
-      <c r="E451" s="1"/>
-      <c r="F451" s="1"/>
-      <c r="G451" s="1"/>
-      <c r="H451" s="2"/>
-      <c r="I451" s="1"/>
-      <c r="J451" s="1"/>
-      <c r="K451" s="1"/>
-      <c r="L451" s="1"/>
-      <c r="M451" s="1"/>
-      <c r="N451" s="1"/>
-      <c r="O451" s="1"/>
-      <c r="P451" s="1"/>
-      <c r="Q451" s="1"/>
-      <c r="R451" s="1"/>
-      <c r="S451" s="1"/>
-      <c r="T451" s="1"/>
-      <c r="U451" s="1"/>
-      <c r="V451" s="1"/>
-      <c r="W451" s="1"/>
-      <c r="X451" s="1"/>
-      <c r="Y451" s="1"/>
-      <c r="Z451" s="1"/>
-      <c r="AA451" s="1"/>
-      <c r="AB451" s="1"/>
-      <c r="AC451" s="1"/>
-      <c r="AD451" s="1"/>
-      <c r="AE451" s="1"/>
-      <c r="AF451" s="1"/>
-      <c r="AG451" s="1"/>
-      <c r="AH451" s="1"/>
-      <c r="AI451" s="1"/>
-      <c r="AJ451" s="1"/>
-      <c r="AK451" s="1"/>
-      <c r="AL451" s="1"/>
-      <c r="AM451" s="1"/>
-      <c r="AN451" s="1"/>
-      <c r="AO451" s="1"/>
-      <c r="AP451" s="1"/>
-      <c r="AQ451" s="1"/>
-      <c r="AR451" s="1"/>
-      <c r="AS451" s="1"/>
-      <c r="AT451" s="1"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1"/>
-      <c r="B452" s="1"/>
-      <c r="C452" s="1"/>
-      <c r="D452" s="1"/>
-      <c r="E452" s="1"/>
-      <c r="F452" s="1"/>
-      <c r="G452" s="1"/>
-      <c r="H452" s="2"/>
-      <c r="I452" s="1"/>
-      <c r="J452" s="1"/>
-      <c r="K452" s="1"/>
-      <c r="L452" s="1"/>
-      <c r="M452" s="1"/>
-      <c r="N452" s="1"/>
-      <c r="O452" s="1"/>
-      <c r="P452" s="1"/>
-      <c r="Q452" s="1"/>
-      <c r="R452" s="1"/>
-      <c r="S452" s="1"/>
-      <c r="T452" s="1"/>
-      <c r="U452" s="1"/>
-      <c r="V452" s="1"/>
-      <c r="W452" s="1"/>
-      <c r="X452" s="1"/>
-      <c r="Y452" s="1"/>
-      <c r="Z452" s="1"/>
-      <c r="AA452" s="1"/>
-      <c r="AB452" s="1"/>
-      <c r="AC452" s="1"/>
-      <c r="AD452" s="1"/>
-      <c r="AE452" s="1"/>
-      <c r="AF452" s="1"/>
-      <c r="AG452" s="1"/>
-      <c r="AH452" s="1"/>
-      <c r="AI452" s="1"/>
-      <c r="AJ452" s="1"/>
-      <c r="AK452" s="1"/>
-      <c r="AL452" s="1"/>
-      <c r="AM452" s="1"/>
-      <c r="AN452" s="1"/>
-      <c r="AO452" s="1"/>
-      <c r="AP452" s="1"/>
-      <c r="AQ452" s="1"/>
-      <c r="AR452" s="1"/>
-      <c r="AS452" s="1"/>
-      <c r="AT452" s="1"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1"/>
-      <c r="B453" s="1"/>
-      <c r="C453" s="1"/>
-      <c r="D453" s="1"/>
-      <c r="E453" s="1"/>
-      <c r="F453" s="1"/>
-      <c r="G453" s="1"/>
-      <c r="H453" s="2"/>
-      <c r="I453" s="1"/>
-      <c r="J453" s="1"/>
-      <c r="K453" s="1"/>
-      <c r="L453" s="1"/>
-      <c r="M453" s="1"/>
-      <c r="N453" s="1"/>
-      <c r="O453" s="1"/>
-      <c r="P453" s="1"/>
-      <c r="Q453" s="1"/>
-      <c r="R453" s="1"/>
-      <c r="S453" s="1"/>
-      <c r="T453" s="1"/>
-      <c r="U453" s="1"/>
-      <c r="V453" s="1"/>
-      <c r="W453" s="1"/>
-      <c r="X453" s="1"/>
-      <c r="Y453" s="1"/>
-      <c r="Z453" s="1"/>
-      <c r="AA453" s="1"/>
-      <c r="AB453" s="1"/>
-      <c r="AC453" s="1"/>
-      <c r="AD453" s="1"/>
-      <c r="AE453" s="1"/>
-      <c r="AF453" s="1"/>
-      <c r="AG453" s="1"/>
-      <c r="AH453" s="1"/>
-      <c r="AI453" s="1"/>
-      <c r="AJ453" s="1"/>
-      <c r="AK453" s="1"/>
-      <c r="AL453" s="1"/>
-      <c r="AM453" s="1"/>
-      <c r="AN453" s="1"/>
-      <c r="AO453" s="1"/>
-      <c r="AP453" s="1"/>
-      <c r="AQ453" s="1"/>
-      <c r="AR453" s="1"/>
-      <c r="AS453" s="1"/>
-      <c r="AT453" s="1"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1"/>
-      <c r="B454" s="1"/>
-      <c r="C454" s="1"/>
-      <c r="D454" s="1"/>
-      <c r="E454" s="1"/>
-      <c r="F454" s="1"/>
-      <c r="G454" s="1"/>
-      <c r="H454" s="2"/>
-      <c r="I454" s="1"/>
-      <c r="J454" s="1"/>
-      <c r="K454" s="1"/>
-      <c r="L454" s="1"/>
-      <c r="M454" s="1"/>
-      <c r="N454" s="1"/>
-      <c r="O454" s="1"/>
-      <c r="P454" s="1"/>
-      <c r="Q454" s="1"/>
-      <c r="R454" s="1"/>
-      <c r="S454" s="1"/>
-      <c r="T454" s="1"/>
-      <c r="U454" s="1"/>
-      <c r="V454" s="1"/>
-      <c r="W454" s="1"/>
-      <c r="X454" s="1"/>
-      <c r="Y454" s="1"/>
-      <c r="Z454" s="1"/>
-      <c r="AA454" s="1"/>
-      <c r="AB454" s="1"/>
-      <c r="AC454" s="1"/>
-      <c r="AD454" s="1"/>
-      <c r="AE454" s="1"/>
-      <c r="AF454" s="1"/>
-      <c r="AG454" s="1"/>
-      <c r="AH454" s="1"/>
-      <c r="AI454" s="1"/>
-      <c r="AJ454" s="1"/>
-      <c r="AK454" s="1"/>
-      <c r="AL454" s="1"/>
-      <c r="AM454" s="1"/>
-      <c r="AN454" s="1"/>
-      <c r="AO454" s="1"/>
-      <c r="AP454" s="1"/>
-      <c r="AQ454" s="1"/>
-      <c r="AR454" s="1"/>
-      <c r="AS454" s="1"/>
-      <c r="AT454" s="1"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1"/>
-      <c r="B455" s="1"/>
-      <c r="C455" s="1"/>
-      <c r="D455" s="1"/>
-      <c r="E455" s="1"/>
-      <c r="F455" s="1"/>
-      <c r="G455" s="1"/>
-      <c r="H455" s="2"/>
-      <c r="I455" s="1"/>
-      <c r="J455" s="1"/>
-      <c r="K455" s="1"/>
-      <c r="L455" s="1"/>
-      <c r="M455" s="1"/>
-      <c r="N455" s="1"/>
-      <c r="O455" s="1"/>
-      <c r="P455" s="1"/>
-      <c r="Q455" s="1"/>
-      <c r="R455" s="1"/>
-      <c r="S455" s="1"/>
-      <c r="T455" s="1"/>
-      <c r="U455" s="1"/>
-      <c r="V455" s="1"/>
-      <c r="W455" s="1"/>
-      <c r="X455" s="1"/>
-      <c r="Y455" s="1"/>
-      <c r="Z455" s="1"/>
-      <c r="AA455" s="1"/>
-      <c r="AB455" s="1"/>
-      <c r="AC455" s="1"/>
-      <c r="AD455" s="1"/>
-      <c r="AE455" s="1"/>
-      <c r="AF455" s="1"/>
-      <c r="AG455" s="1"/>
-      <c r="AH455" s="1"/>
-      <c r="AI455" s="1"/>
-      <c r="AJ455" s="1"/>
-      <c r="AK455" s="1"/>
-      <c r="AL455" s="1"/>
-      <c r="AM455" s="1"/>
-      <c r="AN455" s="1"/>
-      <c r="AO455" s="1"/>
-      <c r="AP455" s="1"/>
-      <c r="AQ455" s="1"/>
-      <c r="AR455" s="1"/>
-      <c r="AS455" s="1"/>
-      <c r="AT455" s="1"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1"/>
-      <c r="B456" s="1"/>
-      <c r="C456" s="1"/>
-      <c r="D456" s="1"/>
-      <c r="E456" s="1"/>
-      <c r="F456" s="1"/>
-      <c r="G456" s="1"/>
-      <c r="H456" s="2"/>
-      <c r="I456" s="1"/>
-      <c r="J456" s="1"/>
-      <c r="K456" s="1"/>
-      <c r="L456" s="1"/>
-      <c r="M456" s="1"/>
-      <c r="N456" s="1"/>
-      <c r="O456" s="1"/>
-      <c r="P456" s="1"/>
-      <c r="Q456" s="1"/>
-      <c r="R456" s="1"/>
-      <c r="S456" s="1"/>
-      <c r="T456" s="1"/>
-      <c r="U456" s="1"/>
-      <c r="V456" s="1"/>
-      <c r="W456" s="1"/>
-      <c r="X456" s="1"/>
-      <c r="Y456" s="1"/>
-      <c r="Z456" s="1"/>
-      <c r="AA456" s="1"/>
-      <c r="AB456" s="1"/>
-      <c r="AC456" s="1"/>
-      <c r="AD456" s="1"/>
-      <c r="AE456" s="1"/>
-      <c r="AF456" s="1"/>
-      <c r="AG456" s="1"/>
-      <c r="AH456" s="1"/>
-      <c r="AI456" s="1"/>
-      <c r="AJ456" s="1"/>
-      <c r="AK456" s="1"/>
-      <c r="AL456" s="1"/>
-      <c r="AM456" s="1"/>
-      <c r="AN456" s="1"/>
-      <c r="AO456" s="1"/>
-      <c r="AP456" s="1"/>
-      <c r="AQ456" s="1"/>
-      <c r="AR456" s="1"/>
-      <c r="AS456" s="1"/>
-      <c r="AT456" s="1"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1"/>
-      <c r="B457" s="1"/>
-      <c r="C457" s="1"/>
-      <c r="D457" s="1"/>
-      <c r="E457" s="1"/>
-      <c r="F457" s="1"/>
-      <c r="G457" s="1"/>
-      <c r="H457" s="2"/>
-      <c r="I457" s="1"/>
-      <c r="J457" s="1"/>
-      <c r="K457" s="1"/>
-      <c r="L457" s="1"/>
-      <c r="M457" s="1"/>
-      <c r="N457" s="1"/>
-      <c r="O457" s="1"/>
-      <c r="P457" s="1"/>
-      <c r="Q457" s="1"/>
-      <c r="R457" s="1"/>
-      <c r="S457" s="1"/>
-      <c r="T457" s="1"/>
-      <c r="U457" s="1"/>
-      <c r="V457" s="1"/>
-      <c r="W457" s="1"/>
-      <c r="X457" s="1"/>
-      <c r="Y457" s="1"/>
-      <c r="Z457" s="1"/>
-      <c r="AA457" s="1"/>
-      <c r="AB457" s="1"/>
-      <c r="AC457" s="1"/>
-      <c r="AD457" s="1"/>
-      <c r="AE457" s="1"/>
-      <c r="AF457" s="1"/>
-      <c r="AG457" s="1"/>
-      <c r="AH457" s="1"/>
-      <c r="AI457" s="1"/>
-      <c r="AJ457" s="1"/>
-      <c r="AK457" s="1"/>
-      <c r="AL457" s="1"/>
-      <c r="AM457" s="1"/>
-      <c r="AN457" s="1"/>
-      <c r="AO457" s="1"/>
-      <c r="AP457" s="1"/>
-      <c r="AQ457" s="1"/>
-      <c r="AR457" s="1"/>
-      <c r="AS457" s="1"/>
-      <c r="AT457" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
